--- a/Examples/Commitment of Traders.xlsx
+++ b/Examples/Commitment of Traders.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\XLQuote\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88246D21-D85B-49B0-A115-22BD17747439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B31CB10-7867-4766-AD46-F19BF226BB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Long</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>CFTC/13874A_F_L_ALL</t>
+  </si>
+  <si>
+    <t>Speculator - Hedger</t>
   </si>
 </sst>
 </file>
@@ -150,14 +153,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -473,18 +476,18 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>5</v>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -506,18 +509,18 @@
       <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="str" cm="1">
         <f t="array" ref="A5">_xll.xlquoteDatasets($A$1,$I5,0)</f>
         <v>2022-06-28</v>
       </c>
-      <c r="B5" s="8" cm="1">
+      <c r="B5" s="6" cm="1">
         <f t="array" ref="B5">_xll.xlquoteDatasets($A$1,$I5,B$2)</f>
         <v>248313</v>
       </c>
-      <c r="C5" s="8" cm="1">
+      <c r="C5" s="6" cm="1">
         <f t="array" ref="C5">_xll.xlquoteDatasets($A$1,$I5,C$2)</f>
         <v>387539</v>
       </c>
@@ -525,11 +528,11 @@
         <f>B5-C5</f>
         <v>-139226</v>
       </c>
-      <c r="E5" s="8" cm="1">
+      <c r="E5" s="6" cm="1">
         <f t="array" ref="E5">_xll.xlquoteDatasets($A$1,$I5,E$2)</f>
         <v>1726190</v>
       </c>
-      <c r="F5" s="8" cm="1">
+      <c r="F5" s="6" cm="1">
         <f t="array" ref="F5">_xll.xlquoteDatasets($A$1,$I5,F$2)</f>
         <v>1557785</v>
       </c>
@@ -550,11 +553,11 @@
         <f t="array" ref="A6">_xll.xlquoteDatasets($A$1,$I6,0)</f>
         <v>2022-06-21</v>
       </c>
-      <c r="B6" s="8" cm="1">
+      <c r="B6" s="6" cm="1">
         <f t="array" ref="B6">_xll.xlquoteDatasets($A$1,$I6,B$2)</f>
         <v>273629</v>
       </c>
-      <c r="C6" s="8" cm="1">
+      <c r="C6" s="6" cm="1">
         <f t="array" ref="C6">_xll.xlquoteDatasets($A$1,$I6,C$2)</f>
         <v>387948</v>
       </c>
@@ -562,11 +565,11 @@
         <f>B6-C6</f>
         <v>-114319</v>
       </c>
-      <c r="E6" s="8" cm="1">
+      <c r="E6" s="6" cm="1">
         <f t="array" ref="E6">_xll.xlquoteDatasets($A$1,$I6,E$2)</f>
         <v>1713053</v>
       </c>
-      <c r="F6" s="8" cm="1">
+      <c r="F6" s="6" cm="1">
         <f t="array" ref="F6">_xll.xlquoteDatasets($A$1,$I6,F$2)</f>
         <v>1568856</v>
       </c>

--- a/Examples/Commitment of Traders.xlsx
+++ b/Examples/Commitment of Traders.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B31CB10-7867-4766-AD46-F19BF226BB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAE968B-7008-4B5B-886C-75F817AC6A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Commitment of Traders" sheetId="1" r:id="rId1"/>
+    <sheet name="Futures COT" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="url">"http://localhost:8000/CFTC/"</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,33 +60,324 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Short</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+  <si>
+    <t>S-H</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>E-mini S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Micro E-mini S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Dow</t>
+  </si>
+  <si>
+    <t>E-mini Dow</t>
+  </si>
+  <si>
+    <t>Nasdaq-100</t>
+  </si>
+  <si>
+    <t>E-mini Nasdaq-100</t>
+  </si>
+  <si>
+    <t>Micro E-mini Nasdaq-100</t>
+  </si>
+  <si>
+    <t>E-mini Russell 2000 Index</t>
+  </si>
+  <si>
+    <t>VIX</t>
+  </si>
+  <si>
+    <t>Eurodollar 3M</t>
+  </si>
+  <si>
+    <t>Fed Funds</t>
+  </si>
+  <si>
+    <t>SOFR 3M</t>
+  </si>
+  <si>
+    <t>2-Year T-Note</t>
+  </si>
+  <si>
+    <t>10-Year T-Note</t>
+  </si>
+  <si>
+    <t>Ultra 10-Year T-Note</t>
+  </si>
+  <si>
+    <t>BBG Commodity</t>
+  </si>
+  <si>
+    <t>WTI Physical</t>
+  </si>
+  <si>
+    <t>WTI Financial Crude Oil</t>
+  </si>
+  <si>
+    <t>Brent Last Day</t>
+  </si>
+  <si>
+    <t>Henry Hub Natural Gas</t>
+  </si>
+  <si>
+    <t>RBOB Gasoline</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Wheat SRW</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Soybeans</t>
+  </si>
+  <si>
+    <t>Soybean Oil</t>
+  </si>
+  <si>
+    <t>Soybean Meal</t>
+  </si>
+  <si>
+    <t>Cotton No. 2</t>
+  </si>
+  <si>
+    <t>Rough Rice</t>
+  </si>
+  <si>
+    <t>Cocoa</t>
+  </si>
+  <si>
+    <t>Sugar No. 11</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Lean Hogs</t>
+  </si>
+  <si>
+    <t>Live Cattle</t>
+  </si>
+  <si>
+    <t>Lumber</t>
+  </si>
+  <si>
+    <t>Feeder Cattle</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>US Dollar Index</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>British Pound</t>
+  </si>
+  <si>
+    <t>Japanese Yen</t>
+  </si>
+  <si>
+    <t>Bitcoin</t>
+  </si>
+  <si>
+    <t>Ether</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>Change</t>
   </si>
   <si>
-    <t>Commercial</t>
+    <t>OI</t>
   </si>
   <si>
     <t>Noncommercial</t>
   </si>
   <si>
-    <t>Net</t>
-  </si>
-  <si>
-    <t>Commitment of Traders - E-MINI S&amp;P 500 (CME) - Futures Only</t>
-  </si>
-  <si>
-    <t>CFTC/13874A_F_L_ALL</t>
-  </si>
-  <si>
-    <t>Speculator - Hedger</t>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Nonreportable</t>
+  </si>
+  <si>
+    <t>13874+.FO</t>
+  </si>
+  <si>
+    <t>13874A.FO</t>
+  </si>
+  <si>
+    <t>13874U.FO</t>
+  </si>
+  <si>
+    <t>12460+.FO</t>
+  </si>
+  <si>
+    <t>124603.FO</t>
+  </si>
+  <si>
+    <t>20974+.FO</t>
+  </si>
+  <si>
+    <t>209742.FO</t>
+  </si>
+  <si>
+    <t>209747.FO</t>
+  </si>
+  <si>
+    <t>239742.FO</t>
+  </si>
+  <si>
+    <t>1170E1.FO</t>
+  </si>
+  <si>
+    <t>132741.FO</t>
+  </si>
+  <si>
+    <t>045601.FO</t>
+  </si>
+  <si>
+    <t>134741.FO</t>
+  </si>
+  <si>
+    <t>042601.FO</t>
+  </si>
+  <si>
+    <t>043602.FO</t>
+  </si>
+  <si>
+    <t>043607.FO</t>
+  </si>
+  <si>
+    <t>221602.FO</t>
+  </si>
+  <si>
+    <t>067651.FO</t>
+  </si>
+  <si>
+    <t>06765A.FO</t>
+  </si>
+  <si>
+    <t>06765T.FO</t>
+  </si>
+  <si>
+    <t>03565B.FO</t>
+  </si>
+  <si>
+    <t>111659.FO</t>
+  </si>
+  <si>
+    <t>088691.FO</t>
+  </si>
+  <si>
+    <t>084691.FO</t>
+  </si>
+  <si>
+    <t>085692.FO</t>
+  </si>
+  <si>
+    <t>075651.FO</t>
+  </si>
+  <si>
+    <t>076651.FO</t>
+  </si>
+  <si>
+    <t>001602.FO</t>
+  </si>
+  <si>
+    <t>002602.FO</t>
+  </si>
+  <si>
+    <t>005602.FO</t>
+  </si>
+  <si>
+    <t>007601.FO</t>
+  </si>
+  <si>
+    <t>026603.FO</t>
+  </si>
+  <si>
+    <t>033661.FO</t>
+  </si>
+  <si>
+    <t>039601.FO</t>
+  </si>
+  <si>
+    <t>073732.FO</t>
+  </si>
+  <si>
+    <t>080732.FO</t>
+  </si>
+  <si>
+    <t>083731.FO</t>
+  </si>
+  <si>
+    <t>052644.FO</t>
+  </si>
+  <si>
+    <t>054642.FO</t>
+  </si>
+  <si>
+    <t>057642.FO</t>
+  </si>
+  <si>
+    <t>058643.FO</t>
+  </si>
+  <si>
+    <t>061641.FO</t>
+  </si>
+  <si>
+    <t>063642.FO</t>
+  </si>
+  <si>
+    <t>098662.FO</t>
+  </si>
+  <si>
+    <t>099741.FO</t>
+  </si>
+  <si>
+    <t>096742.FO</t>
+  </si>
+  <si>
+    <t>097741.FO</t>
+  </si>
+  <si>
+    <t>133741.FO</t>
+  </si>
+  <si>
+    <t>146021.FO</t>
   </si>
 </sst>
 </file>
@@ -111,10 +405,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -140,32 +433,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,191 +730,1624 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" customWidth="1"/>
-    <col min="2" max="8" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="22.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.59765625" customWidth="1"/>
+    <col min="9" max="9" width="9.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" cm="1">
+        <f t="array" ref="B2">_xll.xlquoteCOT(I2,"open_interest")</f>
+        <v>666545</v>
+      </c>
+      <c r="C2" s="1" cm="1">
+        <f t="array" ref="C2">_xll.xlquoteCOT(I2,"noncommercial_net")</f>
+        <v>-43912</v>
+      </c>
+      <c r="D2" s="6">
+        <f>C2/B2</f>
+        <v>-6.588002310421652E-2</v>
+      </c>
+      <c r="E2" s="1" cm="1">
+        <f t="array" ref="E2">_xll.xlquoteCOT(I2,"noncommercial_commercial")</f>
+        <v>-102951</v>
+      </c>
+      <c r="F2" s="1" cm="1">
+        <f t="array" ref="F2">_xll.xlquoteCOT(I2,"change_noncommercial_commercial")</f>
+        <v>16486</v>
+      </c>
+      <c r="G2" s="1" cm="1">
+        <f t="array" ref="G2">_xll.xlquoteCOT(I2,"nonreportable_net")</f>
+        <v>-15127</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B3" s="1" cm="1">
+        <f t="array" ref="B3">_xll.xlquoteCOT(I3,"open_interest")</f>
+        <v>3332723</v>
+      </c>
+      <c r="C3" s="1" cm="1">
+        <f t="array" ref="C3">_xll.xlquoteCOT(I3,"noncommercial_net")</f>
+        <v>-219560</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D50" si="0">C3/B3</f>
+        <v>-6.5880062639469286E-2</v>
+      </c>
+      <c r="E3" s="1" cm="1">
+        <f t="array" ref="E3">_xll.xlquoteCOT(I3,"noncommercial_commercial")</f>
+        <v>-514756</v>
+      </c>
+      <c r="F3" s="1" cm="1">
+        <f t="array" ref="F3">_xll.xlquoteCOT(I3,"change_noncommercial_commercial")</f>
+        <v>82434</v>
+      </c>
+      <c r="G3" s="1" cm="1">
+        <f t="array" ref="G3">_xll.xlquoteCOT(I3,"nonreportable_net")</f>
+        <v>-75636</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="B4" s="1" cm="1">
+        <f t="array" ref="B4">_xll.xlquoteCOT(I4,"open_interest")</f>
+        <v>212268</v>
+      </c>
+      <c r="C4" s="1" cm="1">
+        <f t="array" ref="C4">_xll.xlquoteCOT(I4,"noncommercial_net")</f>
+        <v>-108455</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.5109342906137524</v>
+      </c>
+      <c r="E4" s="1" cm="1">
+        <f t="array" ref="E4">_xll.xlquoteCOT(I4,"noncommercial_commercial")</f>
+        <v>-129708</v>
+      </c>
+      <c r="F4" s="1" cm="1">
+        <f t="array" ref="F4">_xll.xlquoteCOT(I4,"change_noncommercial_commercial")</f>
+        <v>-37022</v>
+      </c>
+      <c r="G4" s="1" cm="1">
+        <f t="array" ref="G4">_xll.xlquoteCOT(I4,"nonreportable_net")</f>
+        <v>87202</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" cm="1">
+        <f t="array" ref="B5">_xll.xlquoteCOT(I5,"open_interest")</f>
+        <v>40463</v>
+      </c>
+      <c r="C5" s="1" cm="1">
+        <f t="array" ref="C5">_xll.xlquoteCOT(I5,"noncommercial_net")</f>
+        <v>-2306</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>-5.699033685095025E-2</v>
+      </c>
+      <c r="E5" s="1" cm="1">
+        <f t="array" ref="E5">_xll.xlquoteCOT(I5,"noncommercial_commercial")</f>
+        <v>-4767</v>
+      </c>
+      <c r="F5" s="1" cm="1">
+        <f t="array" ref="F5">_xll.xlquoteCOT(I5,"change_noncommercial_commercial")</f>
+        <v>3464</v>
+      </c>
+      <c r="G5" s="1" cm="1">
+        <f t="array" ref="G5">_xll.xlquoteCOT(I5,"nonreportable_net")</f>
+        <v>-155</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="str" cm="1">
-        <f t="array" ref="A5">_xll.xlquoteDatasets($A$1,$I5,0)</f>
-        <v>2022-06-28</v>
-      </c>
-      <c r="B5" s="6" cm="1">
-        <f t="array" ref="B5">_xll.xlquoteDatasets($A$1,$I5,B$2)</f>
-        <v>248313</v>
-      </c>
-      <c r="C5" s="6" cm="1">
-        <f t="array" ref="C5">_xll.xlquoteDatasets($A$1,$I5,C$2)</f>
-        <v>387539</v>
-      </c>
-      <c r="D5" s="2">
-        <f>B5-C5</f>
-        <v>-139226</v>
-      </c>
-      <c r="E5" s="6" cm="1">
-        <f t="array" ref="E5">_xll.xlquoteDatasets($A$1,$I5,E$2)</f>
-        <v>1726190</v>
-      </c>
-      <c r="F5" s="6" cm="1">
-        <f t="array" ref="F5">_xll.xlquoteDatasets($A$1,$I5,F$2)</f>
-        <v>1557785</v>
-      </c>
-      <c r="G5" s="1">
-        <f>E5-F5</f>
-        <v>168405</v>
-      </c>
-      <c r="H5" s="2">
-        <f>D5-G5</f>
-        <v>-307631</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="str" cm="1">
-        <f t="array" ref="A6">_xll.xlquoteDatasets($A$1,$I6,0)</f>
-        <v>2022-06-21</v>
-      </c>
-      <c r="B6" s="6" cm="1">
-        <f t="array" ref="B6">_xll.xlquoteDatasets($A$1,$I6,B$2)</f>
-        <v>273629</v>
-      </c>
-      <c r="C6" s="6" cm="1">
-        <f t="array" ref="C6">_xll.xlquoteDatasets($A$1,$I6,C$2)</f>
-        <v>387948</v>
-      </c>
-      <c r="D6" s="2">
-        <f>B6-C6</f>
-        <v>-114319</v>
-      </c>
-      <c r="E6" s="6" cm="1">
-        <f t="array" ref="E6">_xll.xlquoteDatasets($A$1,$I6,E$2)</f>
-        <v>1713053</v>
-      </c>
-      <c r="F6" s="6" cm="1">
-        <f t="array" ref="F6">_xll.xlquoteDatasets($A$1,$I6,F$2)</f>
-        <v>1568856</v>
-      </c>
-      <c r="G6" s="1">
-        <f>E6-F6</f>
-        <v>144197</v>
-      </c>
-      <c r="H6" s="2">
-        <f>D6-G6</f>
-        <v>-258516</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
+      <c r="B6" s="1" cm="1">
+        <f t="array" ref="B6">_xll.xlquoteCOT(I6,"open_interest")</f>
+        <v>80925</v>
+      </c>
+      <c r="C6" s="1" cm="1">
+        <f t="array" ref="C6">_xll.xlquoteCOT(I6,"noncommercial_net")</f>
+        <v>-4611</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>-5.6978683966635774E-2</v>
+      </c>
+      <c r="E6" s="1" cm="1">
+        <f t="array" ref="E6">_xll.xlquoteCOT(I6,"noncommercial_commercial")</f>
+        <v>-9533</v>
+      </c>
+      <c r="F6" s="1" cm="1">
+        <f t="array" ref="F6">_xll.xlquoteCOT(I6,"change_noncommercial_commercial")</f>
+        <v>6929</v>
+      </c>
+      <c r="G6" s="1" cm="1">
+        <f t="array" ref="G6">_xll.xlquoteCOT(I6,"nonreportable_net")</f>
+        <v>-311</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" ref="B7:D7" si="0">B5-B6</f>
-        <v>-25316</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>-409</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>-24907</v>
-      </c>
-      <c r="E7" s="2">
-        <f>E5-E6</f>
-        <v>13137</v>
-      </c>
-      <c r="F7" s="2">
-        <f>F5-F6</f>
-        <v>-11071</v>
-      </c>
-      <c r="G7" s="2">
-        <f>G5-G6</f>
-        <v>24208</v>
-      </c>
-      <c r="H7" s="2">
-        <f>H5-H6</f>
-        <v>-49115</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" cm="1">
+        <f t="array" ref="B7">_xll.xlquoteCOT(I7,"open_interest")</f>
+        <v>68118</v>
+      </c>
+      <c r="C7" s="1" cm="1">
+        <f t="array" ref="C7">_xll.xlquoteCOT(I7,"noncommercial_net")</f>
+        <v>6965</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1022490384333069</v>
+      </c>
+      <c r="E7" s="1" cm="1">
+        <f t="array" ref="E7">_xll.xlquoteCOT(I7,"noncommercial_commercial")</f>
+        <v>9929</v>
+      </c>
+      <c r="F7" s="1" cm="1">
+        <f t="array" ref="F7">_xll.xlquoteCOT(I7,"change_noncommercial_commercial")</f>
+        <v>12719</v>
+      </c>
+      <c r="G7" s="1" cm="1">
+        <f t="array" ref="G7">_xll.xlquoteCOT(I7,"nonreportable_net")</f>
+        <v>-4001</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" cm="1">
+        <f t="array" ref="B8">_xll.xlquoteCOT(I8,"open_interest")</f>
+        <v>340590</v>
+      </c>
+      <c r="C8" s="1" cm="1">
+        <f t="array" ref="C8">_xll.xlquoteCOT(I8,"noncommercial_net")</f>
+        <v>34825</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1022490384333069</v>
+      </c>
+      <c r="E8" s="1" cm="1">
+        <f t="array" ref="E8">_xll.xlquoteCOT(I8,"noncommercial_commercial")</f>
+        <v>49645</v>
+      </c>
+      <c r="F8" s="1" cm="1">
+        <f t="array" ref="F8">_xll.xlquoteCOT(I8,"change_noncommercial_commercial")</f>
+        <v>63594</v>
+      </c>
+      <c r="G8" s="1" cm="1">
+        <f t="array" ref="G8">_xll.xlquoteCOT(I8,"nonreportable_net")</f>
+        <v>-20005</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" cm="1">
+        <f t="array" ref="B9">_xll.xlquoteCOT(I9,"open_interest")</f>
+        <v>131835</v>
+      </c>
+      <c r="C9" s="1" cm="1">
+        <f t="array" ref="C9">_xll.xlquoteCOT(I9,"noncommercial_net")</f>
+        <v>-34685</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.26309401903895019</v>
+      </c>
+      <c r="E9" s="1" cm="1">
+        <f t="array" ref="E9">_xll.xlquoteCOT(I9,"noncommercial_commercial")</f>
+        <v>-29305</v>
+      </c>
+      <c r="F9" s="1" cm="1">
+        <f t="array" ref="F9">_xll.xlquoteCOT(I9,"change_noncommercial_commercial")</f>
+        <v>-17725</v>
+      </c>
+      <c r="G9" s="1" cm="1">
+        <f t="array" ref="G9">_xll.xlquoteCOT(I9,"nonreportable_net")</f>
+        <v>40064</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" cm="1">
+        <f t="array" ref="B10">_xll.xlquoteCOT(I10,"open_interest")</f>
+        <v>532899</v>
+      </c>
+      <c r="C10" s="1" cm="1">
+        <f t="array" ref="C10">_xll.xlquoteCOT(I10,"noncommercial_net")</f>
+        <v>-96455</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.18100052730442354</v>
+      </c>
+      <c r="E10" s="1" cm="1">
+        <f t="array" ref="E10">_xll.xlquoteCOT(I10,"noncommercial_commercial")</f>
+        <v>-195082</v>
+      </c>
+      <c r="F10" s="1" cm="1">
+        <f t="array" ref="F10">_xll.xlquoteCOT(I10,"change_noncommercial_commercial")</f>
+        <v>41112</v>
+      </c>
+      <c r="G10" s="1" cm="1">
+        <f t="array" ref="G10">_xll.xlquoteCOT(I10,"nonreportable_net")</f>
+        <v>-2173</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" cm="1">
+        <f t="array" ref="B11">_xll.xlquoteCOT(I11,"open_interest")</f>
+        <v>349447</v>
+      </c>
+      <c r="C11" s="1" cm="1">
+        <f t="array" ref="C11">_xll.xlquoteCOT(I11,"noncommercial_net")</f>
+        <v>-106345</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.304323688570799</v>
+      </c>
+      <c r="E11" s="1" cm="1">
+        <f t="array" ref="E11">_xll.xlquoteCOT(I11,"noncommercial_commercial")</f>
+        <v>-214543</v>
+      </c>
+      <c r="F11" s="1" cm="1">
+        <f t="array" ref="F11">_xll.xlquoteCOT(I11,"change_noncommercial_commercial")</f>
+        <v>-7105</v>
+      </c>
+      <c r="G11" s="1" cm="1">
+        <f t="array" ref="G11">_xll.xlquoteCOT(I11,"nonreportable_net")</f>
+        <v>-1853</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" cm="1">
+        <f t="array" ref="B12">_xll.xlquoteCOT(I12,"open_interest")</f>
+        <v>20602099</v>
+      </c>
+      <c r="C12" s="1" cm="1">
+        <f t="array" ref="C12">_xll.xlquoteCOT(I12,"noncommercial_net")</f>
+        <v>-1104134</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>-5.3593277073370048E-2</v>
+      </c>
+      <c r="E12" s="1" cm="1">
+        <f t="array" ref="E12">_xll.xlquoteCOT(I12,"noncommercial_commercial")</f>
+        <v>-2543995</v>
+      </c>
+      <c r="F12" s="1" cm="1">
+        <f t="array" ref="F12">_xll.xlquoteCOT(I12,"change_noncommercial_commercial")</f>
+        <v>159213</v>
+      </c>
+      <c r="G12" s="1" cm="1">
+        <f t="array" ref="G12">_xll.xlquoteCOT(I12,"nonreportable_net")</f>
+        <v>-335727</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" cm="1">
+        <f t="array" ref="B13">_xll.xlquoteCOT(I13,"open_interest")</f>
+        <v>1748842</v>
+      </c>
+      <c r="C13" s="1" cm="1">
+        <f t="array" ref="C13">_xll.xlquoteCOT(I13,"noncommercial_net")</f>
+        <v>102650</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>5.8695982827493852E-2</v>
+      </c>
+      <c r="E13" s="1" cm="1">
+        <f t="array" ref="E13">_xll.xlquoteCOT(I13,"noncommercial_commercial")</f>
+        <v>199356</v>
+      </c>
+      <c r="F13" s="1" cm="1">
+        <f t="array" ref="F13">_xll.xlquoteCOT(I13,"change_noncommercial_commercial")</f>
+        <v>17548</v>
+      </c>
+      <c r="G13" s="1" cm="1">
+        <f t="array" ref="G13">_xll.xlquoteCOT(I13,"nonreportable_net")</f>
+        <v>-5944</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" cm="1">
+        <f t="array" ref="B14">_xll.xlquoteCOT(I14,"open_interest")</f>
+        <v>10409329</v>
+      </c>
+      <c r="C14" s="1" cm="1">
+        <f t="array" ref="C14">_xll.xlquoteCOT(I14,"noncommercial_net")</f>
+        <v>-951468</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>-9.1405315366629297E-2</v>
+      </c>
+      <c r="E14" s="1" cm="1">
+        <f t="array" ref="E14">_xll.xlquoteCOT(I14,"noncommercial_commercial")</f>
+        <v>-1908790</v>
+      </c>
+      <c r="F14" s="1" cm="1">
+        <f t="array" ref="F14">_xll.xlquoteCOT(I14,"change_noncommercial_commercial")</f>
+        <v>-157681</v>
+      </c>
+      <c r="G14" s="1" cm="1">
+        <f t="array" ref="G14">_xll.xlquoteCOT(I14,"nonreportable_net")</f>
+        <v>-5854</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" cm="1">
+        <f t="array" ref="B15">_xll.xlquoteCOT(I15,"open_interest")</f>
+        <v>2181759</v>
+      </c>
+      <c r="C15" s="1" cm="1">
+        <f t="array" ref="C15">_xll.xlquoteCOT(I15,"noncommercial_net")</f>
+        <v>-239845</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.10993194023721227</v>
+      </c>
+      <c r="E15" s="1" cm="1">
+        <f t="array" ref="E15">_xll.xlquoteCOT(I15,"noncommercial_commercial")</f>
+        <v>-543439</v>
+      </c>
+      <c r="F15" s="1" cm="1">
+        <f t="array" ref="F15">_xll.xlquoteCOT(I15,"change_noncommercial_commercial")</f>
+        <v>-79355</v>
+      </c>
+      <c r="G15" s="1" cm="1">
+        <f t="array" ref="G15">_xll.xlquoteCOT(I15,"nonreportable_net")</f>
+        <v>-63749</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" cm="1">
+        <f t="array" ref="B16">_xll.xlquoteCOT(I16,"open_interest")</f>
+        <v>4553134</v>
+      </c>
+      <c r="C16" s="1" cm="1">
+        <f t="array" ref="C16">_xll.xlquoteCOT(I16,"noncommercial_net")</f>
+        <v>-320527</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.039700566686595E-2</v>
+      </c>
+      <c r="E16" s="1" cm="1">
+        <f t="array" ref="E16">_xll.xlquoteCOT(I16,"noncommercial_commercial")</f>
+        <v>-759633</v>
+      </c>
+      <c r="F16" s="1" cm="1">
+        <f t="array" ref="F16">_xll.xlquoteCOT(I16,"change_noncommercial_commercial")</f>
+        <v>-86114</v>
+      </c>
+      <c r="G16" s="1" cm="1">
+        <f t="array" ref="G16">_xll.xlquoteCOT(I16,"nonreportable_net")</f>
+        <v>-118579</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" cm="1">
+        <f t="array" ref="B17">_xll.xlquoteCOT(I17,"open_interest")</f>
+        <v>1267444</v>
+      </c>
+      <c r="C17" s="1" cm="1">
+        <f t="array" ref="C17">_xll.xlquoteCOT(I17,"noncommercial_net")</f>
+        <v>-25089</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.9794957410347123E-2</v>
+      </c>
+      <c r="E17" s="1" cm="1">
+        <f t="array" ref="E17">_xll.xlquoteCOT(I17,"noncommercial_commercial")</f>
+        <v>-160192</v>
+      </c>
+      <c r="F17" s="1" cm="1">
+        <f t="array" ref="F17">_xll.xlquoteCOT(I17,"change_noncommercial_commercial")</f>
+        <v>32374</v>
+      </c>
+      <c r="G17" s="1" cm="1">
+        <f t="array" ref="G17">_xll.xlquoteCOT(I17,"nonreportable_net")</f>
+        <v>-110014</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" cm="1">
+        <f t="array" ref="B18">_xll.xlquoteCOT(I18,"open_interest")</f>
+        <v>67041</v>
+      </c>
+      <c r="C18" s="1" cm="1">
+        <f t="array" ref="C18">_xll.xlquoteCOT(I18,"noncommercial_net")</f>
+        <v>-12665</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.18891424650586955</v>
+      </c>
+      <c r="E18" s="1" cm="1">
+        <f t="array" ref="E18">_xll.xlquoteCOT(I18,"noncommercial_commercial")</f>
+        <v>-25018</v>
+      </c>
+      <c r="F18" s="1" cm="1">
+        <f t="array" ref="F18">_xll.xlquoteCOT(I18,"change_noncommercial_commercial")</f>
+        <v>464</v>
+      </c>
+      <c r="G18" s="1" cm="1">
+        <f t="array" ref="G18">_xll.xlquoteCOT(I18,"nonreportable_net")</f>
+        <v>312</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" cm="1">
+        <f t="array" ref="B19">_xll.xlquoteCOT(I19,"open_interest")</f>
+        <v>2100099</v>
+      </c>
+      <c r="C19" s="1" cm="1">
+        <f t="array" ref="C19">_xll.xlquoteCOT(I19,"noncommercial_net")</f>
+        <v>298426</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14210092000424743</v>
+      </c>
+      <c r="E19" s="1" cm="1">
+        <f t="array" ref="E19">_xll.xlquoteCOT(I19,"noncommercial_commercial")</f>
+        <v>625230</v>
+      </c>
+      <c r="F19" s="1" cm="1">
+        <f t="array" ref="F19">_xll.xlquoteCOT(I19,"change_noncommercial_commercial")</f>
+        <v>43629</v>
+      </c>
+      <c r="G19" s="1" cm="1">
+        <f t="array" ref="G19">_xll.xlquoteCOT(I19,"nonreportable_net")</f>
+        <v>28378</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" cm="1">
+        <f t="array" ref="B20">_xll.xlquoteCOT(I20,"open_interest")</f>
+        <v>149099</v>
+      </c>
+      <c r="C20" s="1" cm="1">
+        <f t="array" ref="C20">_xll.xlquoteCOT(I20,"noncommercial_net")</f>
+        <v>30045</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.20151040583773197</v>
+      </c>
+      <c r="E20" s="1" cm="1">
+        <f t="array" ref="E20">_xll.xlquoteCOT(I20,"noncommercial_commercial")</f>
+        <v>50729</v>
+      </c>
+      <c r="F20" s="1" cm="1">
+        <f t="array" ref="F20">_xll.xlquoteCOT(I20,"change_noncommercial_commercial")</f>
+        <v>-523</v>
+      </c>
+      <c r="G20" s="1" cm="1">
+        <f t="array" ref="G20">_xll.xlquoteCOT(I20,"nonreportable_net")</f>
+        <v>-9361</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" cm="1">
+        <f t="array" ref="B21">_xll.xlquoteCOT(I21,"open_interest")</f>
+        <v>192199</v>
+      </c>
+      <c r="C21" s="1" cm="1">
+        <f t="array" ref="C21">_xll.xlquoteCOT(I21,"noncommercial_net")</f>
+        <v>-38613</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.2009011493296011</v>
+      </c>
+      <c r="E21" s="1" cm="1">
+        <f t="array" ref="E21">_xll.xlquoteCOT(I21,"noncommercial_commercial")</f>
+        <v>-74869</v>
+      </c>
+      <c r="F21" s="1" cm="1">
+        <f t="array" ref="F21">_xll.xlquoteCOT(I21,"change_noncommercial_commercial")</f>
+        <v>-838</v>
+      </c>
+      <c r="G21" s="1" cm="1">
+        <f t="array" ref="G21">_xll.xlquoteCOT(I21,"nonreportable_net")</f>
+        <v>2358</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" cm="1">
+        <f t="array" ref="B22">_xll.xlquoteCOT(I22,"open_interest")</f>
+        <v>498192</v>
+      </c>
+      <c r="C22" s="1" cm="1">
+        <f t="array" ref="C22">_xll.xlquoteCOT(I22,"noncommercial_net")</f>
+        <v>190483</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.38234857243793557</v>
+      </c>
+      <c r="E22" s="1" cm="1">
+        <f t="array" ref="E22">_xll.xlquoteCOT(I22,"noncommercial_commercial")</f>
+        <v>392537</v>
+      </c>
+      <c r="F22" s="1" cm="1">
+        <f t="array" ref="F22">_xll.xlquoteCOT(I22,"change_noncommercial_commercial")</f>
+        <v>-7028</v>
+      </c>
+      <c r="G22" s="1" cm="1">
+        <f t="array" ref="G22">_xll.xlquoteCOT(I22,"nonreportable_net")</f>
+        <v>11571</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" cm="1">
+        <f t="array" ref="B23">_xll.xlquoteCOT(I23,"open_interest")</f>
+        <v>267105</v>
+      </c>
+      <c r="C23" s="1" cm="1">
+        <f t="array" ref="C23">_xll.xlquoteCOT(I23,"noncommercial_net")</f>
+        <v>52890</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1980120177458303</v>
+      </c>
+      <c r="E23" s="1" cm="1">
+        <f t="array" ref="E23">_xll.xlquoteCOT(I23,"noncommercial_commercial")</f>
+        <v>111021</v>
+      </c>
+      <c r="F23" s="1" cm="1">
+        <f t="array" ref="F23">_xll.xlquoteCOT(I23,"change_noncommercial_commercial")</f>
+        <v>10725</v>
+      </c>
+      <c r="G23" s="1" cm="1">
+        <f t="array" ref="G23">_xll.xlquoteCOT(I23,"nonreportable_net")</f>
+        <v>5241</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" cm="1">
+        <f t="array" ref="B24">_xll.xlquoteCOT(I24,"open_interest")</f>
+        <v>598932</v>
+      </c>
+      <c r="C24" s="1" cm="1">
+        <f t="array" ref="C24">_xll.xlquoteCOT(I24,"noncommercial_net")</f>
+        <v>127603</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.21305089726379622</v>
+      </c>
+      <c r="E24" s="1" cm="1">
+        <f t="array" ref="E24">_xll.xlquoteCOT(I24,"noncommercial_commercial")</f>
+        <v>267757</v>
+      </c>
+      <c r="F24" s="1" cm="1">
+        <f t="array" ref="F24">_xll.xlquoteCOT(I24,"change_noncommercial_commercial")</f>
+        <v>-33616</v>
+      </c>
+      <c r="G24" s="1" cm="1">
+        <f t="array" ref="G24">_xll.xlquoteCOT(I24,"nonreportable_net")</f>
+        <v>12550</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" cm="1">
+        <f t="array" ref="B25">_xll.xlquoteCOT(I25,"open_interest")</f>
+        <v>163761</v>
+      </c>
+      <c r="C25" s="1" cm="1">
+        <f t="array" ref="C25">_xll.xlquoteCOT(I25,"noncommercial_net")</f>
+        <v>-5270</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
+        <v>-3.2181044326793314E-2</v>
+      </c>
+      <c r="E25" s="1" cm="1">
+        <f t="array" ref="E25">_xll.xlquoteCOT(I25,"noncommercial_commercial")</f>
+        <v>-950</v>
+      </c>
+      <c r="F25" s="1" cm="1">
+        <f t="array" ref="F25">_xll.xlquoteCOT(I25,"change_noncommercial_commercial")</f>
+        <v>-17169</v>
+      </c>
+      <c r="G25" s="1" cm="1">
+        <f t="array" ref="G25">_xll.xlquoteCOT(I25,"nonreportable_net")</f>
+        <v>9589</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" cm="1">
+        <f t="array" ref="B26">_xll.xlquoteCOT(I26,"open_interest")</f>
+        <v>195146</v>
+      </c>
+      <c r="C26" s="1" cm="1">
+        <f t="array" ref="C26">_xll.xlquoteCOT(I26,"noncommercial_net")</f>
+        <v>-17190</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="0"/>
+        <v>-8.8087893167167142E-2</v>
+      </c>
+      <c r="E26" s="1" cm="1">
+        <f t="array" ref="E26">_xll.xlquoteCOT(I26,"noncommercial_commercial")</f>
+        <v>-36709</v>
+      </c>
+      <c r="F26" s="1" cm="1">
+        <f t="array" ref="F26">_xll.xlquoteCOT(I26,"change_noncommercial_commercial")</f>
+        <v>16997</v>
+      </c>
+      <c r="G26" s="1" cm="1">
+        <f t="array" ref="G26">_xll.xlquoteCOT(I26,"nonreportable_net")</f>
+        <v>-2329</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" cm="1">
+        <f t="array" ref="B27">_xll.xlquoteCOT(I27,"open_interest")</f>
+        <v>7929</v>
+      </c>
+      <c r="C27" s="1" cm="1">
+        <f t="array" ref="C27">_xll.xlquoteCOT(I27,"noncommercial_net")</f>
+        <v>-1794</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.22625804010594022</v>
+      </c>
+      <c r="E27" s="1" cm="1">
+        <f t="array" ref="E27">_xll.xlquoteCOT(I27,"noncommercial_commercial")</f>
+        <v>-3905</v>
+      </c>
+      <c r="F27" s="1" cm="1">
+        <f t="array" ref="F27">_xll.xlquoteCOT(I27,"change_noncommercial_commercial")</f>
+        <v>-773</v>
+      </c>
+      <c r="G27" s="1" cm="1">
+        <f t="array" ref="G27">_xll.xlquoteCOT(I27,"nonreportable_net")</f>
+        <v>-317</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" cm="1">
+        <f t="array" ref="B28">_xll.xlquoteCOT(I28,"open_interest")</f>
+        <v>64067</v>
+      </c>
+      <c r="C28" s="1" cm="1">
+        <f t="array" ref="C28">_xll.xlquoteCOT(I28,"noncommercial_net")</f>
+        <v>-1402</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="0"/>
+        <v>-2.1883340877518847E-2</v>
+      </c>
+      <c r="E28" s="1" cm="1">
+        <f t="array" ref="E28">_xll.xlquoteCOT(I28,"noncommercial_commercial")</f>
+        <v>855</v>
+      </c>
+      <c r="F28" s="1" cm="1">
+        <f t="array" ref="F28">_xll.xlquoteCOT(I28,"change_noncommercial_commercial")</f>
+        <v>-8792</v>
+      </c>
+      <c r="G28" s="1" cm="1">
+        <f t="array" ref="G28">_xll.xlquoteCOT(I28,"nonreportable_net")</f>
+        <v>3659</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" cm="1">
+        <f t="array" ref="B29">_xll.xlquoteCOT(I29,"open_interest")</f>
+        <v>432194</v>
+      </c>
+      <c r="C29" s="1" cm="1">
+        <f t="array" ref="C29">_xll.xlquoteCOT(I29,"noncommercial_net")</f>
+        <v>-17453</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="0"/>
+        <v>-4.0382328306269873E-2</v>
+      </c>
+      <c r="E29" s="1" cm="1">
+        <f t="array" ref="E29">_xll.xlquoteCOT(I29,"noncommercial_commercial")</f>
+        <v>-37720</v>
+      </c>
+      <c r="F29" s="1" cm="1">
+        <f t="array" ref="F29">_xll.xlquoteCOT(I29,"change_noncommercial_commercial")</f>
+        <v>-6276</v>
+      </c>
+      <c r="G29" s="1" cm="1">
+        <f t="array" ref="G29">_xll.xlquoteCOT(I29,"nonreportable_net")</f>
+        <v>-2814</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" cm="1">
+        <f t="array" ref="B30">_xll.xlquoteCOT(I30,"open_interest")</f>
+        <v>1848801</v>
+      </c>
+      <c r="C30" s="1" cm="1">
+        <f t="array" ref="C30">_xll.xlquoteCOT(I30,"noncommercial_net")</f>
+        <v>247023</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="0"/>
+        <v>0.13361254131731862</v>
+      </c>
+      <c r="E30" s="1" cm="1">
+        <f t="array" ref="E30">_xll.xlquoteCOT(I30,"noncommercial_commercial")</f>
+        <v>438480</v>
+      </c>
+      <c r="F30" s="1" cm="1">
+        <f t="array" ref="F30">_xll.xlquoteCOT(I30,"change_noncommercial_commercial")</f>
+        <v>98964</v>
+      </c>
+      <c r="G30" s="1" cm="1">
+        <f t="array" ref="G30">_xll.xlquoteCOT(I30,"nonreportable_net")</f>
+        <v>-55567</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" cm="1">
+        <f t="array" ref="B31">_xll.xlquoteCOT(I31,"open_interest")</f>
+        <v>789452</v>
+      </c>
+      <c r="C31" s="1" cm="1">
+        <f t="array" ref="C31">_xll.xlquoteCOT(I31,"noncommercial_net")</f>
+        <v>95205</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12059631237871334</v>
+      </c>
+      <c r="E31" s="1" cm="1">
+        <f t="array" ref="E31">_xll.xlquoteCOT(I31,"noncommercial_commercial")</f>
+        <v>157763</v>
+      </c>
+      <c r="F31" s="1" cm="1">
+        <f t="array" ref="F31">_xll.xlquoteCOT(I31,"change_noncommercial_commercial")</f>
+        <v>20308</v>
+      </c>
+      <c r="G31" s="1" cm="1">
+        <f t="array" ref="G31">_xll.xlquoteCOT(I31,"nonreportable_net")</f>
+        <v>-32647</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" cm="1">
+        <f t="array" ref="B32">_xll.xlquoteCOT(I32,"open_interest")</f>
+        <v>472042</v>
+      </c>
+      <c r="C32" s="1" cm="1">
+        <f t="array" ref="C32">_xll.xlquoteCOT(I32,"noncommercial_net")</f>
+        <v>43764</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" si="0"/>
+        <v>9.2712089178505305E-2</v>
+      </c>
+      <c r="E32" s="1" cm="1">
+        <f t="array" ref="E32">_xll.xlquoteCOT(I32,"noncommercial_commercial")</f>
+        <v>97314</v>
+      </c>
+      <c r="F32" s="1" cm="1">
+        <f t="array" ref="F32">_xll.xlquoteCOT(I32,"change_noncommercial_commercial")</f>
+        <v>15761</v>
+      </c>
+      <c r="G32" s="1" cm="1">
+        <f t="array" ref="G32">_xll.xlquoteCOT(I32,"nonreportable_net")</f>
+        <v>9786</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" cm="1">
+        <f t="array" ref="B33">_xll.xlquoteCOT(I33,"open_interest")</f>
+        <v>474763</v>
+      </c>
+      <c r="C33" s="1" cm="1">
+        <f t="array" ref="C33">_xll.xlquoteCOT(I33,"noncommercial_net")</f>
+        <v>113620</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" si="0"/>
+        <v>0.23931940778872826</v>
+      </c>
+      <c r="E33" s="1" cm="1">
+        <f t="array" ref="E33">_xll.xlquoteCOT(I33,"noncommercial_commercial")</f>
+        <v>253019</v>
+      </c>
+      <c r="F33" s="1" cm="1">
+        <f t="array" ref="F33">_xll.xlquoteCOT(I33,"change_noncommercial_commercial")</f>
+        <v>22508</v>
+      </c>
+      <c r="G33" s="1" cm="1">
+        <f t="array" ref="G33">_xll.xlquoteCOT(I33,"nonreportable_net")</f>
+        <v>25779</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" cm="1">
+        <f t="array" ref="B34">_xll.xlquoteCOT(I34,"open_interest")</f>
+        <v>288628</v>
+      </c>
+      <c r="C34" s="1" cm="1">
+        <f t="array" ref="C34">_xll.xlquoteCOT(I34,"noncommercial_net")</f>
+        <v>51255</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" si="0"/>
+        <v>0.17758152362210181</v>
+      </c>
+      <c r="E34" s="1" cm="1">
+        <f t="array" ref="E34">_xll.xlquoteCOT(I34,"noncommercial_commercial")</f>
+        <v>109416</v>
+      </c>
+      <c r="F34" s="1" cm="1">
+        <f t="array" ref="F34">_xll.xlquoteCOT(I34,"change_noncommercial_commercial")</f>
+        <v>9406</v>
+      </c>
+      <c r="G34" s="1" cm="1">
+        <f t="array" ref="G34">_xll.xlquoteCOT(I34,"nonreportable_net")</f>
+        <v>6905</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" cm="1">
+        <f t="array" ref="B35">_xll.xlquoteCOT(I35,"open_interest")</f>
+        <v>9751</v>
+      </c>
+      <c r="C35" s="1" cm="1">
+        <f t="array" ref="C35">_xll.xlquoteCOT(I35,"noncommercial_net")</f>
+        <v>1454</v>
+      </c>
+      <c r="D35" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1491129114962568</v>
+      </c>
+      <c r="E35" s="1" cm="1">
+        <f t="array" ref="E35">_xll.xlquoteCOT(I35,"noncommercial_commercial")</f>
+        <v>3980</v>
+      </c>
+      <c r="F35" s="1" cm="1">
+        <f t="array" ref="F35">_xll.xlquoteCOT(I35,"change_noncommercial_commercial")</f>
+        <v>445</v>
+      </c>
+      <c r="G35" s="1" cm="1">
+        <f t="array" ref="G35">_xll.xlquoteCOT(I35,"nonreportable_net")</f>
+        <v>1071</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" cm="1">
+        <f t="array" ref="B36">_xll.xlquoteCOT(I36,"open_interest")</f>
+        <v>342271</v>
+      </c>
+      <c r="C36" s="1" cm="1">
+        <f t="array" ref="C36">_xll.xlquoteCOT(I36,"noncommercial_net")</f>
+        <v>-19303</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" si="0"/>
+        <v>-5.6396831750279749E-2</v>
+      </c>
+      <c r="E36" s="1" cm="1">
+        <f t="array" ref="E36">_xll.xlquoteCOT(I36,"noncommercial_commercial")</f>
+        <v>-34178</v>
+      </c>
+      <c r="F36" s="1" cm="1">
+        <f t="array" ref="F36">_xll.xlquoteCOT(I36,"change_noncommercial_commercial")</f>
+        <v>-2724</v>
+      </c>
+      <c r="G36" s="1" cm="1">
+        <f t="array" ref="G36">_xll.xlquoteCOT(I36,"nonreportable_net")</f>
+        <v>4429</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" cm="1">
+        <f t="array" ref="B37">_xll.xlquoteCOT(I37,"open_interest")</f>
+        <v>900697</v>
+      </c>
+      <c r="C37" s="1" cm="1">
+        <f t="array" ref="C37">_xll.xlquoteCOT(I37,"noncommercial_net")</f>
+        <v>32367</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" si="0"/>
+        <v>3.5935503282457919E-2</v>
+      </c>
+      <c r="E37" s="1" cm="1">
+        <f t="array" ref="E37">_xll.xlquoteCOT(I37,"noncommercial_commercial")</f>
+        <v>66690</v>
+      </c>
+      <c r="F37" s="1" cm="1">
+        <f t="array" ref="F37">_xll.xlquoteCOT(I37,"change_noncommercial_commercial")</f>
+        <v>2328</v>
+      </c>
+      <c r="G37" s="1" cm="1">
+        <f t="array" ref="G37">_xll.xlquoteCOT(I37,"nonreportable_net")</f>
+        <v>1956</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" cm="1">
+        <f t="array" ref="B38">_xll.xlquoteCOT(I38,"open_interest")</f>
+        <v>227732</v>
+      </c>
+      <c r="C38" s="1" cm="1">
+        <f t="array" ref="C38">_xll.xlquoteCOT(I38,"noncommercial_net")</f>
+        <v>37221</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16344211617164034</v>
+      </c>
+      <c r="E38" s="1" cm="1">
+        <f t="array" ref="E38">_xll.xlquoteCOT(I38,"noncommercial_commercial")</f>
+        <v>76092</v>
+      </c>
+      <c r="F38" s="1" cm="1">
+        <f t="array" ref="F38">_xll.xlquoteCOT(I38,"change_noncommercial_commercial")</f>
+        <v>9784</v>
+      </c>
+      <c r="G38" s="1" cm="1">
+        <f t="array" ref="G38">_xll.xlquoteCOT(I38,"nonreportable_net")</f>
+        <v>1650</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" cm="1">
+        <f t="array" ref="B39">_xll.xlquoteCOT(I39,"open_interest")</f>
+        <v>22410</v>
+      </c>
+      <c r="C39" s="1" cm="1">
+        <f t="array" ref="C39">_xll.xlquoteCOT(I39,"noncommercial_net")</f>
+        <v>6533</v>
+      </c>
+      <c r="D39" s="6">
+        <f t="shared" si="0"/>
+        <v>0.29152164212405174</v>
+      </c>
+      <c r="E39" s="1" cm="1">
+        <f t="array" ref="E39">_xll.xlquoteCOT(I39,"noncommercial_commercial")</f>
+        <v>11404</v>
+      </c>
+      <c r="F39" s="1" cm="1">
+        <f t="array" ref="F39">_xll.xlquoteCOT(I39,"change_noncommercial_commercial")</f>
+        <v>1559</v>
+      </c>
+      <c r="G39" s="1" cm="1">
+        <f t="array" ref="G39">_xll.xlquoteCOT(I39,"nonreportable_net")</f>
+        <v>-1661</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" cm="1">
+        <f t="array" ref="B40">_xll.xlquoteCOT(I40,"open_interest")</f>
+        <v>280797</v>
+      </c>
+      <c r="C40" s="1" cm="1">
+        <f t="array" ref="C40">_xll.xlquoteCOT(I40,"noncommercial_net")</f>
+        <v>61175</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" si="0"/>
+        <v>0.21786201419530835</v>
+      </c>
+      <c r="E40" s="1" cm="1">
+        <f t="array" ref="E40">_xll.xlquoteCOT(I40,"noncommercial_commercial")</f>
+        <v>112448</v>
+      </c>
+      <c r="F40" s="1" cm="1">
+        <f t="array" ref="F40">_xll.xlquoteCOT(I40,"change_noncommercial_commercial")</f>
+        <v>-23590</v>
+      </c>
+      <c r="G40" s="1" cm="1">
+        <f t="array" ref="G40">_xll.xlquoteCOT(I40,"nonreportable_net")</f>
+        <v>-9901</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" cm="1">
+        <f t="array" ref="B41">_xll.xlquoteCOT(I41,"open_interest")</f>
+        <v>335752</v>
+      </c>
+      <c r="C41" s="1" cm="1">
+        <f t="array" ref="C41">_xll.xlquoteCOT(I41,"noncommercial_net")</f>
+        <v>84187</v>
+      </c>
+      <c r="D41" s="6">
+        <f t="shared" si="0"/>
+        <v>0.25074161881388646</v>
+      </c>
+      <c r="E41" s="1" cm="1">
+        <f t="array" ref="E41">_xll.xlquoteCOT(I41,"noncommercial_commercial")</f>
+        <v>162769</v>
+      </c>
+      <c r="F41" s="1" cm="1">
+        <f t="array" ref="F41">_xll.xlquoteCOT(I41,"change_noncommercial_commercial")</f>
+        <v>3730</v>
+      </c>
+      <c r="G41" s="1" cm="1">
+        <f t="array" ref="G41">_xll.xlquoteCOT(I41,"nonreportable_net")</f>
+        <v>-5605</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" cm="1">
+        <f t="array" ref="B42">_xll.xlquoteCOT(I42,"open_interest")</f>
+        <v>2488</v>
+      </c>
+      <c r="C42" s="1" cm="1">
+        <f t="array" ref="C42">_xll.xlquoteCOT(I42,"noncommercial_net")</f>
+        <v>-1107</v>
+      </c>
+      <c r="D42" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.444935691318328</v>
+      </c>
+      <c r="E42" s="1" cm="1">
+        <f t="array" ref="E42">_xll.xlquoteCOT(I42,"noncommercial_commercial")</f>
+        <v>-2009</v>
+      </c>
+      <c r="F42" s="1" cm="1">
+        <f t="array" ref="F42">_xll.xlquoteCOT(I42,"change_noncommercial_commercial")</f>
+        <v>-348</v>
+      </c>
+      <c r="G42" s="1" cm="1">
+        <f t="array" ref="G42">_xll.xlquoteCOT(I42,"nonreportable_net")</f>
+        <v>204</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" cm="1">
+        <f t="array" ref="B43">_xll.xlquoteCOT(I43,"open_interest")</f>
+        <v>58468</v>
+      </c>
+      <c r="C43" s="1" cm="1">
+        <f t="array" ref="C43">_xll.xlquoteCOT(I43,"noncommercial_net")</f>
+        <v>628</v>
+      </c>
+      <c r="D43" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0740918109051105E-2</v>
+      </c>
+      <c r="E43" s="1" cm="1">
+        <f t="array" ref="E43">_xll.xlquoteCOT(I43,"noncommercial_commercial")</f>
+        <v>-5239</v>
+      </c>
+      <c r="F43" s="1" cm="1">
+        <f t="array" ref="F43">_xll.xlquoteCOT(I43,"change_noncommercial_commercial")</f>
+        <v>-3451</v>
+      </c>
+      <c r="G43" s="1" cm="1">
+        <f t="array" ref="G43">_xll.xlquoteCOT(I43,"nonreportable_net")</f>
+        <v>-6495</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" cm="1">
+        <f t="array" ref="B44">_xll.xlquoteCOT(I44,"open_interest")</f>
+        <v>31751</v>
+      </c>
+      <c r="C44" s="1" cm="1">
+        <f t="array" ref="C44">_xll.xlquoteCOT(I44,"noncommercial_net")</f>
+        <v>-6524</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.20547384334351673</v>
+      </c>
+      <c r="E44" s="1" cm="1">
+        <f t="array" ref="E44">_xll.xlquoteCOT(I44,"noncommercial_commercial")</f>
+        <v>-13216</v>
+      </c>
+      <c r="F44" s="1" cm="1">
+        <f t="array" ref="F44">_xll.xlquoteCOT(I44,"change_noncommercial_commercial")</f>
+        <v>57</v>
+      </c>
+      <c r="G44" s="1" cm="1">
+        <f t="array" ref="G44">_xll.xlquoteCOT(I44,"nonreportable_net")</f>
+        <v>-169</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" cm="1">
+        <f t="array" ref="B45">_xll.xlquoteCOT(I45,"open_interest")</f>
+        <v>57757</v>
+      </c>
+      <c r="C45" s="1" cm="1">
+        <f t="array" ref="C45">_xll.xlquoteCOT(I45,"noncommercial_net")</f>
+        <v>35119</v>
+      </c>
+      <c r="D45" s="6">
+        <f t="shared" si="0"/>
+        <v>0.60804750939280083</v>
+      </c>
+      <c r="E45" s="1" cm="1">
+        <f t="array" ref="E45">_xll.xlquoteCOT(I45,"noncommercial_commercial")</f>
+        <v>72740</v>
+      </c>
+      <c r="F45" s="1" cm="1">
+        <f t="array" ref="F45">_xll.xlquoteCOT(I45,"change_noncommercial_commercial")</f>
+        <v>-5905</v>
+      </c>
+      <c r="G45" s="1" cm="1">
+        <f t="array" ref="G45">_xll.xlquoteCOT(I45,"nonreportable_net")</f>
+        <v>2501</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" cm="1">
+        <f t="array" ref="B46">_xll.xlquoteCOT(I46,"open_interest")</f>
+        <v>799141</v>
+      </c>
+      <c r="C46" s="1" cm="1">
+        <f t="array" ref="C46">_xll.xlquoteCOT(I46,"noncommercial_net")</f>
+        <v>-45045</v>
+      </c>
+      <c r="D46" s="6">
+        <f t="shared" si="0"/>
+        <v>-5.636677382339287E-2</v>
+      </c>
+      <c r="E46" s="1" cm="1">
+        <f t="array" ref="E46">_xll.xlquoteCOT(I46,"noncommercial_commercial")</f>
+        <v>-72089</v>
+      </c>
+      <c r="F46" s="1" cm="1">
+        <f t="array" ref="F46">_xll.xlquoteCOT(I46,"change_noncommercial_commercial")</f>
+        <v>-8047</v>
+      </c>
+      <c r="G46" s="1" cm="1">
+        <f t="array" ref="G46">_xll.xlquoteCOT(I46,"nonreportable_net")</f>
+        <v>18001</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" cm="1">
+        <f t="array" ref="B47">_xll.xlquoteCOT(I47,"open_interest")</f>
+        <v>286303</v>
+      </c>
+      <c r="C47" s="1" cm="1">
+        <f t="array" ref="C47">_xll.xlquoteCOT(I47,"noncommercial_net")</f>
+        <v>-27866</v>
+      </c>
+      <c r="D47" s="6">
+        <f t="shared" si="0"/>
+        <v>-9.7330450606525259E-2</v>
+      </c>
+      <c r="E47" s="1" cm="1">
+        <f t="array" ref="E47">_xll.xlquoteCOT(I47,"noncommercial_commercial")</f>
+        <v>-76619</v>
+      </c>
+      <c r="F47" s="1" cm="1">
+        <f t="array" ref="F47">_xll.xlquoteCOT(I47,"change_noncommercial_commercial")</f>
+        <v>1229</v>
+      </c>
+      <c r="G47" s="1" cm="1">
+        <f t="array" ref="G47">_xll.xlquoteCOT(I47,"nonreportable_net")</f>
+        <v>-20888</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" cm="1">
+        <f t="array" ref="B48">_xll.xlquoteCOT(I48,"open_interest")</f>
+        <v>268485</v>
+      </c>
+      <c r="C48" s="1" cm="1">
+        <f t="array" ref="C48">_xll.xlquoteCOT(I48,"noncommercial_net")</f>
+        <v>-38639</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.14391493007058123</v>
+      </c>
+      <c r="E48" s="1" cm="1">
+        <f t="array" ref="E48">_xll.xlquoteCOT(I48,"noncommercial_commercial")</f>
+        <v>-90643</v>
+      </c>
+      <c r="F48" s="1" cm="1">
+        <f t="array" ref="F48">_xll.xlquoteCOT(I48,"change_noncommercial_commercial")</f>
+        <v>-19737</v>
+      </c>
+      <c r="G48" s="1" cm="1">
+        <f t="array" ref="G48">_xll.xlquoteCOT(I48,"nonreportable_net")</f>
+        <v>-13365</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" cm="1">
+        <f t="array" ref="B49">_xll.xlquoteCOT(I49,"open_interest")</f>
+        <v>14319</v>
+      </c>
+      <c r="C49" s="1" cm="1">
+        <f t="array" ref="C49">_xll.xlquoteCOT(I49,"noncommercial_net")</f>
+        <v>729</v>
+      </c>
+      <c r="D49" s="6">
+        <f t="shared" si="0"/>
+        <v>5.0911376492771838E-2</v>
+      </c>
+      <c r="E49" s="1" cm="1">
+        <f t="array" ref="E49">_xll.xlquoteCOT(I49,"noncommercial_commercial")</f>
+        <v>1695</v>
+      </c>
+      <c r="F49" s="1" cm="1">
+        <f t="array" ref="F49">_xll.xlquoteCOT(I49,"change_noncommercial_commercial")</f>
+        <v>1795</v>
+      </c>
+      <c r="G49" s="1" cm="1">
+        <f t="array" ref="G49">_xll.xlquoteCOT(I49,"nonreportable_net")</f>
+        <v>236</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" cm="1">
+        <f t="array" ref="B50">_xll.xlquoteCOT(I50,"open_interest")</f>
+        <v>3978</v>
+      </c>
+      <c r="C50" s="1" cm="1">
+        <f t="array" ref="C50">_xll.xlquoteCOT(I50,"noncommercial_net")</f>
+        <v>-195</v>
+      </c>
+      <c r="D50" s="6">
+        <f t="shared" si="0"/>
+        <v>-4.9019607843137254E-2</v>
+      </c>
+      <c r="E50" s="1" cm="1">
+        <f t="array" ref="E50">_xll.xlquoteCOT(I50,"noncommercial_commercial")</f>
+        <v>-40</v>
+      </c>
+      <c r="F50" s="1" cm="1">
+        <f t="array" ref="F50">_xll.xlquoteCOT(I50,"change_noncommercial_commercial")</f>
+        <v>422</v>
+      </c>
+      <c r="G50" s="1" cm="1">
+        <f t="array" ref="G50">_xll.xlquoteCOT(I50,"nonreportable_net")</f>
+        <v>350</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I52" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:H4"/>
-  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{8C6677D1-8F07-4FFA-BE73-6387458157D9}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D5:D6" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Examples/Commitment of Traders.xlsx
+++ b/Examples/Commitment of Traders.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAE968B-7008-4B5B-886C-75F817AC6A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Futures COT" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="url">"http://localhost:8000/CFTC/"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -383,7 +382,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -729,25 +728,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.59765625" customWidth="1"/>
-    <col min="9" max="9" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.6328125" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -773,21 +771,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" cm="1">
-        <f t="array" ref="B2">_xll.xlquoteCOT(I2,"open_interest")</f>
-        <v>666545</v>
-      </c>
-      <c r="C2" s="1" cm="1">
-        <f t="array" ref="C2">_xll.xlquoteCOT(I2,"noncommercial_net")</f>
-        <v>-43912</v>
+      <c r="B2" s="1">
+        <f>_xll.xlquoteCOT(I2,"OpenInterest")</f>
+        <v>687289</v>
+      </c>
+      <c r="C2" s="1">
+        <f>_xll.xlquoteCOT(I2,"NoncommercialLong")-_xll.xlquoteCOT(I2,"NoncommercialShort")</f>
+        <v>-29094</v>
       </c>
       <c r="D2" s="6">
         <f>C2/B2</f>
-        <v>-6.588002310421652E-2</v>
+        <v>-4.2331537388202049E-2</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2">_xll.xlquoteCOT(I2,"noncommercial_commercial")</f>
@@ -797,29 +795,29 @@
         <f t="array" ref="F2">_xll.xlquoteCOT(I2,"change_noncommercial_commercial")</f>
         <v>16486</v>
       </c>
-      <c r="G2" s="1" cm="1">
-        <f t="array" ref="G2">_xll.xlquoteCOT(I2,"nonreportable_net")</f>
-        <v>-15127</v>
+      <c r="G2" s="1">
+        <f>_xll.xlquoteCOT(I2,"NonreportableLong")-_xll.xlquoteCOT(I2,"NonreportableShort")</f>
+        <v>-4453</v>
       </c>
       <c r="I2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" cm="1">
-        <f t="array" ref="B3">_xll.xlquoteCOT(I3,"open_interest")</f>
-        <v>3332723</v>
-      </c>
-      <c r="C3" s="1" cm="1">
-        <f t="array" ref="C3">_xll.xlquoteCOT(I3,"noncommercial_net")</f>
-        <v>-219560</v>
+      <c r="B3" s="1">
+        <f>_xll.xlquoteCOT(I3,"OpenInterest")</f>
+        <v>3436443</v>
+      </c>
+      <c r="C3" s="1">
+        <f>_xll.xlquoteCOT(I3,"NoncommercialLong")-_xll.xlquoteCOT(I3,"NoncommercialShort")</f>
+        <v>-145469</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D50" si="0">C3/B3</f>
-        <v>-6.5880062639469286E-2</v>
+        <v>-4.2331271026465445E-2</v>
       </c>
       <c r="E3" s="1" cm="1">
         <f t="array" ref="E3">_xll.xlquoteCOT(I3,"noncommercial_commercial")</f>
@@ -829,29 +827,29 @@
         <f t="array" ref="F3">_xll.xlquoteCOT(I3,"change_noncommercial_commercial")</f>
         <v>82434</v>
       </c>
-      <c r="G3" s="1" cm="1">
-        <f t="array" ref="G3">_xll.xlquoteCOT(I3,"nonreportable_net")</f>
-        <v>-75636</v>
+      <c r="G3" s="1">
+        <f>_xll.xlquoteCOT(I3,"NonreportableLong")-_xll.xlquoteCOT(I3,"NonreportableShort")</f>
+        <v>-22263</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" cm="1">
-        <f t="array" ref="B4">_xll.xlquoteCOT(I4,"open_interest")</f>
-        <v>212268</v>
-      </c>
-      <c r="C4" s="1" cm="1">
-        <f t="array" ref="C4">_xll.xlquoteCOT(I4,"noncommercial_net")</f>
-        <v>-108455</v>
+      <c r="B4" s="1">
+        <f>_xll.xlquoteCOT(I4,"OpenInterest")</f>
+        <v>204177</v>
+      </c>
+      <c r="C4" s="1">
+        <f>_xll.xlquoteCOT(I4,"NoncommercialLong")-_xll.xlquoteCOT(I4,"NoncommercialShort")</f>
+        <v>9288</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>-0.5109342906137524</v>
+        <v>4.5489942549846459E-2</v>
       </c>
       <c r="E4" s="1" cm="1">
         <f t="array" ref="E4">_xll.xlquoteCOT(I4,"noncommercial_commercial")</f>
@@ -861,29 +859,29 @@
         <f t="array" ref="F4">_xll.xlquoteCOT(I4,"change_noncommercial_commercial")</f>
         <v>-37022</v>
       </c>
-      <c r="G4" s="1" cm="1">
-        <f t="array" ref="G4">_xll.xlquoteCOT(I4,"nonreportable_net")</f>
-        <v>87202</v>
+      <c r="G4" s="1">
+        <f>_xll.xlquoteCOT(I4,"NonreportableLong")-_xll.xlquoteCOT(I4,"NonreportableShort")</f>
+        <v>-47638</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" cm="1">
-        <f t="array" ref="B5">_xll.xlquoteCOT(I5,"open_interest")</f>
-        <v>40463</v>
-      </c>
-      <c r="C5" s="1" cm="1">
-        <f t="array" ref="C5">_xll.xlquoteCOT(I5,"noncommercial_net")</f>
-        <v>-2306</v>
+      <c r="B5" s="1">
+        <f>_xll.xlquoteCOT(I5,"OpenInterest")</f>
+        <v>39071</v>
+      </c>
+      <c r="C5" s="1">
+        <f>_xll.xlquoteCOT(I5,"NoncommercialLong")-_xll.xlquoteCOT(I5,"NoncommercialShort")</f>
+        <v>-4172</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>-5.699033685095025E-2</v>
+        <v>-0.1067799646796857</v>
       </c>
       <c r="E5" s="1" cm="1">
         <f t="array" ref="E5">_xll.xlquoteCOT(I5,"noncommercial_commercial")</f>
@@ -893,29 +891,29 @@
         <f t="array" ref="F5">_xll.xlquoteCOT(I5,"change_noncommercial_commercial")</f>
         <v>3464</v>
       </c>
-      <c r="G5" s="1" cm="1">
-        <f t="array" ref="G5">_xll.xlquoteCOT(I5,"nonreportable_net")</f>
-        <v>-155</v>
+      <c r="G5" s="1">
+        <f>_xll.xlquoteCOT(I5,"NonreportableLong")-_xll.xlquoteCOT(I5,"NonreportableShort")</f>
+        <v>-3746</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" cm="1">
-        <f t="array" ref="B6">_xll.xlquoteCOT(I6,"open_interest")</f>
-        <v>80925</v>
-      </c>
-      <c r="C6" s="1" cm="1">
-        <f t="array" ref="C6">_xll.xlquoteCOT(I6,"noncommercial_net")</f>
-        <v>-4611</v>
+      <c r="B6" s="1">
+        <f>_xll.xlquoteCOT(I6,"OpenInterest")</f>
+        <v>78143</v>
+      </c>
+      <c r="C6" s="1">
+        <f>_xll.xlquoteCOT(I6,"NoncommercialLong")-_xll.xlquoteCOT(I6,"NoncommercialShort")</f>
+        <v>-8344</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>-5.6978683966635774E-2</v>
+        <v>-0.10677859821097219</v>
       </c>
       <c r="E6" s="1" cm="1">
         <f t="array" ref="E6">_xll.xlquoteCOT(I6,"noncommercial_commercial")</f>
@@ -925,29 +923,29 @@
         <f t="array" ref="F6">_xll.xlquoteCOT(I6,"change_noncommercial_commercial")</f>
         <v>6929</v>
       </c>
-      <c r="G6" s="1" cm="1">
-        <f t="array" ref="G6">_xll.xlquoteCOT(I6,"nonreportable_net")</f>
-        <v>-311</v>
+      <c r="G6" s="1">
+        <f>_xll.xlquoteCOT(I6,"NonreportableLong")-_xll.xlquoteCOT(I6,"NonreportableShort")</f>
+        <v>-7491</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" cm="1">
-        <f t="array" ref="B7">_xll.xlquoteCOT(I7,"open_interest")</f>
-        <v>68118</v>
-      </c>
-      <c r="C7" s="1" cm="1">
-        <f t="array" ref="C7">_xll.xlquoteCOT(I7,"noncommercial_net")</f>
-        <v>6965</v>
+      <c r="B7" s="1">
+        <f>_xll.xlquoteCOT(I7,"OpenInterest")</f>
+        <v>66505</v>
+      </c>
+      <c r="C7" s="1">
+        <f>_xll.xlquoteCOT(I7,"NoncommercialLong")-_xll.xlquoteCOT(I7,"NoncommercialShort")</f>
+        <v>-132</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.1022490384333069</v>
+        <v>-1.9848131719419591E-3</v>
       </c>
       <c r="E7" s="1" cm="1">
         <f t="array" ref="E7">_xll.xlquoteCOT(I7,"noncommercial_commercial")</f>
@@ -957,29 +955,29 @@
         <f t="array" ref="F7">_xll.xlquoteCOT(I7,"change_noncommercial_commercial")</f>
         <v>12719</v>
       </c>
-      <c r="G7" s="1" cm="1">
-        <f t="array" ref="G7">_xll.xlquoteCOT(I7,"nonreportable_net")</f>
-        <v>-4001</v>
+      <c r="G7" s="1">
+        <f>_xll.xlquoteCOT(I7,"NonreportableLong")-_xll.xlquoteCOT(I7,"NonreportableShort")</f>
+        <v>-2862</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" cm="1">
-        <f t="array" ref="B8">_xll.xlquoteCOT(I8,"open_interest")</f>
-        <v>340590</v>
-      </c>
-      <c r="C8" s="1" cm="1">
-        <f t="array" ref="C8">_xll.xlquoteCOT(I8,"noncommercial_net")</f>
-        <v>34825</v>
+      <c r="B8" s="1">
+        <f>_xll.xlquoteCOT(I8,"OpenInterest")</f>
+        <v>332524</v>
+      </c>
+      <c r="C8" s="1">
+        <f>_xll.xlquoteCOT(I8,"NoncommercialLong")-_xll.xlquoteCOT(I8,"NoncommercialShort")</f>
+        <v>-660</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.1022490384333069</v>
+        <v>-1.9848191408740421E-3</v>
       </c>
       <c r="E8" s="1" cm="1">
         <f t="array" ref="E8">_xll.xlquoteCOT(I8,"noncommercial_commercial")</f>
@@ -989,29 +987,29 @@
         <f t="array" ref="F8">_xll.xlquoteCOT(I8,"change_noncommercial_commercial")</f>
         <v>63594</v>
       </c>
-      <c r="G8" s="1" cm="1">
-        <f t="array" ref="G8">_xll.xlquoteCOT(I8,"nonreportable_net")</f>
-        <v>-20005</v>
+      <c r="G8" s="1">
+        <f>_xll.xlquoteCOT(I8,"NonreportableLong")-_xll.xlquoteCOT(I8,"NonreportableShort")</f>
+        <v>-14311</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" cm="1">
-        <f t="array" ref="B9">_xll.xlquoteCOT(I9,"open_interest")</f>
-        <v>131835</v>
-      </c>
-      <c r="C9" s="1" cm="1">
-        <f t="array" ref="C9">_xll.xlquoteCOT(I9,"noncommercial_net")</f>
-        <v>-34685</v>
+      <c r="B9" s="1">
+        <f>_xll.xlquoteCOT(I9,"OpenInterest")</f>
+        <v>131558</v>
+      </c>
+      <c r="C9" s="1">
+        <f>_xll.xlquoteCOT(I9,"NoncommercialLong")-_xll.xlquoteCOT(I9,"NoncommercialShort")</f>
+        <v>-69107</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>-0.26309401903895019</v>
+        <v>-0.52529682725489901</v>
       </c>
       <c r="E9" s="1" cm="1">
         <f t="array" ref="E9">_xll.xlquoteCOT(I9,"noncommercial_commercial")</f>
@@ -1021,29 +1019,29 @@
         <f t="array" ref="F9">_xll.xlquoteCOT(I9,"change_noncommercial_commercial")</f>
         <v>-17725</v>
       </c>
-      <c r="G9" s="1" cm="1">
-        <f t="array" ref="G9">_xll.xlquoteCOT(I9,"nonreportable_net")</f>
-        <v>40064</v>
+      <c r="G9" s="1">
+        <f>_xll.xlquoteCOT(I9,"NonreportableLong")-_xll.xlquoteCOT(I9,"NonreportableShort")</f>
+        <v>72259</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" cm="1">
-        <f t="array" ref="B10">_xll.xlquoteCOT(I10,"open_interest")</f>
-        <v>532899</v>
-      </c>
-      <c r="C10" s="1" cm="1">
-        <f t="array" ref="C10">_xll.xlquoteCOT(I10,"noncommercial_net")</f>
-        <v>-96455</v>
+      <c r="B10" s="1">
+        <f>_xll.xlquoteCOT(I10,"OpenInterest")</f>
+        <v>506345</v>
+      </c>
+      <c r="C10" s="1">
+        <f>_xll.xlquoteCOT(I10,"NoncommercialLong")-_xll.xlquoteCOT(I10,"NoncommercialShort")</f>
+        <v>-61412</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>-0.18100052730442354</v>
+        <v>-0.12128489468642921</v>
       </c>
       <c r="E10" s="1" cm="1">
         <f t="array" ref="E10">_xll.xlquoteCOT(I10,"noncommercial_commercial")</f>
@@ -1053,29 +1051,29 @@
         <f t="array" ref="F10">_xll.xlquoteCOT(I10,"change_noncommercial_commercial")</f>
         <v>41112</v>
       </c>
-      <c r="G10" s="1" cm="1">
-        <f t="array" ref="G10">_xll.xlquoteCOT(I10,"nonreportable_net")</f>
-        <v>-2173</v>
+      <c r="G10" s="1">
+        <f>_xll.xlquoteCOT(I10,"NonreportableLong")-_xll.xlquoteCOT(I10,"NonreportableShort")</f>
+        <v>3484</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" cm="1">
-        <f t="array" ref="B11">_xll.xlquoteCOT(I11,"open_interest")</f>
-        <v>349447</v>
-      </c>
-      <c r="C11" s="1" cm="1">
-        <f t="array" ref="C11">_xll.xlquoteCOT(I11,"noncommercial_net")</f>
-        <v>-106345</v>
+      <c r="B11" s="1">
+        <f>_xll.xlquoteCOT(I11,"OpenInterest")</f>
+        <v>333031</v>
+      </c>
+      <c r="C11" s="1">
+        <f>_xll.xlquoteCOT(I11,"NoncommercialLong")-_xll.xlquoteCOT(I11,"NoncommercialShort")</f>
+        <v>-75230</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>-0.304323688570799</v>
+        <v>-0.22589488666220262</v>
       </c>
       <c r="E11" s="1" cm="1">
         <f t="array" ref="E11">_xll.xlquoteCOT(I11,"noncommercial_commercial")</f>
@@ -1085,29 +1083,29 @@
         <f t="array" ref="F11">_xll.xlquoteCOT(I11,"change_noncommercial_commercial")</f>
         <v>-7105</v>
       </c>
-      <c r="G11" s="1" cm="1">
-        <f t="array" ref="G11">_xll.xlquoteCOT(I11,"nonreportable_net")</f>
-        <v>-1853</v>
+      <c r="G11" s="1">
+        <f>_xll.xlquoteCOT(I11,"NonreportableLong")-_xll.xlquoteCOT(I11,"NonreportableShort")</f>
+        <v>-7212</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" cm="1">
-        <f t="array" ref="B12">_xll.xlquoteCOT(I12,"open_interest")</f>
-        <v>20602099</v>
-      </c>
-      <c r="C12" s="1" cm="1">
-        <f t="array" ref="C12">_xll.xlquoteCOT(I12,"noncommercial_net")</f>
-        <v>-1104134</v>
+      <c r="B12" s="1">
+        <f>_xll.xlquoteCOT(I12,"OpenInterest")</f>
+        <v>14692346</v>
+      </c>
+      <c r="C12" s="1">
+        <f>_xll.xlquoteCOT(I12,"NoncommercialLong")-_xll.xlquoteCOT(I12,"NoncommercialShort")</f>
+        <v>-560251</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>-5.3593277073370048E-2</v>
+        <v>-3.8132167592568267E-2</v>
       </c>
       <c r="E12" s="1" cm="1">
         <f t="array" ref="E12">_xll.xlquoteCOT(I12,"noncommercial_commercial")</f>
@@ -1117,29 +1115,29 @@
         <f t="array" ref="F12">_xll.xlquoteCOT(I12,"change_noncommercial_commercial")</f>
         <v>159213</v>
       </c>
-      <c r="G12" s="1" cm="1">
-        <f t="array" ref="G12">_xll.xlquoteCOT(I12,"nonreportable_net")</f>
-        <v>-335727</v>
+      <c r="G12" s="1">
+        <f>_xll.xlquoteCOT(I12,"NonreportableLong")-_xll.xlquoteCOT(I12,"NonreportableShort")</f>
+        <v>-286971</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" cm="1">
-        <f t="array" ref="B13">_xll.xlquoteCOT(I13,"open_interest")</f>
-        <v>1748842</v>
-      </c>
-      <c r="C13" s="1" cm="1">
-        <f t="array" ref="C13">_xll.xlquoteCOT(I13,"noncommercial_net")</f>
-        <v>102650</v>
+      <c r="B13" s="1">
+        <f>_xll.xlquoteCOT(I13,"OpenInterest")</f>
+        <v>1492688</v>
+      </c>
+      <c r="C13" s="1">
+        <f>_xll.xlquoteCOT(I13,"NoncommercialLong")-_xll.xlquoteCOT(I13,"NoncommercialShort")</f>
+        <v>21970</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>5.8695982827493852E-2</v>
+        <v>1.471841402891964E-2</v>
       </c>
       <c r="E13" s="1" cm="1">
         <f t="array" ref="E13">_xll.xlquoteCOT(I13,"noncommercial_commercial")</f>
@@ -1149,29 +1147,29 @@
         <f t="array" ref="F13">_xll.xlquoteCOT(I13,"change_noncommercial_commercial")</f>
         <v>17548</v>
       </c>
-      <c r="G13" s="1" cm="1">
-        <f t="array" ref="G13">_xll.xlquoteCOT(I13,"nonreportable_net")</f>
-        <v>-5944</v>
+      <c r="G13" s="1">
+        <f>_xll.xlquoteCOT(I13,"NonreportableLong")-_xll.xlquoteCOT(I13,"NonreportableShort")</f>
+        <v>-7974</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" cm="1">
-        <f t="array" ref="B14">_xll.xlquoteCOT(I14,"open_interest")</f>
-        <v>10409329</v>
-      </c>
-      <c r="C14" s="1" cm="1">
-        <f t="array" ref="C14">_xll.xlquoteCOT(I14,"noncommercial_net")</f>
-        <v>-951468</v>
+      <c r="B14" s="1">
+        <f>_xll.xlquoteCOT(I14,"OpenInterest")</f>
+        <v>13795722</v>
+      </c>
+      <c r="C14" s="1">
+        <f>_xll.xlquoteCOT(I14,"NoncommercialLong")-_xll.xlquoteCOT(I14,"NoncommercialShort")</f>
+        <v>-313864</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>-9.1405315366629297E-2</v>
+        <v>-2.2750820870411855E-2</v>
       </c>
       <c r="E14" s="1" cm="1">
         <f t="array" ref="E14">_xll.xlquoteCOT(I14,"noncommercial_commercial")</f>
@@ -1181,29 +1179,29 @@
         <f t="array" ref="F14">_xll.xlquoteCOT(I14,"change_noncommercial_commercial")</f>
         <v>-157681</v>
       </c>
-      <c r="G14" s="1" cm="1">
-        <f t="array" ref="G14">_xll.xlquoteCOT(I14,"nonreportable_net")</f>
-        <v>-5854</v>
+      <c r="G14" s="1">
+        <f>_xll.xlquoteCOT(I14,"NonreportableLong")-_xll.xlquoteCOT(I14,"NonreportableShort")</f>
+        <v>57</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" cm="1">
-        <f t="array" ref="B15">_xll.xlquoteCOT(I15,"open_interest")</f>
-        <v>2181759</v>
-      </c>
-      <c r="C15" s="1" cm="1">
-        <f t="array" ref="C15">_xll.xlquoteCOT(I15,"noncommercial_net")</f>
-        <v>-239845</v>
+      <c r="B15" s="1">
+        <f>_xll.xlquoteCOT(I15,"OpenInterest")</f>
+        <v>2232906</v>
+      </c>
+      <c r="C15" s="1">
+        <f>_xll.xlquoteCOT(I15,"NoncommercialLong")-_xll.xlquoteCOT(I15,"NoncommercialShort")</f>
+        <v>-486665</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>-0.10993194023721227</v>
+        <v>-0.2179514050300371</v>
       </c>
       <c r="E15" s="1" cm="1">
         <f t="array" ref="E15">_xll.xlquoteCOT(I15,"noncommercial_commercial")</f>
@@ -1213,29 +1211,29 @@
         <f t="array" ref="F15">_xll.xlquoteCOT(I15,"change_noncommercial_commercial")</f>
         <v>-79355</v>
       </c>
-      <c r="G15" s="1" cm="1">
-        <f t="array" ref="G15">_xll.xlquoteCOT(I15,"nonreportable_net")</f>
-        <v>-63749</v>
+      <c r="G15" s="1">
+        <f>_xll.xlquoteCOT(I15,"NonreportableLong")-_xll.xlquoteCOT(I15,"NonreportableShort")</f>
+        <v>-22360</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" cm="1">
-        <f t="array" ref="B16">_xll.xlquoteCOT(I16,"open_interest")</f>
-        <v>4553134</v>
-      </c>
-      <c r="C16" s="1" cm="1">
-        <f t="array" ref="C16">_xll.xlquoteCOT(I16,"noncommercial_net")</f>
-        <v>-320527</v>
+      <c r="B16" s="1">
+        <f>_xll.xlquoteCOT(I16,"OpenInterest")</f>
+        <v>4815913</v>
+      </c>
+      <c r="C16" s="1">
+        <f>_xll.xlquoteCOT(I16,"NoncommercialLong")-_xll.xlquoteCOT(I16,"NoncommercialShort")</f>
+        <v>-318940</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
-        <v>-7.039700566686595E-2</v>
+        <v>-6.6226279419914769E-2</v>
       </c>
       <c r="E16" s="1" cm="1">
         <f t="array" ref="E16">_xll.xlquoteCOT(I16,"noncommercial_commercial")</f>
@@ -1245,29 +1243,29 @@
         <f t="array" ref="F16">_xll.xlquoteCOT(I16,"change_noncommercial_commercial")</f>
         <v>-86114</v>
       </c>
-      <c r="G16" s="1" cm="1">
-        <f t="array" ref="G16">_xll.xlquoteCOT(I16,"nonreportable_net")</f>
-        <v>-118579</v>
+      <c r="G16" s="1">
+        <f>_xll.xlquoteCOT(I16,"NonreportableLong")-_xll.xlquoteCOT(I16,"NonreportableShort")</f>
+        <v>-66725</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" cm="1">
-        <f t="array" ref="B17">_xll.xlquoteCOT(I17,"open_interest")</f>
-        <v>1267444</v>
-      </c>
-      <c r="C17" s="1" cm="1">
-        <f t="array" ref="C17">_xll.xlquoteCOT(I17,"noncommercial_net")</f>
-        <v>-25089</v>
+      <c r="B17" s="1">
+        <f>_xll.xlquoteCOT(I17,"OpenInterest")</f>
+        <v>1383424</v>
+      </c>
+      <c r="C17" s="1">
+        <f>_xll.xlquoteCOT(I17,"NoncommercialLong")-_xll.xlquoteCOT(I17,"NoncommercialShort")</f>
+        <v>-76528</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>-1.9794957410347123E-2</v>
+        <v>-5.5317820133234642E-2</v>
       </c>
       <c r="E17" s="1" cm="1">
         <f t="array" ref="E17">_xll.xlquoteCOT(I17,"noncommercial_commercial")</f>
@@ -1277,29 +1275,29 @@
         <f t="array" ref="F17">_xll.xlquoteCOT(I17,"change_noncommercial_commercial")</f>
         <v>32374</v>
       </c>
-      <c r="G17" s="1" cm="1">
-        <f t="array" ref="G17">_xll.xlquoteCOT(I17,"nonreportable_net")</f>
-        <v>-110014</v>
+      <c r="G17" s="1">
+        <f>_xll.xlquoteCOT(I17,"NonreportableLong")-_xll.xlquoteCOT(I17,"NonreportableShort")</f>
+        <v>-76054</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" cm="1">
-        <f t="array" ref="B18">_xll.xlquoteCOT(I18,"open_interest")</f>
-        <v>67041</v>
-      </c>
-      <c r="C18" s="1" cm="1">
-        <f t="array" ref="C18">_xll.xlquoteCOT(I18,"noncommercial_net")</f>
-        <v>-12665</v>
+      <c r="B18" s="1">
+        <f>_xll.xlquoteCOT(I18,"OpenInterest")</f>
+        <v>57726</v>
+      </c>
+      <c r="C18" s="1">
+        <f>_xll.xlquoteCOT(I18,"NoncommercialLong")-_xll.xlquoteCOT(I18,"NoncommercialShort")</f>
+        <v>-3439</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>-0.18891424650586955</v>
+        <v>-5.9574541800921595E-2</v>
       </c>
       <c r="E18" s="1" cm="1">
         <f t="array" ref="E18">_xll.xlquoteCOT(I18,"noncommercial_commercial")</f>
@@ -1309,29 +1307,29 @@
         <f t="array" ref="F18">_xll.xlquoteCOT(I18,"change_noncommercial_commercial")</f>
         <v>464</v>
       </c>
-      <c r="G18" s="1" cm="1">
-        <f t="array" ref="G18">_xll.xlquoteCOT(I18,"nonreportable_net")</f>
-        <v>312</v>
+      <c r="G18" s="1">
+        <f>_xll.xlquoteCOT(I18,"NonreportableLong")-_xll.xlquoteCOT(I18,"NonreportableShort")</f>
+        <v>-2358</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" cm="1">
-        <f t="array" ref="B19">_xll.xlquoteCOT(I19,"open_interest")</f>
-        <v>2100099</v>
-      </c>
-      <c r="C19" s="1" cm="1">
-        <f t="array" ref="C19">_xll.xlquoteCOT(I19,"noncommercial_net")</f>
-        <v>298426</v>
+      <c r="B19" s="1">
+        <f>_xll.xlquoteCOT(I19,"OpenInterest")</f>
+        <v>2089842</v>
+      </c>
+      <c r="C19" s="1">
+        <f>_xll.xlquoteCOT(I19,"NoncommercialLong")-_xll.xlquoteCOT(I19,"NoncommercialShort")</f>
+        <v>302871</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>0.14210092000424743</v>
+        <v>0.14492531014306345</v>
       </c>
       <c r="E19" s="1" cm="1">
         <f t="array" ref="E19">_xll.xlquoteCOT(I19,"noncommercial_commercial")</f>
@@ -1341,29 +1339,29 @@
         <f t="array" ref="F19">_xll.xlquoteCOT(I19,"change_noncommercial_commercial")</f>
         <v>43629</v>
       </c>
-      <c r="G19" s="1" cm="1">
-        <f t="array" ref="G19">_xll.xlquoteCOT(I19,"nonreportable_net")</f>
-        <v>28378</v>
+      <c r="G19" s="1">
+        <f>_xll.xlquoteCOT(I19,"NonreportableLong")-_xll.xlquoteCOT(I19,"NonreportableShort")</f>
+        <v>33864</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" cm="1">
-        <f t="array" ref="B20">_xll.xlquoteCOT(I20,"open_interest")</f>
-        <v>149099</v>
-      </c>
-      <c r="C20" s="1" cm="1">
-        <f t="array" ref="C20">_xll.xlquoteCOT(I20,"noncommercial_net")</f>
-        <v>30045</v>
+      <c r="B20" s="1">
+        <f>_xll.xlquoteCOT(I20,"OpenInterest")</f>
+        <v>147145</v>
+      </c>
+      <c r="C20" s="1">
+        <f>_xll.xlquoteCOT(I20,"NoncommercialLong")-_xll.xlquoteCOT(I20,"NoncommercialShort")</f>
+        <v>35157</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
-        <v>0.20151040583773197</v>
+        <v>0.23892758843317816</v>
       </c>
       <c r="E20" s="1" cm="1">
         <f t="array" ref="E20">_xll.xlquoteCOT(I20,"noncommercial_commercial")</f>
@@ -1373,29 +1371,29 @@
         <f t="array" ref="F20">_xll.xlquoteCOT(I20,"change_noncommercial_commercial")</f>
         <v>-523</v>
       </c>
-      <c r="G20" s="1" cm="1">
-        <f t="array" ref="G20">_xll.xlquoteCOT(I20,"nonreportable_net")</f>
-        <v>-9361</v>
+      <c r="G20" s="1">
+        <f>_xll.xlquoteCOT(I20,"NonreportableLong")-_xll.xlquoteCOT(I20,"NonreportableShort")</f>
+        <v>-5696</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" cm="1">
-        <f t="array" ref="B21">_xll.xlquoteCOT(I21,"open_interest")</f>
-        <v>192199</v>
-      </c>
-      <c r="C21" s="1" cm="1">
-        <f t="array" ref="C21">_xll.xlquoteCOT(I21,"noncommercial_net")</f>
-        <v>-38613</v>
+      <c r="B21" s="1">
+        <f>_xll.xlquoteCOT(I21,"OpenInterest")</f>
+        <v>145006</v>
+      </c>
+      <c r="C21" s="1">
+        <f>_xll.xlquoteCOT(I21,"NoncommercialLong")-_xll.xlquoteCOT(I21,"NoncommercialShort")</f>
+        <v>-22660</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
-        <v>-0.2009011493296011</v>
+        <v>-0.15626939574914142</v>
       </c>
       <c r="E21" s="1" cm="1">
         <f t="array" ref="E21">_xll.xlquoteCOT(I21,"noncommercial_commercial")</f>
@@ -1405,29 +1403,29 @@
         <f t="array" ref="F21">_xll.xlquoteCOT(I21,"change_noncommercial_commercial")</f>
         <v>-838</v>
       </c>
-      <c r="G21" s="1" cm="1">
-        <f t="array" ref="G21">_xll.xlquoteCOT(I21,"nonreportable_net")</f>
-        <v>2358</v>
+      <c r="G21" s="1">
+        <f>_xll.xlquoteCOT(I21,"NonreportableLong")-_xll.xlquoteCOT(I21,"NonreportableShort")</f>
+        <v>4395</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" cm="1">
-        <f t="array" ref="B22">_xll.xlquoteCOT(I22,"open_interest")</f>
-        <v>498192</v>
-      </c>
-      <c r="C22" s="1" cm="1">
-        <f t="array" ref="C22">_xll.xlquoteCOT(I22,"noncommercial_net")</f>
-        <v>190483</v>
+      <c r="B22" s="1">
+        <f>_xll.xlquoteCOT(I22,"OpenInterest")</f>
+        <v>451182</v>
+      </c>
+      <c r="C22" s="1">
+        <f>_xll.xlquoteCOT(I22,"NoncommercialLong")-_xll.xlquoteCOT(I22,"NoncommercialShort")</f>
+        <v>179136</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
-        <v>0.38234857243793557</v>
+        <v>0.39703711584238732</v>
       </c>
       <c r="E22" s="1" cm="1">
         <f t="array" ref="E22">_xll.xlquoteCOT(I22,"noncommercial_commercial")</f>
@@ -1437,29 +1435,29 @@
         <f t="array" ref="F22">_xll.xlquoteCOT(I22,"change_noncommercial_commercial")</f>
         <v>-7028</v>
       </c>
-      <c r="G22" s="1" cm="1">
-        <f t="array" ref="G22">_xll.xlquoteCOT(I22,"nonreportable_net")</f>
-        <v>11571</v>
+      <c r="G22" s="1">
+        <f>_xll.xlquoteCOT(I22,"NonreportableLong")-_xll.xlquoteCOT(I22,"NonreportableShort")</f>
+        <v>6722</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" cm="1">
-        <f t="array" ref="B23">_xll.xlquoteCOT(I23,"open_interest")</f>
-        <v>267105</v>
-      </c>
-      <c r="C23" s="1" cm="1">
-        <f t="array" ref="C23">_xll.xlquoteCOT(I23,"noncommercial_net")</f>
-        <v>52890</v>
+      <c r="B23" s="1">
+        <f>_xll.xlquoteCOT(I23,"OpenInterest")</f>
+        <v>249858</v>
+      </c>
+      <c r="C23" s="1">
+        <f>_xll.xlquoteCOT(I23,"NoncommercialLong")-_xll.xlquoteCOT(I23,"NoncommercialShort")</f>
+        <v>49004</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
-        <v>0.1980120177458303</v>
+        <v>0.19612740036340642</v>
       </c>
       <c r="E23" s="1" cm="1">
         <f t="array" ref="E23">_xll.xlquoteCOT(I23,"noncommercial_commercial")</f>
@@ -1469,29 +1467,29 @@
         <f t="array" ref="F23">_xll.xlquoteCOT(I23,"change_noncommercial_commercial")</f>
         <v>10725</v>
       </c>
-      <c r="G23" s="1" cm="1">
-        <f t="array" ref="G23">_xll.xlquoteCOT(I23,"nonreportable_net")</f>
-        <v>5241</v>
+      <c r="G23" s="1">
+        <f>_xll.xlquoteCOT(I23,"NonreportableLong")-_xll.xlquoteCOT(I23,"NonreportableShort")</f>
+        <v>10490</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1" cm="1">
-        <f t="array" ref="B24">_xll.xlquoteCOT(I24,"open_interest")</f>
-        <v>598932</v>
-      </c>
-      <c r="C24" s="1" cm="1">
-        <f t="array" ref="C24">_xll.xlquoteCOT(I24,"noncommercial_net")</f>
-        <v>127603</v>
+      <c r="B24" s="1">
+        <f>_xll.xlquoteCOT(I24,"OpenInterest")</f>
+        <v>645338</v>
+      </c>
+      <c r="C24" s="1">
+        <f>_xll.xlquoteCOT(I24,"NoncommercialLong")-_xll.xlquoteCOT(I24,"NoncommercialShort")</f>
+        <v>84942</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
-        <v>0.21305089726379622</v>
+        <v>0.13162404817320536</v>
       </c>
       <c r="E24" s="1" cm="1">
         <f t="array" ref="E24">_xll.xlquoteCOT(I24,"noncommercial_commercial")</f>
@@ -1501,29 +1499,29 @@
         <f t="array" ref="F24">_xll.xlquoteCOT(I24,"change_noncommercial_commercial")</f>
         <v>-33616</v>
       </c>
-      <c r="G24" s="1" cm="1">
-        <f t="array" ref="G24">_xll.xlquoteCOT(I24,"nonreportable_net")</f>
-        <v>12550</v>
+      <c r="G24" s="1">
+        <f>_xll.xlquoteCOT(I24,"NonreportableLong")-_xll.xlquoteCOT(I24,"NonreportableShort")</f>
+        <v>9070</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1" cm="1">
-        <f t="array" ref="B25">_xll.xlquoteCOT(I25,"open_interest")</f>
-        <v>163761</v>
-      </c>
-      <c r="C25" s="1" cm="1">
-        <f t="array" ref="C25">_xll.xlquoteCOT(I25,"noncommercial_net")</f>
-        <v>-5270</v>
+      <c r="B25" s="1">
+        <f>_xll.xlquoteCOT(I25,"OpenInterest")</f>
+        <v>176248</v>
+      </c>
+      <c r="C25" s="1">
+        <f>_xll.xlquoteCOT(I25,"NoncommercialLong")-_xll.xlquoteCOT(I25,"NoncommercialShort")</f>
+        <v>14294</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
-        <v>-3.2181044326793314E-2</v>
+        <v>8.110162952203713E-2</v>
       </c>
       <c r="E25" s="1" cm="1">
         <f t="array" ref="E25">_xll.xlquoteCOT(I25,"noncommercial_commercial")</f>
@@ -1533,29 +1531,29 @@
         <f t="array" ref="F25">_xll.xlquoteCOT(I25,"change_noncommercial_commercial")</f>
         <v>-17169</v>
       </c>
-      <c r="G25" s="1" cm="1">
-        <f t="array" ref="G25">_xll.xlquoteCOT(I25,"nonreportable_net")</f>
-        <v>9589</v>
+      <c r="G25" s="1">
+        <f>_xll.xlquoteCOT(I25,"NonreportableLong")-_xll.xlquoteCOT(I25,"NonreportableShort")</f>
+        <v>9983</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1" cm="1">
-        <f t="array" ref="B26">_xll.xlquoteCOT(I26,"open_interest")</f>
-        <v>195146</v>
-      </c>
-      <c r="C26" s="1" cm="1">
-        <f t="array" ref="C26">_xll.xlquoteCOT(I26,"noncommercial_net")</f>
-        <v>-17190</v>
+      <c r="B26" s="1">
+        <f>_xll.xlquoteCOT(I26,"OpenInterest")</f>
+        <v>189859</v>
+      </c>
+      <c r="C26" s="1">
+        <f>_xll.xlquoteCOT(I26,"NoncommercialLong")-_xll.xlquoteCOT(I26,"NoncommercialShort")</f>
+        <v>2927</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
-        <v>-8.8087893167167142E-2</v>
+        <v>1.5416703975055172E-2</v>
       </c>
       <c r="E26" s="1" cm="1">
         <f t="array" ref="E26">_xll.xlquoteCOT(I26,"noncommercial_commercial")</f>
@@ -1565,29 +1563,29 @@
         <f t="array" ref="F26">_xll.xlquoteCOT(I26,"change_noncommercial_commercial")</f>
         <v>16997</v>
       </c>
-      <c r="G26" s="1" cm="1">
-        <f t="array" ref="G26">_xll.xlquoteCOT(I26,"nonreportable_net")</f>
-        <v>-2329</v>
+      <c r="G26" s="1">
+        <f>_xll.xlquoteCOT(I26,"NonreportableLong")-_xll.xlquoteCOT(I26,"NonreportableShort")</f>
+        <v>600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1" cm="1">
-        <f t="array" ref="B27">_xll.xlquoteCOT(I27,"open_interest")</f>
-        <v>7929</v>
-      </c>
-      <c r="C27" s="1" cm="1">
-        <f t="array" ref="C27">_xll.xlquoteCOT(I27,"noncommercial_net")</f>
-        <v>-1794</v>
+      <c r="B27" s="1">
+        <f>_xll.xlquoteCOT(I27,"OpenInterest")</f>
+        <v>9469</v>
+      </c>
+      <c r="C27" s="1">
+        <f>_xll.xlquoteCOT(I27,"NoncommercialLong")-_xll.xlquoteCOT(I27,"NoncommercialShort")</f>
+        <v>-2410</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
-        <v>-0.22625804010594022</v>
+        <v>-0.25451473228429611</v>
       </c>
       <c r="E27" s="1" cm="1">
         <f t="array" ref="E27">_xll.xlquoteCOT(I27,"noncommercial_commercial")</f>
@@ -1597,29 +1595,29 @@
         <f t="array" ref="F27">_xll.xlquoteCOT(I27,"change_noncommercial_commercial")</f>
         <v>-773</v>
       </c>
-      <c r="G27" s="1" cm="1">
-        <f t="array" ref="G27">_xll.xlquoteCOT(I27,"nonreportable_net")</f>
-        <v>-317</v>
+      <c r="G27" s="1">
+        <f>_xll.xlquoteCOT(I27,"NonreportableLong")-_xll.xlquoteCOT(I27,"NonreportableShort")</f>
+        <v>-164</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1" cm="1">
-        <f t="array" ref="B28">_xll.xlquoteCOT(I28,"open_interest")</f>
-        <v>64067</v>
-      </c>
-      <c r="C28" s="1" cm="1">
-        <f t="array" ref="C28">_xll.xlquoteCOT(I28,"noncommercial_net")</f>
-        <v>-1402</v>
+      <c r="B28" s="1">
+        <f>_xll.xlquoteCOT(I28,"OpenInterest")</f>
+        <v>60890</v>
+      </c>
+      <c r="C28" s="1">
+        <f>_xll.xlquoteCOT(I28,"NoncommercialLong")-_xll.xlquoteCOT(I28,"NoncommercialShort")</f>
+        <v>19503</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
-        <v>-2.1883340877518847E-2</v>
+        <v>0.32029889965511577</v>
       </c>
       <c r="E28" s="1" cm="1">
         <f t="array" ref="E28">_xll.xlquoteCOT(I28,"noncommercial_commercial")</f>
@@ -1629,29 +1627,29 @@
         <f t="array" ref="F28">_xll.xlquoteCOT(I28,"change_noncommercial_commercial")</f>
         <v>-8792</v>
       </c>
-      <c r="G28" s="1" cm="1">
-        <f t="array" ref="G28">_xll.xlquoteCOT(I28,"nonreportable_net")</f>
-        <v>3659</v>
+      <c r="G28" s="1">
+        <f>_xll.xlquoteCOT(I28,"NonreportableLong")-_xll.xlquoteCOT(I28,"NonreportableShort")</f>
+        <v>3851</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1" cm="1">
-        <f t="array" ref="B29">_xll.xlquoteCOT(I29,"open_interest")</f>
-        <v>432194</v>
-      </c>
-      <c r="C29" s="1" cm="1">
-        <f t="array" ref="C29">_xll.xlquoteCOT(I29,"noncommercial_net")</f>
-        <v>-17453</v>
+      <c r="B29" s="1">
+        <f>_xll.xlquoteCOT(I29,"OpenInterest")</f>
+        <v>443703</v>
+      </c>
+      <c r="C29" s="1">
+        <f>_xll.xlquoteCOT(I29,"NoncommercialLong")-_xll.xlquoteCOT(I29,"NoncommercialShort")</f>
+        <v>-22055</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
-        <v>-4.0382328306269873E-2</v>
+        <v>-4.9706673157494989E-2</v>
       </c>
       <c r="E29" s="1" cm="1">
         <f t="array" ref="E29">_xll.xlquoteCOT(I29,"noncommercial_commercial")</f>
@@ -1661,29 +1659,29 @@
         <f t="array" ref="F29">_xll.xlquoteCOT(I29,"change_noncommercial_commercial")</f>
         <v>-6276</v>
       </c>
-      <c r="G29" s="1" cm="1">
-        <f t="array" ref="G29">_xll.xlquoteCOT(I29,"nonreportable_net")</f>
-        <v>-2814</v>
+      <c r="G29" s="1">
+        <f>_xll.xlquoteCOT(I29,"NonreportableLong")-_xll.xlquoteCOT(I29,"NonreportableShort")</f>
+        <v>-5448</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="1" cm="1">
-        <f t="array" ref="B30">_xll.xlquoteCOT(I30,"open_interest")</f>
-        <v>1848801</v>
-      </c>
-      <c r="C30" s="1" cm="1">
-        <f t="array" ref="C30">_xll.xlquoteCOT(I30,"noncommercial_net")</f>
-        <v>247023</v>
+      <c r="B30" s="1">
+        <f>_xll.xlquoteCOT(I30,"OpenInterest")</f>
+        <v>1920077</v>
+      </c>
+      <c r="C30" s="1">
+        <f>_xll.xlquoteCOT(I30,"NoncommercialLong")-_xll.xlquoteCOT(I30,"NoncommercialShort")</f>
+        <v>276059</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
-        <v>0.13361254131731862</v>
+        <v>0.14377496319158034</v>
       </c>
       <c r="E30" s="1" cm="1">
         <f t="array" ref="E30">_xll.xlquoteCOT(I30,"noncommercial_commercial")</f>
@@ -1693,29 +1691,29 @@
         <f t="array" ref="F30">_xll.xlquoteCOT(I30,"change_noncommercial_commercial")</f>
         <v>98964</v>
       </c>
-      <c r="G30" s="1" cm="1">
-        <f t="array" ref="G30">_xll.xlquoteCOT(I30,"nonreportable_net")</f>
-        <v>-55567</v>
+      <c r="G30" s="1">
+        <f>_xll.xlquoteCOT(I30,"NonreportableLong")-_xll.xlquoteCOT(I30,"NonreportableShort")</f>
+        <v>-48788</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="1" cm="1">
-        <f t="array" ref="B31">_xll.xlquoteCOT(I31,"open_interest")</f>
-        <v>789452</v>
-      </c>
-      <c r="C31" s="1" cm="1">
-        <f t="array" ref="C31">_xll.xlquoteCOT(I31,"noncommercial_net")</f>
-        <v>95205</v>
+      <c r="B31" s="1">
+        <f>_xll.xlquoteCOT(I31,"OpenInterest")</f>
+        <v>703484</v>
+      </c>
+      <c r="C31" s="1">
+        <f>_xll.xlquoteCOT(I31,"NoncommercialLong")-_xll.xlquoteCOT(I31,"NoncommercialShort")</f>
+        <v>93671</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
-        <v>0.12059631237871334</v>
+        <v>0.13315299281859999</v>
       </c>
       <c r="E31" s="1" cm="1">
         <f t="array" ref="E31">_xll.xlquoteCOT(I31,"noncommercial_commercial")</f>
@@ -1725,29 +1723,29 @@
         <f t="array" ref="F31">_xll.xlquoteCOT(I31,"change_noncommercial_commercial")</f>
         <v>20308</v>
       </c>
-      <c r="G31" s="1" cm="1">
-        <f t="array" ref="G31">_xll.xlquoteCOT(I31,"nonreportable_net")</f>
-        <v>-32647</v>
+      <c r="G31" s="1">
+        <f>_xll.xlquoteCOT(I31,"NonreportableLong")-_xll.xlquoteCOT(I31,"NonreportableShort")</f>
+        <v>-28004</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="1" cm="1">
-        <f t="array" ref="B32">_xll.xlquoteCOT(I32,"open_interest")</f>
-        <v>472042</v>
-      </c>
-      <c r="C32" s="1" cm="1">
-        <f t="array" ref="C32">_xll.xlquoteCOT(I32,"noncommercial_net")</f>
-        <v>43764</v>
+      <c r="B32" s="1">
+        <f>_xll.xlquoteCOT(I32,"OpenInterest")</f>
+        <v>518361</v>
+      </c>
+      <c r="C32" s="1">
+        <f>_xll.xlquoteCOT(I32,"NoncommercialLong")-_xll.xlquoteCOT(I32,"NoncommercialShort")</f>
+        <v>103481</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
-        <v>9.2712089178505305E-2</v>
+        <v>0.19963114509000485</v>
       </c>
       <c r="E32" s="1" cm="1">
         <f t="array" ref="E32">_xll.xlquoteCOT(I32,"noncommercial_commercial")</f>
@@ -1757,29 +1755,29 @@
         <f t="array" ref="F32">_xll.xlquoteCOT(I32,"change_noncommercial_commercial")</f>
         <v>15761</v>
       </c>
-      <c r="G32" s="1" cm="1">
-        <f t="array" ref="G32">_xll.xlquoteCOT(I32,"nonreportable_net")</f>
-        <v>9786</v>
+      <c r="G32" s="1">
+        <f>_xll.xlquoteCOT(I32,"NonreportableLong")-_xll.xlquoteCOT(I32,"NonreportableShort")</f>
+        <v>12312</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1" cm="1">
-        <f t="array" ref="B33">_xll.xlquoteCOT(I33,"open_interest")</f>
-        <v>474763</v>
-      </c>
-      <c r="C33" s="1" cm="1">
-        <f t="array" ref="C33">_xll.xlquoteCOT(I33,"noncommercial_net")</f>
-        <v>113620</v>
+      <c r="B33" s="1">
+        <f>_xll.xlquoteCOT(I33,"OpenInterest")</f>
+        <v>453467</v>
+      </c>
+      <c r="C33" s="1">
+        <f>_xll.xlquoteCOT(I33,"NoncommercialLong")-_xll.xlquoteCOT(I33,"NoncommercialShort")</f>
+        <v>114623</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
-        <v>0.23931940778872826</v>
+        <v>0.25277032286803669</v>
       </c>
       <c r="E33" s="1" cm="1">
         <f t="array" ref="E33">_xll.xlquoteCOT(I33,"noncommercial_commercial")</f>
@@ -1789,29 +1787,29 @@
         <f t="array" ref="F33">_xll.xlquoteCOT(I33,"change_noncommercial_commercial")</f>
         <v>22508</v>
       </c>
-      <c r="G33" s="1" cm="1">
-        <f t="array" ref="G33">_xll.xlquoteCOT(I33,"nonreportable_net")</f>
-        <v>25779</v>
+      <c r="G33" s="1">
+        <f>_xll.xlquoteCOT(I33,"NonreportableLong")-_xll.xlquoteCOT(I33,"NonreportableShort")</f>
+        <v>28673</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="1" cm="1">
-        <f t="array" ref="B34">_xll.xlquoteCOT(I34,"open_interest")</f>
-        <v>288628</v>
-      </c>
-      <c r="C34" s="1" cm="1">
-        <f t="array" ref="C34">_xll.xlquoteCOT(I34,"noncommercial_net")</f>
-        <v>51255</v>
+      <c r="B34" s="1">
+        <f>_xll.xlquoteCOT(I34,"OpenInterest")</f>
+        <v>346839</v>
+      </c>
+      <c r="C34" s="1">
+        <f>_xll.xlquoteCOT(I34,"NoncommercialLong")-_xll.xlquoteCOT(I34,"NoncommercialShort")</f>
+        <v>13712</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
-        <v>0.17758152362210181</v>
+        <v>3.9534193098238662E-2</v>
       </c>
       <c r="E34" s="1" cm="1">
         <f t="array" ref="E34">_xll.xlquoteCOT(I34,"noncommercial_commercial")</f>
@@ -1821,29 +1819,29 @@
         <f t="array" ref="F34">_xll.xlquoteCOT(I34,"change_noncommercial_commercial")</f>
         <v>9406</v>
       </c>
-      <c r="G34" s="1" cm="1">
-        <f t="array" ref="G34">_xll.xlquoteCOT(I34,"nonreportable_net")</f>
-        <v>6905</v>
+      <c r="G34" s="1">
+        <f>_xll.xlquoteCOT(I34,"NonreportableLong")-_xll.xlquoteCOT(I34,"NonreportableShort")</f>
+        <v>1917</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="1" cm="1">
-        <f t="array" ref="B35">_xll.xlquoteCOT(I35,"open_interest")</f>
-        <v>9751</v>
-      </c>
-      <c r="C35" s="1" cm="1">
-        <f t="array" ref="C35">_xll.xlquoteCOT(I35,"noncommercial_net")</f>
-        <v>1454</v>
+      <c r="B35" s="1">
+        <f>_xll.xlquoteCOT(I35,"OpenInterest")</f>
+        <v>7947</v>
+      </c>
+      <c r="C35" s="1">
+        <f>_xll.xlquoteCOT(I35,"NoncommercialLong")-_xll.xlquoteCOT(I35,"NoncommercialShort")</f>
+        <v>-743</v>
       </c>
       <c r="D35" s="6">
         <f t="shared" si="0"/>
-        <v>0.1491129114962568</v>
+        <v>-9.3494400402667668E-2</v>
       </c>
       <c r="E35" s="1" cm="1">
         <f t="array" ref="E35">_xll.xlquoteCOT(I35,"noncommercial_commercial")</f>
@@ -1853,29 +1851,29 @@
         <f t="array" ref="F35">_xll.xlquoteCOT(I35,"change_noncommercial_commercial")</f>
         <v>445</v>
       </c>
-      <c r="G35" s="1" cm="1">
-        <f t="array" ref="G35">_xll.xlquoteCOT(I35,"nonreportable_net")</f>
-        <v>1071</v>
+      <c r="G35" s="1">
+        <f>_xll.xlquoteCOT(I35,"NonreportableLong")-_xll.xlquoteCOT(I35,"NonreportableShort")</f>
+        <v>771</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="1" cm="1">
-        <f t="array" ref="B36">_xll.xlquoteCOT(I36,"open_interest")</f>
-        <v>342271</v>
-      </c>
-      <c r="C36" s="1" cm="1">
-        <f t="array" ref="C36">_xll.xlquoteCOT(I36,"noncommercial_net")</f>
-        <v>-19303</v>
+      <c r="B36" s="1">
+        <f>_xll.xlquoteCOT(I36,"OpenInterest")</f>
+        <v>345141</v>
+      </c>
+      <c r="C36" s="1">
+        <f>_xll.xlquoteCOT(I36,"NoncommercialLong")-_xll.xlquoteCOT(I36,"NoncommercialShort")</f>
+        <v>-1606</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" si="0"/>
-        <v>-5.6396831750279749E-2</v>
+        <v>-4.6531707331206665E-3</v>
       </c>
       <c r="E36" s="1" cm="1">
         <f t="array" ref="E36">_xll.xlquoteCOT(I36,"noncommercial_commercial")</f>
@@ -1885,29 +1883,29 @@
         <f t="array" ref="F36">_xll.xlquoteCOT(I36,"change_noncommercial_commercial")</f>
         <v>-2724</v>
       </c>
-      <c r="G36" s="1" cm="1">
-        <f t="array" ref="G36">_xll.xlquoteCOT(I36,"nonreportable_net")</f>
-        <v>4429</v>
+      <c r="G36" s="1">
+        <f>_xll.xlquoteCOT(I36,"NonreportableLong")-_xll.xlquoteCOT(I36,"NonreportableShort")</f>
+        <v>3449</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="1" cm="1">
-        <f t="array" ref="B37">_xll.xlquoteCOT(I37,"open_interest")</f>
-        <v>900697</v>
-      </c>
-      <c r="C37" s="1" cm="1">
-        <f t="array" ref="C37">_xll.xlquoteCOT(I37,"noncommercial_net")</f>
-        <v>32367</v>
+      <c r="B37" s="1">
+        <f>_xll.xlquoteCOT(I37,"OpenInterest")</f>
+        <v>920099</v>
+      </c>
+      <c r="C37" s="1">
+        <f>_xll.xlquoteCOT(I37,"NoncommercialLong")-_xll.xlquoteCOT(I37,"NoncommercialShort")</f>
+        <v>81979</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="0"/>
-        <v>3.5935503282457919E-2</v>
+        <v>8.9098020973829989E-2</v>
       </c>
       <c r="E37" s="1" cm="1">
         <f t="array" ref="E37">_xll.xlquoteCOT(I37,"noncommercial_commercial")</f>
@@ -1917,29 +1915,29 @@
         <f t="array" ref="F37">_xll.xlquoteCOT(I37,"change_noncommercial_commercial")</f>
         <v>2328</v>
       </c>
-      <c r="G37" s="1" cm="1">
-        <f t="array" ref="G37">_xll.xlquoteCOT(I37,"nonreportable_net")</f>
-        <v>1956</v>
+      <c r="G37" s="1">
+        <f>_xll.xlquoteCOT(I37,"NonreportableLong")-_xll.xlquoteCOT(I37,"NonreportableShort")</f>
+        <v>31661</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="1" cm="1">
-        <f t="array" ref="B38">_xll.xlquoteCOT(I38,"open_interest")</f>
-        <v>227732</v>
-      </c>
-      <c r="C38" s="1" cm="1">
-        <f t="array" ref="C38">_xll.xlquoteCOT(I38,"noncommercial_net")</f>
-        <v>37221</v>
+      <c r="B38" s="1">
+        <f>_xll.xlquoteCOT(I38,"OpenInterest")</f>
+        <v>298438</v>
+      </c>
+      <c r="C38" s="1">
+        <f>_xll.xlquoteCOT(I38,"NoncommercialLong")-_xll.xlquoteCOT(I38,"NoncommercialShort")</f>
+        <v>-12064</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="0"/>
-        <v>0.16344211617164034</v>
+        <v>-4.0423806619800426E-2</v>
       </c>
       <c r="E38" s="1" cm="1">
         <f t="array" ref="E38">_xll.xlquoteCOT(I38,"noncommercial_commercial")</f>
@@ -1949,29 +1947,29 @@
         <f t="array" ref="F38">_xll.xlquoteCOT(I38,"change_noncommercial_commercial")</f>
         <v>9784</v>
       </c>
-      <c r="G38" s="1" cm="1">
-        <f t="array" ref="G38">_xll.xlquoteCOT(I38,"nonreportable_net")</f>
-        <v>1650</v>
+      <c r="G38" s="1">
+        <f>_xll.xlquoteCOT(I38,"NonreportableLong")-_xll.xlquoteCOT(I38,"NonreportableShort")</f>
+        <v>3424</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="1" cm="1">
-        <f t="array" ref="B39">_xll.xlquoteCOT(I39,"open_interest")</f>
-        <v>22410</v>
-      </c>
-      <c r="C39" s="1" cm="1">
-        <f t="array" ref="C39">_xll.xlquoteCOT(I39,"noncommercial_net")</f>
-        <v>6533</v>
+      <c r="B39" s="1">
+        <f>_xll.xlquoteCOT(I39,"OpenInterest")</f>
+        <v>24098</v>
+      </c>
+      <c r="C39" s="1">
+        <f>_xll.xlquoteCOT(I39,"NoncommercialLong")-_xll.xlquoteCOT(I39,"NoncommercialShort")</f>
+        <v>2755</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="0"/>
-        <v>0.29152164212405174</v>
+        <v>0.1143248402357042</v>
       </c>
       <c r="E39" s="1" cm="1">
         <f t="array" ref="E39">_xll.xlquoteCOT(I39,"noncommercial_commercial")</f>
@@ -1981,29 +1979,29 @@
         <f t="array" ref="F39">_xll.xlquoteCOT(I39,"change_noncommercial_commercial")</f>
         <v>1559</v>
       </c>
-      <c r="G39" s="1" cm="1">
-        <f t="array" ref="G39">_xll.xlquoteCOT(I39,"nonreportable_net")</f>
-        <v>-1661</v>
+      <c r="G39" s="1">
+        <f>_xll.xlquoteCOT(I39,"NonreportableLong")-_xll.xlquoteCOT(I39,"NonreportableShort")</f>
+        <v>-976</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="1" cm="1">
-        <f t="array" ref="B40">_xll.xlquoteCOT(I40,"open_interest")</f>
-        <v>280797</v>
-      </c>
-      <c r="C40" s="1" cm="1">
-        <f t="array" ref="C40">_xll.xlquoteCOT(I40,"noncommercial_net")</f>
-        <v>61175</v>
+      <c r="B40" s="1">
+        <f>_xll.xlquoteCOT(I40,"OpenInterest")</f>
+        <v>252403</v>
+      </c>
+      <c r="C40" s="1">
+        <f>_xll.xlquoteCOT(I40,"NoncommercialLong")-_xll.xlquoteCOT(I40,"NoncommercialShort")</f>
+        <v>48476</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="0"/>
-        <v>0.21786201419530835</v>
+        <v>0.192057939089472</v>
       </c>
       <c r="E40" s="1" cm="1">
         <f t="array" ref="E40">_xll.xlquoteCOT(I40,"noncommercial_commercial")</f>
@@ -2013,29 +2011,29 @@
         <f t="array" ref="F40">_xll.xlquoteCOT(I40,"change_noncommercial_commercial")</f>
         <v>-23590</v>
       </c>
-      <c r="G40" s="1" cm="1">
-        <f t="array" ref="G40">_xll.xlquoteCOT(I40,"nonreportable_net")</f>
-        <v>-9901</v>
+      <c r="G40" s="1">
+        <f>_xll.xlquoteCOT(I40,"NonreportableLong")-_xll.xlquoteCOT(I40,"NonreportableShort")</f>
+        <v>-11442</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="1" cm="1">
-        <f t="array" ref="B41">_xll.xlquoteCOT(I41,"open_interest")</f>
-        <v>335752</v>
-      </c>
-      <c r="C41" s="1" cm="1">
-        <f t="array" ref="C41">_xll.xlquoteCOT(I41,"noncommercial_net")</f>
-        <v>84187</v>
+      <c r="B41" s="1">
+        <f>_xll.xlquoteCOT(I41,"OpenInterest")</f>
+        <v>351835</v>
+      </c>
+      <c r="C41" s="1">
+        <f>_xll.xlquoteCOT(I41,"NoncommercialLong")-_xll.xlquoteCOT(I41,"NoncommercialShort")</f>
+        <v>78709</v>
       </c>
       <c r="D41" s="6">
         <f t="shared" si="0"/>
-        <v>0.25074161881388646</v>
+        <v>0.22370997768840509</v>
       </c>
       <c r="E41" s="1" cm="1">
         <f t="array" ref="E41">_xll.xlquoteCOT(I41,"noncommercial_commercial")</f>
@@ -2045,29 +2043,29 @@
         <f t="array" ref="F41">_xll.xlquoteCOT(I41,"change_noncommercial_commercial")</f>
         <v>3730</v>
       </c>
-      <c r="G41" s="1" cm="1">
-        <f t="array" ref="G41">_xll.xlquoteCOT(I41,"nonreportable_net")</f>
-        <v>-5605</v>
+      <c r="G41" s="1">
+        <f>_xll.xlquoteCOT(I41,"NonreportableLong")-_xll.xlquoteCOT(I41,"NonreportableShort")</f>
+        <v>-4658</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="1" cm="1">
-        <f t="array" ref="B42">_xll.xlquoteCOT(I42,"open_interest")</f>
-        <v>2488</v>
-      </c>
-      <c r="C42" s="1" cm="1">
-        <f t="array" ref="C42">_xll.xlquoteCOT(I42,"noncommercial_net")</f>
-        <v>-1107</v>
+      <c r="B42" s="1">
+        <f>_xll.xlquoteCOT(I42,"OpenInterest")</f>
+        <v>2067</v>
+      </c>
+      <c r="C42" s="1">
+        <f>_xll.xlquoteCOT(I42,"NoncommercialLong")-_xll.xlquoteCOT(I42,"NoncommercialShort")</f>
+        <v>-1056</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="0"/>
-        <v>-0.444935691318328</v>
+        <v>-0.51088534107402028</v>
       </c>
       <c r="E42" s="1" cm="1">
         <f t="array" ref="E42">_xll.xlquoteCOT(I42,"noncommercial_commercial")</f>
@@ -2077,29 +2075,29 @@
         <f t="array" ref="F42">_xll.xlquoteCOT(I42,"change_noncommercial_commercial")</f>
         <v>-348</v>
       </c>
-      <c r="G42" s="1" cm="1">
-        <f t="array" ref="G42">_xll.xlquoteCOT(I42,"nonreportable_net")</f>
-        <v>204</v>
+      <c r="G42" s="1">
+        <f>_xll.xlquoteCOT(I42,"NonreportableLong")-_xll.xlquoteCOT(I42,"NonreportableShort")</f>
+        <v>247</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="1" cm="1">
-        <f t="array" ref="B43">_xll.xlquoteCOT(I43,"open_interest")</f>
-        <v>58468</v>
-      </c>
-      <c r="C43" s="1" cm="1">
-        <f t="array" ref="C43">_xll.xlquoteCOT(I43,"noncommercial_net")</f>
-        <v>628</v>
+      <c r="B43" s="1">
+        <f>_xll.xlquoteCOT(I43,"OpenInterest")</f>
+        <v>58681</v>
+      </c>
+      <c r="C43" s="1">
+        <f>_xll.xlquoteCOT(I43,"NoncommercialLong")-_xll.xlquoteCOT(I43,"NoncommercialShort")</f>
+        <v>-7233</v>
       </c>
       <c r="D43" s="6">
         <f t="shared" si="0"/>
-        <v>1.0740918109051105E-2</v>
+        <v>-0.12325965815170158</v>
       </c>
       <c r="E43" s="1" cm="1">
         <f t="array" ref="E43">_xll.xlquoteCOT(I43,"noncommercial_commercial")</f>
@@ -2109,29 +2107,29 @@
         <f t="array" ref="F43">_xll.xlquoteCOT(I43,"change_noncommercial_commercial")</f>
         <v>-3451</v>
       </c>
-      <c r="G43" s="1" cm="1">
-        <f t="array" ref="G43">_xll.xlquoteCOT(I43,"nonreportable_net")</f>
-        <v>-6495</v>
+      <c r="G43" s="1">
+        <f>_xll.xlquoteCOT(I43,"NonreportableLong")-_xll.xlquoteCOT(I43,"NonreportableShort")</f>
+        <v>-810</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="1" cm="1">
-        <f t="array" ref="B44">_xll.xlquoteCOT(I44,"open_interest")</f>
-        <v>31751</v>
-      </c>
-      <c r="C44" s="1" cm="1">
-        <f t="array" ref="C44">_xll.xlquoteCOT(I44,"noncommercial_net")</f>
-        <v>-6524</v>
+      <c r="B44" s="1">
+        <f>_xll.xlquoteCOT(I44,"OpenInterest")</f>
+        <v>25852</v>
+      </c>
+      <c r="C44" s="1">
+        <f>_xll.xlquoteCOT(I44,"NoncommercialLong")-_xll.xlquoteCOT(I44,"NoncommercialShort")</f>
+        <v>-4812</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="0"/>
-        <v>-0.20547384334351673</v>
+        <v>-0.18613646913198206</v>
       </c>
       <c r="E44" s="1" cm="1">
         <f t="array" ref="E44">_xll.xlquoteCOT(I44,"noncommercial_commercial")</f>
@@ -2141,29 +2139,29 @@
         <f t="array" ref="F44">_xll.xlquoteCOT(I44,"change_noncommercial_commercial")</f>
         <v>57</v>
       </c>
-      <c r="G44" s="1" cm="1">
-        <f t="array" ref="G44">_xll.xlquoteCOT(I44,"nonreportable_net")</f>
-        <v>-169</v>
+      <c r="G44" s="1">
+        <f>_xll.xlquoteCOT(I44,"NonreportableLong")-_xll.xlquoteCOT(I44,"NonreportableShort")</f>
+        <v>130</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="1" cm="1">
-        <f t="array" ref="B45">_xll.xlquoteCOT(I45,"open_interest")</f>
-        <v>57757</v>
-      </c>
-      <c r="C45" s="1" cm="1">
-        <f t="array" ref="C45">_xll.xlquoteCOT(I45,"noncommercial_net")</f>
-        <v>35119</v>
+      <c r="B45" s="1">
+        <f>_xll.xlquoteCOT(I45,"OpenInterest")</f>
+        <v>56428</v>
+      </c>
+      <c r="C45" s="1">
+        <f>_xll.xlquoteCOT(I45,"NoncommercialLong")-_xll.xlquoteCOT(I45,"NoncommercialShort")</f>
+        <v>30151</v>
       </c>
       <c r="D45" s="6">
         <f t="shared" si="0"/>
-        <v>0.60804750939280083</v>
+        <v>0.53432692989296093</v>
       </c>
       <c r="E45" s="1" cm="1">
         <f t="array" ref="E45">_xll.xlquoteCOT(I45,"noncommercial_commercial")</f>
@@ -2173,29 +2171,29 @@
         <f t="array" ref="F45">_xll.xlquoteCOT(I45,"change_noncommercial_commercial")</f>
         <v>-5905</v>
       </c>
-      <c r="G45" s="1" cm="1">
-        <f t="array" ref="G45">_xll.xlquoteCOT(I45,"nonreportable_net")</f>
-        <v>2501</v>
+      <c r="G45" s="1">
+        <f>_xll.xlquoteCOT(I45,"NonreportableLong")-_xll.xlquoteCOT(I45,"NonreportableShort")</f>
+        <v>3671</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="1" cm="1">
-        <f t="array" ref="B46">_xll.xlquoteCOT(I46,"open_interest")</f>
-        <v>799141</v>
-      </c>
-      <c r="C46" s="1" cm="1">
-        <f t="array" ref="C46">_xll.xlquoteCOT(I46,"noncommercial_net")</f>
-        <v>-45045</v>
+      <c r="B46" s="1">
+        <f>_xll.xlquoteCOT(I46,"OpenInterest")</f>
+        <v>770108</v>
+      </c>
+      <c r="C46" s="1">
+        <f>_xll.xlquoteCOT(I46,"NoncommercialLong")-_xll.xlquoteCOT(I46,"NoncommercialShort")</f>
+        <v>119853</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" si="0"/>
-        <v>-5.636677382339287E-2</v>
+        <v>0.1556314179309915</v>
       </c>
       <c r="E46" s="1" cm="1">
         <f t="array" ref="E46">_xll.xlquoteCOT(I46,"noncommercial_commercial")</f>
@@ -2205,29 +2203,29 @@
         <f t="array" ref="F46">_xll.xlquoteCOT(I46,"change_noncommercial_commercial")</f>
         <v>-8047</v>
       </c>
-      <c r="G46" s="1" cm="1">
-        <f t="array" ref="G46">_xll.xlquoteCOT(I46,"nonreportable_net")</f>
-        <v>18001</v>
+      <c r="G46" s="1">
+        <f>_xll.xlquoteCOT(I46,"NonreportableLong")-_xll.xlquoteCOT(I46,"NonreportableShort")</f>
+        <v>24028</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="1" cm="1">
-        <f t="array" ref="B47">_xll.xlquoteCOT(I47,"open_interest")</f>
-        <v>286303</v>
-      </c>
-      <c r="C47" s="1" cm="1">
-        <f t="array" ref="C47">_xll.xlquoteCOT(I47,"noncommercial_net")</f>
-        <v>-27866</v>
+      <c r="B47" s="1">
+        <f>_xll.xlquoteCOT(I47,"OpenInterest")</f>
+        <v>269886</v>
+      </c>
+      <c r="C47" s="1">
+        <f>_xll.xlquoteCOT(I47,"NoncommercialLong")-_xll.xlquoteCOT(I47,"NoncommercialShort")</f>
+        <v>-39361</v>
       </c>
       <c r="D47" s="6">
         <f t="shared" si="0"/>
-        <v>-9.7330450606525259E-2</v>
+        <v>-0.14584305966222774</v>
       </c>
       <c r="E47" s="1" cm="1">
         <f t="array" ref="E47">_xll.xlquoteCOT(I47,"noncommercial_commercial")</f>
@@ -2237,29 +2235,29 @@
         <f t="array" ref="F47">_xll.xlquoteCOT(I47,"change_noncommercial_commercial")</f>
         <v>1229</v>
       </c>
-      <c r="G47" s="1" cm="1">
-        <f t="array" ref="G47">_xll.xlquoteCOT(I47,"nonreportable_net")</f>
-        <v>-20888</v>
+      <c r="G47" s="1">
+        <f>_xll.xlquoteCOT(I47,"NonreportableLong")-_xll.xlquoteCOT(I47,"NonreportableShort")</f>
+        <v>-17129</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="1" cm="1">
-        <f t="array" ref="B48">_xll.xlquoteCOT(I48,"open_interest")</f>
-        <v>268485</v>
-      </c>
-      <c r="C48" s="1" cm="1">
-        <f t="array" ref="C48">_xll.xlquoteCOT(I48,"noncommercial_net")</f>
-        <v>-38639</v>
+      <c r="B48" s="1">
+        <f>_xll.xlquoteCOT(I48,"OpenInterest")</f>
+        <v>273288</v>
+      </c>
+      <c r="C48" s="1">
+        <f>_xll.xlquoteCOT(I48,"NoncommercialLong")-_xll.xlquoteCOT(I48,"NoncommercialShort")</f>
+        <v>-73501</v>
       </c>
       <c r="D48" s="6">
         <f t="shared" si="0"/>
-        <v>-0.14391493007058123</v>
+        <v>-0.26895070401920318</v>
       </c>
       <c r="E48" s="1" cm="1">
         <f t="array" ref="E48">_xll.xlquoteCOT(I48,"noncommercial_commercial")</f>
@@ -2269,29 +2267,29 @@
         <f t="array" ref="F48">_xll.xlquoteCOT(I48,"change_noncommercial_commercial")</f>
         <v>-19737</v>
       </c>
-      <c r="G48" s="1" cm="1">
-        <f t="array" ref="G48">_xll.xlquoteCOT(I48,"nonreportable_net")</f>
-        <v>-13365</v>
+      <c r="G48" s="1">
+        <f>_xll.xlquoteCOT(I48,"NonreportableLong")-_xll.xlquoteCOT(I48,"NonreportableShort")</f>
+        <v>-13173</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="1" cm="1">
-        <f t="array" ref="B49">_xll.xlquoteCOT(I49,"open_interest")</f>
-        <v>14319</v>
-      </c>
-      <c r="C49" s="1" cm="1">
-        <f t="array" ref="C49">_xll.xlquoteCOT(I49,"noncommercial_net")</f>
-        <v>729</v>
+      <c r="B49" s="1">
+        <f>_xll.xlquoteCOT(I49,"OpenInterest")</f>
+        <v>15889</v>
+      </c>
+      <c r="C49" s="1">
+        <f>_xll.xlquoteCOT(I49,"NoncommercialLong")-_xll.xlquoteCOT(I49,"NoncommercialShort")</f>
+        <v>-303</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="0"/>
-        <v>5.0911376492771838E-2</v>
+        <v>-1.9069796714708289E-2</v>
       </c>
       <c r="E49" s="1" cm="1">
         <f t="array" ref="E49">_xll.xlquoteCOT(I49,"noncommercial_commercial")</f>
@@ -2301,29 +2299,29 @@
         <f t="array" ref="F49">_xll.xlquoteCOT(I49,"change_noncommercial_commercial")</f>
         <v>1795</v>
       </c>
-      <c r="G49" s="1" cm="1">
-        <f t="array" ref="G49">_xll.xlquoteCOT(I49,"nonreportable_net")</f>
-        <v>236</v>
+      <c r="G49" s="1">
+        <f>_xll.xlquoteCOT(I49,"NonreportableLong")-_xll.xlquoteCOT(I49,"NonreportableShort")</f>
+        <v>423</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="1" cm="1">
-        <f t="array" ref="B50">_xll.xlquoteCOT(I50,"open_interest")</f>
-        <v>3978</v>
-      </c>
-      <c r="C50" s="1" cm="1">
-        <f t="array" ref="C50">_xll.xlquoteCOT(I50,"noncommercial_net")</f>
-        <v>-195</v>
+      <c r="B50" s="1">
+        <f>_xll.xlquoteCOT(I50,"OpenInterest")</f>
+        <v>3397</v>
+      </c>
+      <c r="C50" s="1">
+        <f>_xll.xlquoteCOT(I50,"NoncommercialLong")-_xll.xlquoteCOT(I50,"NoncommercialShort")</f>
+        <v>-404</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="0"/>
-        <v>-4.9019607843137254E-2</v>
+        <v>-0.11892846629378864</v>
       </c>
       <c r="E50" s="1" cm="1">
         <f t="array" ref="E50">_xll.xlquoteCOT(I50,"noncommercial_commercial")</f>
@@ -2333,20 +2331,20 @@
         <f t="array" ref="F50">_xll.xlquoteCOT(I50,"change_noncommercial_commercial")</f>
         <v>422</v>
       </c>
-      <c r="G50" s="1" cm="1">
-        <f t="array" ref="G50">_xll.xlquoteCOT(I50,"nonreportable_net")</f>
-        <v>350</v>
+      <c r="G50" s="1">
+        <f>_xll.xlquoteCOT(I50,"NonreportableLong")-_xll.xlquoteCOT(I50,"NonreportableShort")</f>
+        <v>482</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I52" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{8C6677D1-8F07-4FFA-BE73-6387458157D9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Examples/Commitment of Traders.xlsx
+++ b/Examples/Commitment of Traders.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6A3221-707C-4D36-8C44-056AD1F55FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Futures COT" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="url">"http://localhost:8000/CFTC/"</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -382,7 +384,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -728,24 +730,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.6328125" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" customWidth="1"/>
+    <col min="7" max="7" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.59765625" customWidth="1"/>
+    <col min="9" max="9" width="9.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -771,7 +773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -779,8 +781,8 @@
         <f>_xll.xlquoteCOT(I2,"OpenInterest")</f>
         <v>687289</v>
       </c>
-      <c r="C2" s="1">
-        <f>_xll.xlquoteCOT(I2,"NoncommercialLong")-_xll.xlquoteCOT(I2,"NoncommercialShort")</f>
+      <c r="C2" s="1" cm="1">
+        <f t="array" ref="C2">_xll.xlquoteCOT(I2,"NoncommercialNet")</f>
         <v>-29094</v>
       </c>
       <c r="D2" s="6">
@@ -788,22 +790,22 @@
         <v>-4.2331537388202049E-2</v>
       </c>
       <c r="E2" s="1" cm="1">
-        <f t="array" ref="E2">_xll.xlquoteCOT(I2,"noncommercial_commercial")</f>
-        <v>-102951</v>
+        <f t="array" ref="E2">_xll.xlquoteCOT(I2,"Noncommercial-Commercial")</f>
+        <v>-62640</v>
       </c>
       <c r="F2" s="1" cm="1">
-        <f t="array" ref="F2">_xll.xlquoteCOT(I2,"change_noncommercial_commercial")</f>
-        <v>16486</v>
-      </c>
-      <c r="G2" s="1">
-        <f>_xll.xlquoteCOT(I2,"NonreportableLong")-_xll.xlquoteCOT(I2,"NonreportableShort")</f>
+        <f t="array" ref="F2">_xll.xlquoteCOT(I2,"Noncommercial-CommercialChange")</f>
+        <v>-2268</v>
+      </c>
+      <c r="G2" s="1" cm="1">
+        <f t="array" ref="G2">_xll.xlquoteCOT(I2,"NonreportableNet")</f>
         <v>-4453</v>
       </c>
       <c r="I2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -811,8 +813,8 @@
         <f>_xll.xlquoteCOT(I3,"OpenInterest")</f>
         <v>3436443</v>
       </c>
-      <c r="C3" s="1">
-        <f>_xll.xlquoteCOT(I3,"NoncommercialLong")-_xll.xlquoteCOT(I3,"NoncommercialShort")</f>
+      <c r="C3" s="1" cm="1">
+        <f t="array" ref="C3">_xll.xlquoteCOT(I3,"NoncommercialNet")</f>
         <v>-145469</v>
       </c>
       <c r="D3" s="6">
@@ -820,22 +822,22 @@
         <v>-4.2331271026465445E-2</v>
       </c>
       <c r="E3" s="1" cm="1">
-        <f t="array" ref="E3">_xll.xlquoteCOT(I3,"noncommercial_commercial")</f>
-        <v>-514756</v>
+        <f t="array" ref="E3">_xll.xlquoteCOT(I3,"Noncommercial-Commercial")</f>
+        <v>-313202</v>
       </c>
       <c r="F3" s="1" cm="1">
-        <f t="array" ref="F3">_xll.xlquoteCOT(I3,"change_noncommercial_commercial")</f>
-        <v>82434</v>
-      </c>
-      <c r="G3" s="1">
-        <f>_xll.xlquoteCOT(I3,"NonreportableLong")-_xll.xlquoteCOT(I3,"NonreportableShort")</f>
+        <f t="array" ref="F3">_xll.xlquoteCOT(I3,"Noncommercial-CommercialChange")</f>
+        <v>-11340</v>
+      </c>
+      <c r="G3" s="1" cm="1">
+        <f t="array" ref="G3">_xll.xlquoteCOT(I3,"NonreportableNet")</f>
         <v>-22263</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -843,8 +845,8 @@
         <f>_xll.xlquoteCOT(I4,"OpenInterest")</f>
         <v>204177</v>
       </c>
-      <c r="C4" s="1">
-        <f>_xll.xlquoteCOT(I4,"NoncommercialLong")-_xll.xlquoteCOT(I4,"NoncommercialShort")</f>
+      <c r="C4" s="1" cm="1">
+        <f t="array" ref="C4">_xll.xlquoteCOT(I4,"NoncommercialNet")</f>
         <v>9288</v>
       </c>
       <c r="D4" s="6">
@@ -852,22 +854,22 @@
         <v>4.5489942549846459E-2</v>
       </c>
       <c r="E4" s="1" cm="1">
-        <f t="array" ref="E4">_xll.xlquoteCOT(I4,"noncommercial_commercial")</f>
-        <v>-129708</v>
+        <f t="array" ref="E4">_xll.xlquoteCOT(I4,"Noncommercial-Commercial")</f>
+        <v>-29062</v>
       </c>
       <c r="F4" s="1" cm="1">
-        <f t="array" ref="F4">_xll.xlquoteCOT(I4,"change_noncommercial_commercial")</f>
-        <v>-37022</v>
-      </c>
-      <c r="G4" s="1">
-        <f>_xll.xlquoteCOT(I4,"NonreportableLong")-_xll.xlquoteCOT(I4,"NonreportableShort")</f>
+        <f t="array" ref="F4">_xll.xlquoteCOT(I4,"Noncommercial-CommercialChange")</f>
+        <v>-30236</v>
+      </c>
+      <c r="G4" s="1" cm="1">
+        <f t="array" ref="G4">_xll.xlquoteCOT(I4,"NonreportableNet")</f>
         <v>-47638</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -875,8 +877,8 @@
         <f>_xll.xlquoteCOT(I5,"OpenInterest")</f>
         <v>39071</v>
       </c>
-      <c r="C5" s="1">
-        <f>_xll.xlquoteCOT(I5,"NoncommercialLong")-_xll.xlquoteCOT(I5,"NoncommercialShort")</f>
+      <c r="C5" s="1" cm="1">
+        <f t="array" ref="C5">_xll.xlquoteCOT(I5,"NoncommercialNet")</f>
         <v>-4172</v>
       </c>
       <c r="D5" s="6">
@@ -884,22 +886,22 @@
         <v>-0.1067799646796857</v>
       </c>
       <c r="E5" s="1" cm="1">
-        <f t="array" ref="E5">_xll.xlquoteCOT(I5,"noncommercial_commercial")</f>
-        <v>-4767</v>
+        <f t="array" ref="E5">_xll.xlquoteCOT(I5,"Noncommercial-Commercial")</f>
+        <v>-12089</v>
       </c>
       <c r="F5" s="1" cm="1">
-        <f t="array" ref="F5">_xll.xlquoteCOT(I5,"change_noncommercial_commercial")</f>
-        <v>3464</v>
-      </c>
-      <c r="G5" s="1">
-        <f>_xll.xlquoteCOT(I5,"NonreportableLong")-_xll.xlquoteCOT(I5,"NonreportableShort")</f>
+        <f t="array" ref="F5">_xll.xlquoteCOT(I5,"Noncommercial-CommercialChange")</f>
+        <v>170</v>
+      </c>
+      <c r="G5" s="1" cm="1">
+        <f t="array" ref="G5">_xll.xlquoteCOT(I5,"NonreportableNet")</f>
         <v>-3746</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -907,8 +909,8 @@
         <f>_xll.xlquoteCOT(I6,"OpenInterest")</f>
         <v>78143</v>
       </c>
-      <c r="C6" s="1">
-        <f>_xll.xlquoteCOT(I6,"NoncommercialLong")-_xll.xlquoteCOT(I6,"NoncommercialShort")</f>
+      <c r="C6" s="1" cm="1">
+        <f t="array" ref="C6">_xll.xlquoteCOT(I6,"NoncommercialNet")</f>
         <v>-8344</v>
       </c>
       <c r="D6" s="6">
@@ -916,22 +918,22 @@
         <v>-0.10677859821097219</v>
       </c>
       <c r="E6" s="1" cm="1">
-        <f t="array" ref="E6">_xll.xlquoteCOT(I6,"noncommercial_commercial")</f>
-        <v>-9533</v>
+        <f t="array" ref="E6">_xll.xlquoteCOT(I6,"Noncommercial-Commercial")</f>
+        <v>-24179</v>
       </c>
       <c r="F6" s="1" cm="1">
-        <f t="array" ref="F6">_xll.xlquoteCOT(I6,"change_noncommercial_commercial")</f>
-        <v>6929</v>
-      </c>
-      <c r="G6" s="1">
-        <f>_xll.xlquoteCOT(I6,"NonreportableLong")-_xll.xlquoteCOT(I6,"NonreportableShort")</f>
+        <f t="array" ref="F6">_xll.xlquoteCOT(I6,"Noncommercial-CommercialChange")</f>
+        <v>340</v>
+      </c>
+      <c r="G6" s="1" cm="1">
+        <f t="array" ref="G6">_xll.xlquoteCOT(I6,"NonreportableNet")</f>
         <v>-7491</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -939,8 +941,8 @@
         <f>_xll.xlquoteCOT(I7,"OpenInterest")</f>
         <v>66505</v>
       </c>
-      <c r="C7" s="1">
-        <f>_xll.xlquoteCOT(I7,"NoncommercialLong")-_xll.xlquoteCOT(I7,"NoncommercialShort")</f>
+      <c r="C7" s="1" cm="1">
+        <f t="array" ref="C7">_xll.xlquoteCOT(I7,"NoncommercialNet")</f>
         <v>-132</v>
       </c>
       <c r="D7" s="6">
@@ -948,22 +950,22 @@
         <v>-1.9848131719419591E-3</v>
       </c>
       <c r="E7" s="1" cm="1">
-        <f t="array" ref="E7">_xll.xlquoteCOT(I7,"noncommercial_commercial")</f>
-        <v>9929</v>
+        <f t="array" ref="E7">_xll.xlquoteCOT(I7,"Noncommercial-Commercial")</f>
+        <v>-3127</v>
       </c>
       <c r="F7" s="1" cm="1">
-        <f t="array" ref="F7">_xll.xlquoteCOT(I7,"change_noncommercial_commercial")</f>
-        <v>12719</v>
-      </c>
-      <c r="G7" s="1">
-        <f>_xll.xlquoteCOT(I7,"NonreportableLong")-_xll.xlquoteCOT(I7,"NonreportableShort")</f>
+        <f t="array" ref="F7">_xll.xlquoteCOT(I7,"Noncommercial-CommercialChange")</f>
+        <v>4940</v>
+      </c>
+      <c r="G7" s="1" cm="1">
+        <f t="array" ref="G7">_xll.xlquoteCOT(I7,"NonreportableNet")</f>
         <v>-2862</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -971,8 +973,8 @@
         <f>_xll.xlquoteCOT(I8,"OpenInterest")</f>
         <v>332524</v>
       </c>
-      <c r="C8" s="1">
-        <f>_xll.xlquoteCOT(I8,"NoncommercialLong")-_xll.xlquoteCOT(I8,"NoncommercialShort")</f>
+      <c r="C8" s="1" cm="1">
+        <f t="array" ref="C8">_xll.xlquoteCOT(I8,"NoncommercialNet")</f>
         <v>-660</v>
       </c>
       <c r="D8" s="6">
@@ -980,22 +982,22 @@
         <v>-1.9848191408740421E-3</v>
       </c>
       <c r="E8" s="1" cm="1">
-        <f t="array" ref="E8">_xll.xlquoteCOT(I8,"noncommercial_commercial")</f>
-        <v>49645</v>
+        <f t="array" ref="E8">_xll.xlquoteCOT(I8,"Noncommercial-Commercial")</f>
+        <v>-15631</v>
       </c>
       <c r="F8" s="1" cm="1">
-        <f t="array" ref="F8">_xll.xlquoteCOT(I8,"change_noncommercial_commercial")</f>
-        <v>63594</v>
-      </c>
-      <c r="G8" s="1">
-        <f>_xll.xlquoteCOT(I8,"NonreportableLong")-_xll.xlquoteCOT(I8,"NonreportableShort")</f>
+        <f t="array" ref="F8">_xll.xlquoteCOT(I8,"Noncommercial-CommercialChange")</f>
+        <v>24699</v>
+      </c>
+      <c r="G8" s="1" cm="1">
+        <f t="array" ref="G8">_xll.xlquoteCOT(I8,"NonreportableNet")</f>
         <v>-14311</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1003,8 +1005,8 @@
         <f>_xll.xlquoteCOT(I9,"OpenInterest")</f>
         <v>131558</v>
       </c>
-      <c r="C9" s="1">
-        <f>_xll.xlquoteCOT(I9,"NoncommercialLong")-_xll.xlquoteCOT(I9,"NoncommercialShort")</f>
+      <c r="C9" s="1" cm="1">
+        <f t="array" ref="C9">_xll.xlquoteCOT(I9,"NoncommercialNet")</f>
         <v>-69107</v>
       </c>
       <c r="D9" s="6">
@@ -1012,22 +1014,22 @@
         <v>-0.52529682725489901</v>
       </c>
       <c r="E9" s="1" cm="1">
-        <f t="array" ref="E9">_xll.xlquoteCOT(I9,"noncommercial_commercial")</f>
-        <v>-29305</v>
+        <f t="array" ref="E9">_xll.xlquoteCOT(I9,"Noncommercial-Commercial")</f>
+        <v>-65955</v>
       </c>
       <c r="F9" s="1" cm="1">
-        <f t="array" ref="F9">_xll.xlquoteCOT(I9,"change_noncommercial_commercial")</f>
-        <v>-17725</v>
-      </c>
-      <c r="G9" s="1">
-        <f>_xll.xlquoteCOT(I9,"NonreportableLong")-_xll.xlquoteCOT(I9,"NonreportableShort")</f>
+        <f t="array" ref="F9">_xll.xlquoteCOT(I9,"Noncommercial-CommercialChange")</f>
+        <v>29468</v>
+      </c>
+      <c r="G9" s="1" cm="1">
+        <f t="array" ref="G9">_xll.xlquoteCOT(I9,"NonreportableNet")</f>
         <v>72259</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1035,8 +1037,8 @@
         <f>_xll.xlquoteCOT(I10,"OpenInterest")</f>
         <v>506345</v>
       </c>
-      <c r="C10" s="1">
-        <f>_xll.xlquoteCOT(I10,"NoncommercialLong")-_xll.xlquoteCOT(I10,"NoncommercialShort")</f>
+      <c r="C10" s="1" cm="1">
+        <f t="array" ref="C10">_xll.xlquoteCOT(I10,"NoncommercialNet")</f>
         <v>-61412</v>
       </c>
       <c r="D10" s="6">
@@ -1044,22 +1046,22 @@
         <v>-0.12128489468642921</v>
       </c>
       <c r="E10" s="1" cm="1">
-        <f t="array" ref="E10">_xll.xlquoteCOT(I10,"noncommercial_commercial")</f>
-        <v>-195082</v>
+        <f t="array" ref="E10">_xll.xlquoteCOT(I10,"Noncommercial-Commercial")</f>
+        <v>-119341</v>
       </c>
       <c r="F10" s="1" cm="1">
-        <f t="array" ref="F10">_xll.xlquoteCOT(I10,"change_noncommercial_commercial")</f>
-        <v>41112</v>
-      </c>
-      <c r="G10" s="1">
-        <f>_xll.xlquoteCOT(I10,"NonreportableLong")-_xll.xlquoteCOT(I10,"NonreportableShort")</f>
+        <f t="array" ref="F10">_xll.xlquoteCOT(I10,"Noncommercial-CommercialChange")</f>
+        <v>-27448</v>
+      </c>
+      <c r="G10" s="1" cm="1">
+        <f t="array" ref="G10">_xll.xlquoteCOT(I10,"NonreportableNet")</f>
         <v>3484</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1067,8 +1069,8 @@
         <f>_xll.xlquoteCOT(I11,"OpenInterest")</f>
         <v>333031</v>
       </c>
-      <c r="C11" s="1">
-        <f>_xll.xlquoteCOT(I11,"NoncommercialLong")-_xll.xlquoteCOT(I11,"NoncommercialShort")</f>
+      <c r="C11" s="1" cm="1">
+        <f t="array" ref="C11">_xll.xlquoteCOT(I11,"NoncommercialNet")</f>
         <v>-75230</v>
       </c>
       <c r="D11" s="6">
@@ -1076,22 +1078,22 @@
         <v>-0.22589488666220262</v>
       </c>
       <c r="E11" s="1" cm="1">
-        <f t="array" ref="E11">_xll.xlquoteCOT(I11,"noncommercial_commercial")</f>
-        <v>-214543</v>
+        <f t="array" ref="E11">_xll.xlquoteCOT(I11,"Noncommercial-Commercial")</f>
+        <v>-157672</v>
       </c>
       <c r="F11" s="1" cm="1">
-        <f t="array" ref="F11">_xll.xlquoteCOT(I11,"change_noncommercial_commercial")</f>
-        <v>-7105</v>
-      </c>
-      <c r="G11" s="1">
-        <f>_xll.xlquoteCOT(I11,"NonreportableLong")-_xll.xlquoteCOT(I11,"NonreportableShort")</f>
+        <f t="array" ref="F11">_xll.xlquoteCOT(I11,"Noncommercial-CommercialChange")</f>
+        <v>-24181</v>
+      </c>
+      <c r="G11" s="1" cm="1">
+        <f t="array" ref="G11">_xll.xlquoteCOT(I11,"NonreportableNet")</f>
         <v>-7212</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1099,8 +1101,8 @@
         <f>_xll.xlquoteCOT(I12,"OpenInterest")</f>
         <v>14692346</v>
       </c>
-      <c r="C12" s="1">
-        <f>_xll.xlquoteCOT(I12,"NoncommercialLong")-_xll.xlquoteCOT(I12,"NoncommercialShort")</f>
+      <c r="C12" s="1" cm="1">
+        <f t="array" ref="C12">_xll.xlquoteCOT(I12,"NoncommercialNet")</f>
         <v>-560251</v>
       </c>
       <c r="D12" s="6">
@@ -1108,22 +1110,22 @@
         <v>-3.8132167592568267E-2</v>
       </c>
       <c r="E12" s="1" cm="1">
-        <f t="array" ref="E12">_xll.xlquoteCOT(I12,"noncommercial_commercial")</f>
-        <v>-2543995</v>
+        <f t="array" ref="E12">_xll.xlquoteCOT(I12,"Noncommercial-Commercial")</f>
+        <v>-1407472</v>
       </c>
       <c r="F12" s="1" cm="1">
-        <f t="array" ref="F12">_xll.xlquoteCOT(I12,"change_noncommercial_commercial")</f>
-        <v>159213</v>
-      </c>
-      <c r="G12" s="1">
-        <f>_xll.xlquoteCOT(I12,"NonreportableLong")-_xll.xlquoteCOT(I12,"NonreportableShort")</f>
+        <f t="array" ref="F12">_xll.xlquoteCOT(I12,"Noncommercial-CommercialChange")</f>
+        <v>-7631</v>
+      </c>
+      <c r="G12" s="1" cm="1">
+        <f t="array" ref="G12">_xll.xlquoteCOT(I12,"NonreportableNet")</f>
         <v>-286971</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1131,8 +1133,8 @@
         <f>_xll.xlquoteCOT(I13,"OpenInterest")</f>
         <v>1492688</v>
       </c>
-      <c r="C13" s="1">
-        <f>_xll.xlquoteCOT(I13,"NoncommercialLong")-_xll.xlquoteCOT(I13,"NoncommercialShort")</f>
+      <c r="C13" s="1" cm="1">
+        <f t="array" ref="C13">_xll.xlquoteCOT(I13,"NoncommercialNet")</f>
         <v>21970</v>
       </c>
       <c r="D13" s="6">
@@ -1140,22 +1142,22 @@
         <v>1.471841402891964E-2</v>
       </c>
       <c r="E13" s="1" cm="1">
-        <f t="array" ref="E13">_xll.xlquoteCOT(I13,"noncommercial_commercial")</f>
-        <v>199356</v>
+        <f t="array" ref="E13">_xll.xlquoteCOT(I13,"Noncommercial-Commercial")</f>
+        <v>35967</v>
       </c>
       <c r="F13" s="1" cm="1">
-        <f t="array" ref="F13">_xll.xlquoteCOT(I13,"change_noncommercial_commercial")</f>
-        <v>17548</v>
-      </c>
-      <c r="G13" s="1">
-        <f>_xll.xlquoteCOT(I13,"NonreportableLong")-_xll.xlquoteCOT(I13,"NonreportableShort")</f>
+        <f t="array" ref="F13">_xll.xlquoteCOT(I13,"Noncommercial-CommercialChange")</f>
+        <v>84139</v>
+      </c>
+      <c r="G13" s="1" cm="1">
+        <f t="array" ref="G13">_xll.xlquoteCOT(I13,"NonreportableNet")</f>
         <v>-7974</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1163,8 +1165,8 @@
         <f>_xll.xlquoteCOT(I14,"OpenInterest")</f>
         <v>13795722</v>
       </c>
-      <c r="C14" s="1">
-        <f>_xll.xlquoteCOT(I14,"NoncommercialLong")-_xll.xlquoteCOT(I14,"NoncommercialShort")</f>
+      <c r="C14" s="1" cm="1">
+        <f t="array" ref="C14">_xll.xlquoteCOT(I14,"NoncommercialNet")</f>
         <v>-313864</v>
       </c>
       <c r="D14" s="6">
@@ -1172,22 +1174,22 @@
         <v>-2.2750820870411855E-2</v>
       </c>
       <c r="E14" s="1" cm="1">
-        <f t="array" ref="E14">_xll.xlquoteCOT(I14,"noncommercial_commercial")</f>
-        <v>-1908790</v>
+        <f t="array" ref="E14">_xll.xlquoteCOT(I14,"Noncommercial-Commercial")</f>
+        <v>-627671</v>
       </c>
       <c r="F14" s="1" cm="1">
-        <f t="array" ref="F14">_xll.xlquoteCOT(I14,"change_noncommercial_commercial")</f>
-        <v>-157681</v>
-      </c>
-      <c r="G14" s="1">
-        <f>_xll.xlquoteCOT(I14,"NonreportableLong")-_xll.xlquoteCOT(I14,"NonreportableShort")</f>
+        <f t="array" ref="F14">_xll.xlquoteCOT(I14,"Noncommercial-CommercialChange")</f>
+        <v>269014</v>
+      </c>
+      <c r="G14" s="1" cm="1">
+        <f t="array" ref="G14">_xll.xlquoteCOT(I14,"NonreportableNet")</f>
         <v>57</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1195,8 +1197,8 @@
         <f>_xll.xlquoteCOT(I15,"OpenInterest")</f>
         <v>2232906</v>
       </c>
-      <c r="C15" s="1">
-        <f>_xll.xlquoteCOT(I15,"NoncommercialLong")-_xll.xlquoteCOT(I15,"NoncommercialShort")</f>
+      <c r="C15" s="1" cm="1">
+        <f t="array" ref="C15">_xll.xlquoteCOT(I15,"NoncommercialNet")</f>
         <v>-486665</v>
       </c>
       <c r="D15" s="6">
@@ -1204,22 +1206,22 @@
         <v>-0.2179514050300371</v>
       </c>
       <c r="E15" s="1" cm="1">
-        <f t="array" ref="E15">_xll.xlquoteCOT(I15,"noncommercial_commercial")</f>
-        <v>-543439</v>
+        <f t="array" ref="E15">_xll.xlquoteCOT(I15,"Noncommercial-Commercial")</f>
+        <v>-995690</v>
       </c>
       <c r="F15" s="1" cm="1">
-        <f t="array" ref="F15">_xll.xlquoteCOT(I15,"change_noncommercial_commercial")</f>
-        <v>-79355</v>
-      </c>
-      <c r="G15" s="1">
-        <f>_xll.xlquoteCOT(I15,"NonreportableLong")-_xll.xlquoteCOT(I15,"NonreportableShort")</f>
+        <f t="array" ref="F15">_xll.xlquoteCOT(I15,"Noncommercial-CommercialChange")</f>
+        <v>-87529</v>
+      </c>
+      <c r="G15" s="1" cm="1">
+        <f t="array" ref="G15">_xll.xlquoteCOT(I15,"NonreportableNet")</f>
         <v>-22360</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1227,8 +1229,8 @@
         <f>_xll.xlquoteCOT(I16,"OpenInterest")</f>
         <v>4815913</v>
       </c>
-      <c r="C16" s="1">
-        <f>_xll.xlquoteCOT(I16,"NoncommercialLong")-_xll.xlquoteCOT(I16,"NoncommercialShort")</f>
+      <c r="C16" s="1" cm="1">
+        <f t="array" ref="C16">_xll.xlquoteCOT(I16,"NoncommercialNet")</f>
         <v>-318940</v>
       </c>
       <c r="D16" s="6">
@@ -1236,22 +1238,22 @@
         <v>-6.6226279419914769E-2</v>
       </c>
       <c r="E16" s="1" cm="1">
-        <f t="array" ref="E16">_xll.xlquoteCOT(I16,"noncommercial_commercial")</f>
-        <v>-759633</v>
+        <f t="array" ref="E16">_xll.xlquoteCOT(I16,"Noncommercial-Commercial")</f>
+        <v>-704605</v>
       </c>
       <c r="F16" s="1" cm="1">
-        <f t="array" ref="F16">_xll.xlquoteCOT(I16,"change_noncommercial_commercial")</f>
-        <v>-86114</v>
-      </c>
-      <c r="G16" s="1">
-        <f>_xll.xlquoteCOT(I16,"NonreportableLong")-_xll.xlquoteCOT(I16,"NonreportableShort")</f>
+        <f t="array" ref="F16">_xll.xlquoteCOT(I16,"Noncommercial-CommercialChange")</f>
+        <v>18275</v>
+      </c>
+      <c r="G16" s="1" cm="1">
+        <f t="array" ref="G16">_xll.xlquoteCOT(I16,"NonreportableNet")</f>
         <v>-66725</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1259,8 +1261,8 @@
         <f>_xll.xlquoteCOT(I17,"OpenInterest")</f>
         <v>1383424</v>
       </c>
-      <c r="C17" s="1">
-        <f>_xll.xlquoteCOT(I17,"NoncommercialLong")-_xll.xlquoteCOT(I17,"NoncommercialShort")</f>
+      <c r="C17" s="1" cm="1">
+        <f t="array" ref="C17">_xll.xlquoteCOT(I17,"NoncommercialNet")</f>
         <v>-76528</v>
       </c>
       <c r="D17" s="6">
@@ -1268,22 +1270,22 @@
         <v>-5.5317820133234642E-2</v>
       </c>
       <c r="E17" s="1" cm="1">
-        <f t="array" ref="E17">_xll.xlquoteCOT(I17,"noncommercial_commercial")</f>
-        <v>-160192</v>
+        <f t="array" ref="E17">_xll.xlquoteCOT(I17,"Noncommercial-Commercial")</f>
+        <v>-229110</v>
       </c>
       <c r="F17" s="1" cm="1">
-        <f t="array" ref="F17">_xll.xlquoteCOT(I17,"change_noncommercial_commercial")</f>
-        <v>32374</v>
-      </c>
-      <c r="G17" s="1">
-        <f>_xll.xlquoteCOT(I17,"NonreportableLong")-_xll.xlquoteCOT(I17,"NonreportableShort")</f>
+        <f t="array" ref="F17">_xll.xlquoteCOT(I17,"Noncommercial-CommercialChange")</f>
+        <v>15433</v>
+      </c>
+      <c r="G17" s="1" cm="1">
+        <f t="array" ref="G17">_xll.xlquoteCOT(I17,"NonreportableNet")</f>
         <v>-76054</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1291,8 +1293,8 @@
         <f>_xll.xlquoteCOT(I18,"OpenInterest")</f>
         <v>57726</v>
       </c>
-      <c r="C18" s="1">
-        <f>_xll.xlquoteCOT(I18,"NoncommercialLong")-_xll.xlquoteCOT(I18,"NoncommercialShort")</f>
+      <c r="C18" s="1" cm="1">
+        <f t="array" ref="C18">_xll.xlquoteCOT(I18,"NoncommercialNet")</f>
         <v>-3439</v>
       </c>
       <c r="D18" s="6">
@@ -1300,22 +1302,22 @@
         <v>-5.9574541800921595E-2</v>
       </c>
       <c r="E18" s="1" cm="1">
-        <f t="array" ref="E18">_xll.xlquoteCOT(I18,"noncommercial_commercial")</f>
-        <v>-25018</v>
+        <f t="array" ref="E18">_xll.xlquoteCOT(I18,"Noncommercial-Commercial")</f>
+        <v>-9236</v>
       </c>
       <c r="F18" s="1" cm="1">
-        <f t="array" ref="F18">_xll.xlquoteCOT(I18,"change_noncommercial_commercial")</f>
-        <v>464</v>
-      </c>
-      <c r="G18" s="1">
-        <f>_xll.xlquoteCOT(I18,"NonreportableLong")-_xll.xlquoteCOT(I18,"NonreportableShort")</f>
+        <f t="array" ref="F18">_xll.xlquoteCOT(I18,"Noncommercial-CommercialChange")</f>
+        <v>2625</v>
+      </c>
+      <c r="G18" s="1" cm="1">
+        <f t="array" ref="G18">_xll.xlquoteCOT(I18,"NonreportableNet")</f>
         <v>-2358</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1323,8 +1325,8 @@
         <f>_xll.xlquoteCOT(I19,"OpenInterest")</f>
         <v>2089842</v>
       </c>
-      <c r="C19" s="1">
-        <f>_xll.xlquoteCOT(I19,"NoncommercialLong")-_xll.xlquoteCOT(I19,"NoncommercialShort")</f>
+      <c r="C19" s="1" cm="1">
+        <f t="array" ref="C19">_xll.xlquoteCOT(I19,"NoncommercialNet")</f>
         <v>302871</v>
       </c>
       <c r="D19" s="6">
@@ -1332,22 +1334,22 @@
         <v>0.14492531014306345</v>
       </c>
       <c r="E19" s="1" cm="1">
-        <f t="array" ref="E19">_xll.xlquoteCOT(I19,"noncommercial_commercial")</f>
-        <v>625230</v>
+        <f t="array" ref="E19">_xll.xlquoteCOT(I19,"Noncommercial-Commercial")</f>
+        <v>639605</v>
       </c>
       <c r="F19" s="1" cm="1">
-        <f t="array" ref="F19">_xll.xlquoteCOT(I19,"change_noncommercial_commercial")</f>
-        <v>43629</v>
-      </c>
-      <c r="G19" s="1">
-        <f>_xll.xlquoteCOT(I19,"NonreportableLong")-_xll.xlquoteCOT(I19,"NonreportableShort")</f>
+        <f t="array" ref="F19">_xll.xlquoteCOT(I19,"Noncommercial-CommercialChange")</f>
+        <v>29353</v>
+      </c>
+      <c r="G19" s="1" cm="1">
+        <f t="array" ref="G19">_xll.xlquoteCOT(I19,"NonreportableNet")</f>
         <v>33864</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1355,8 +1357,8 @@
         <f>_xll.xlquoteCOT(I20,"OpenInterest")</f>
         <v>147145</v>
       </c>
-      <c r="C20" s="1">
-        <f>_xll.xlquoteCOT(I20,"NoncommercialLong")-_xll.xlquoteCOT(I20,"NoncommercialShort")</f>
+      <c r="C20" s="1" cm="1">
+        <f t="array" ref="C20">_xll.xlquoteCOT(I20,"NoncommercialNet")</f>
         <v>35157</v>
       </c>
       <c r="D20" s="6">
@@ -1364,22 +1366,22 @@
         <v>0.23892758843317816</v>
       </c>
       <c r="E20" s="1" cm="1">
-        <f t="array" ref="E20">_xll.xlquoteCOT(I20,"noncommercial_commercial")</f>
-        <v>50729</v>
+        <f t="array" ref="E20">_xll.xlquoteCOT(I20,"Noncommercial-Commercial")</f>
+        <v>64618</v>
       </c>
       <c r="F20" s="1" cm="1">
-        <f t="array" ref="F20">_xll.xlquoteCOT(I20,"change_noncommercial_commercial")</f>
-        <v>-523</v>
-      </c>
-      <c r="G20" s="1">
-        <f>_xll.xlquoteCOT(I20,"NonreportableLong")-_xll.xlquoteCOT(I20,"NonreportableShort")</f>
+        <f t="array" ref="F20">_xll.xlquoteCOT(I20,"Noncommercial-CommercialChange")</f>
+        <v>1166</v>
+      </c>
+      <c r="G20" s="1" cm="1">
+        <f t="array" ref="G20">_xll.xlquoteCOT(I20,"NonreportableNet")</f>
         <v>-5696</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1387,8 +1389,8 @@
         <f>_xll.xlquoteCOT(I21,"OpenInterest")</f>
         <v>145006</v>
       </c>
-      <c r="C21" s="1">
-        <f>_xll.xlquoteCOT(I21,"NoncommercialLong")-_xll.xlquoteCOT(I21,"NoncommercialShort")</f>
+      <c r="C21" s="1" cm="1">
+        <f t="array" ref="C21">_xll.xlquoteCOT(I21,"NoncommercialNet")</f>
         <v>-22660</v>
       </c>
       <c r="D21" s="6">
@@ -1396,22 +1398,22 @@
         <v>-0.15626939574914142</v>
       </c>
       <c r="E21" s="1" cm="1">
-        <f t="array" ref="E21">_xll.xlquoteCOT(I21,"noncommercial_commercial")</f>
-        <v>-74869</v>
+        <f t="array" ref="E21">_xll.xlquoteCOT(I21,"Noncommercial-Commercial")</f>
+        <v>-40925</v>
       </c>
       <c r="F21" s="1" cm="1">
-        <f t="array" ref="F21">_xll.xlquoteCOT(I21,"change_noncommercial_commercial")</f>
-        <v>-838</v>
-      </c>
-      <c r="G21" s="1">
-        <f>_xll.xlquoteCOT(I21,"NonreportableLong")-_xll.xlquoteCOT(I21,"NonreportableShort")</f>
+        <f t="array" ref="F21">_xll.xlquoteCOT(I21,"Noncommercial-CommercialChange")</f>
+        <v>-865</v>
+      </c>
+      <c r="G21" s="1" cm="1">
+        <f t="array" ref="G21">_xll.xlquoteCOT(I21,"NonreportableNet")</f>
         <v>4395</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1419,8 +1421,8 @@
         <f>_xll.xlquoteCOT(I22,"OpenInterest")</f>
         <v>451182</v>
       </c>
-      <c r="C22" s="1">
-        <f>_xll.xlquoteCOT(I22,"NoncommercialLong")-_xll.xlquoteCOT(I22,"NoncommercialShort")</f>
+      <c r="C22" s="1" cm="1">
+        <f t="array" ref="C22">_xll.xlquoteCOT(I22,"NoncommercialNet")</f>
         <v>179136</v>
       </c>
       <c r="D22" s="6">
@@ -1428,22 +1430,22 @@
         <v>0.39703711584238732</v>
       </c>
       <c r="E22" s="1" cm="1">
-        <f t="array" ref="E22">_xll.xlquoteCOT(I22,"noncommercial_commercial")</f>
-        <v>392537</v>
+        <f t="array" ref="E22">_xll.xlquoteCOT(I22,"Noncommercial-Commercial")</f>
+        <v>364994</v>
       </c>
       <c r="F22" s="1" cm="1">
-        <f t="array" ref="F22">_xll.xlquoteCOT(I22,"change_noncommercial_commercial")</f>
-        <v>-7028</v>
-      </c>
-      <c r="G22" s="1">
-        <f>_xll.xlquoteCOT(I22,"NonreportableLong")-_xll.xlquoteCOT(I22,"NonreportableShort")</f>
+        <f t="array" ref="F22">_xll.xlquoteCOT(I22,"Noncommercial-CommercialChange")</f>
+        <v>1922</v>
+      </c>
+      <c r="G22" s="1" cm="1">
+        <f t="array" ref="G22">_xll.xlquoteCOT(I22,"NonreportableNet")</f>
         <v>6722</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1451,8 +1453,8 @@
         <f>_xll.xlquoteCOT(I23,"OpenInterest")</f>
         <v>249858</v>
       </c>
-      <c r="C23" s="1">
-        <f>_xll.xlquoteCOT(I23,"NoncommercialLong")-_xll.xlquoteCOT(I23,"NoncommercialShort")</f>
+      <c r="C23" s="1" cm="1">
+        <f t="array" ref="C23">_xll.xlquoteCOT(I23,"NoncommercialNet")</f>
         <v>49004</v>
       </c>
       <c r="D23" s="6">
@@ -1460,22 +1462,22 @@
         <v>0.19612740036340642</v>
       </c>
       <c r="E23" s="1" cm="1">
-        <f t="array" ref="E23">_xll.xlquoteCOT(I23,"noncommercial_commercial")</f>
-        <v>111021</v>
+        <f t="array" ref="E23">_xll.xlquoteCOT(I23,"Noncommercial-Commercial")</f>
+        <v>108497</v>
       </c>
       <c r="F23" s="1" cm="1">
-        <f t="array" ref="F23">_xll.xlquoteCOT(I23,"change_noncommercial_commercial")</f>
-        <v>10725</v>
-      </c>
-      <c r="G23" s="1">
-        <f>_xll.xlquoteCOT(I23,"NonreportableLong")-_xll.xlquoteCOT(I23,"NonreportableShort")</f>
+        <f t="array" ref="F23">_xll.xlquoteCOT(I23,"Noncommercial-CommercialChange")</f>
+        <v>11854</v>
+      </c>
+      <c r="G23" s="1" cm="1">
+        <f t="array" ref="G23">_xll.xlquoteCOT(I23,"NonreportableNet")</f>
         <v>10490</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1483,8 +1485,8 @@
         <f>_xll.xlquoteCOT(I24,"OpenInterest")</f>
         <v>645338</v>
       </c>
-      <c r="C24" s="1">
-        <f>_xll.xlquoteCOT(I24,"NoncommercialLong")-_xll.xlquoteCOT(I24,"NoncommercialShort")</f>
+      <c r="C24" s="1" cm="1">
+        <f t="array" ref="C24">_xll.xlquoteCOT(I24,"NoncommercialNet")</f>
         <v>84942</v>
       </c>
       <c r="D24" s="6">
@@ -1492,22 +1494,22 @@
         <v>0.13162404817320536</v>
       </c>
       <c r="E24" s="1" cm="1">
-        <f t="array" ref="E24">_xll.xlquoteCOT(I24,"noncommercial_commercial")</f>
-        <v>267757</v>
+        <f t="array" ref="E24">_xll.xlquoteCOT(I24,"Noncommercial-Commercial")</f>
+        <v>178955</v>
       </c>
       <c r="F24" s="1" cm="1">
-        <f t="array" ref="F24">_xll.xlquoteCOT(I24,"change_noncommercial_commercial")</f>
-        <v>-33616</v>
-      </c>
-      <c r="G24" s="1">
-        <f>_xll.xlquoteCOT(I24,"NonreportableLong")-_xll.xlquoteCOT(I24,"NonreportableShort")</f>
+        <f t="array" ref="F24">_xll.xlquoteCOT(I24,"Noncommercial-CommercialChange")</f>
+        <v>52682</v>
+      </c>
+      <c r="G24" s="1" cm="1">
+        <f t="array" ref="G24">_xll.xlquoteCOT(I24,"NonreportableNet")</f>
         <v>9070</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1515,8 +1517,8 @@
         <f>_xll.xlquoteCOT(I25,"OpenInterest")</f>
         <v>176248</v>
       </c>
-      <c r="C25" s="1">
-        <f>_xll.xlquoteCOT(I25,"NoncommercialLong")-_xll.xlquoteCOT(I25,"NoncommercialShort")</f>
+      <c r="C25" s="1" cm="1">
+        <f t="array" ref="C25">_xll.xlquoteCOT(I25,"NoncommercialNet")</f>
         <v>14294</v>
       </c>
       <c r="D25" s="6">
@@ -1524,22 +1526,22 @@
         <v>8.110162952203713E-2</v>
       </c>
       <c r="E25" s="1" cm="1">
-        <f t="array" ref="E25">_xll.xlquoteCOT(I25,"noncommercial_commercial")</f>
-        <v>-950</v>
+        <f t="array" ref="E25">_xll.xlquoteCOT(I25,"Noncommercial-Commercial")</f>
+        <v>38570</v>
       </c>
       <c r="F25" s="1" cm="1">
-        <f t="array" ref="F25">_xll.xlquoteCOT(I25,"change_noncommercial_commercial")</f>
-        <v>-17169</v>
-      </c>
-      <c r="G25" s="1">
-        <f>_xll.xlquoteCOT(I25,"NonreportableLong")-_xll.xlquoteCOT(I25,"NonreportableShort")</f>
+        <f t="array" ref="F25">_xll.xlquoteCOT(I25,"Noncommercial-CommercialChange")</f>
+        <v>26014</v>
+      </c>
+      <c r="G25" s="1" cm="1">
+        <f t="array" ref="G25">_xll.xlquoteCOT(I25,"NonreportableNet")</f>
         <v>9983</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1547,8 +1549,8 @@
         <f>_xll.xlquoteCOT(I26,"OpenInterest")</f>
         <v>189859</v>
       </c>
-      <c r="C26" s="1">
-        <f>_xll.xlquoteCOT(I26,"NoncommercialLong")-_xll.xlquoteCOT(I26,"NoncommercialShort")</f>
+      <c r="C26" s="1" cm="1">
+        <f t="array" ref="C26">_xll.xlquoteCOT(I26,"NoncommercialNet")</f>
         <v>2927</v>
       </c>
       <c r="D26" s="6">
@@ -1556,22 +1558,22 @@
         <v>1.5416703975055172E-2</v>
       </c>
       <c r="E26" s="1" cm="1">
-        <f t="array" ref="E26">_xll.xlquoteCOT(I26,"noncommercial_commercial")</f>
-        <v>-36709</v>
+        <f t="array" ref="E26">_xll.xlquoteCOT(I26,"Noncommercial-Commercial")</f>
+        <v>6453</v>
       </c>
       <c r="F26" s="1" cm="1">
-        <f t="array" ref="F26">_xll.xlquoteCOT(I26,"change_noncommercial_commercial")</f>
-        <v>16997</v>
-      </c>
-      <c r="G26" s="1">
-        <f>_xll.xlquoteCOT(I26,"NonreportableLong")-_xll.xlquoteCOT(I26,"NonreportableShort")</f>
+        <f t="array" ref="F26">_xll.xlquoteCOT(I26,"Noncommercial-CommercialChange")</f>
+        <v>20793</v>
+      </c>
+      <c r="G26" s="1" cm="1">
+        <f t="array" ref="G26">_xll.xlquoteCOT(I26,"NonreportableNet")</f>
         <v>600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1579,8 +1581,8 @@
         <f>_xll.xlquoteCOT(I27,"OpenInterest")</f>
         <v>9469</v>
       </c>
-      <c r="C27" s="1">
-        <f>_xll.xlquoteCOT(I27,"NoncommercialLong")-_xll.xlquoteCOT(I27,"NoncommercialShort")</f>
+      <c r="C27" s="1" cm="1">
+        <f t="array" ref="C27">_xll.xlquoteCOT(I27,"NoncommercialNet")</f>
         <v>-2410</v>
       </c>
       <c r="D27" s="6">
@@ -1588,22 +1590,22 @@
         <v>-0.25451473228429611</v>
       </c>
       <c r="E27" s="1" cm="1">
-        <f t="array" ref="E27">_xll.xlquoteCOT(I27,"noncommercial_commercial")</f>
-        <v>-3905</v>
+        <f t="array" ref="E27">_xll.xlquoteCOT(I27,"Noncommercial-Commercial")</f>
+        <v>-4985</v>
       </c>
       <c r="F27" s="1" cm="1">
-        <f t="array" ref="F27">_xll.xlquoteCOT(I27,"change_noncommercial_commercial")</f>
-        <v>-773</v>
-      </c>
-      <c r="G27" s="1">
-        <f>_xll.xlquoteCOT(I27,"NonreportableLong")-_xll.xlquoteCOT(I27,"NonreportableShort")</f>
+        <f t="array" ref="F27">_xll.xlquoteCOT(I27,"Noncommercial-CommercialChange")</f>
+        <v>-895</v>
+      </c>
+      <c r="G27" s="1" cm="1">
+        <f t="array" ref="G27">_xll.xlquoteCOT(I27,"NonreportableNet")</f>
         <v>-164</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1611,8 +1613,8 @@
         <f>_xll.xlquoteCOT(I28,"OpenInterest")</f>
         <v>60890</v>
       </c>
-      <c r="C28" s="1">
-        <f>_xll.xlquoteCOT(I28,"NoncommercialLong")-_xll.xlquoteCOT(I28,"NoncommercialShort")</f>
+      <c r="C28" s="1" cm="1">
+        <f t="array" ref="C28">_xll.xlquoteCOT(I28,"NoncommercialNet")</f>
         <v>19503</v>
       </c>
       <c r="D28" s="6">
@@ -1620,22 +1622,22 @@
         <v>0.32029889965511577</v>
       </c>
       <c r="E28" s="1" cm="1">
-        <f t="array" ref="E28">_xll.xlquoteCOT(I28,"noncommercial_commercial")</f>
-        <v>855</v>
+        <f t="array" ref="E28">_xll.xlquoteCOT(I28,"Noncommercial-Commercial")</f>
+        <v>42857</v>
       </c>
       <c r="F28" s="1" cm="1">
-        <f t="array" ref="F28">_xll.xlquoteCOT(I28,"change_noncommercial_commercial")</f>
-        <v>-8792</v>
-      </c>
-      <c r="G28" s="1">
-        <f>_xll.xlquoteCOT(I28,"NonreportableLong")-_xll.xlquoteCOT(I28,"NonreportableShort")</f>
+        <f t="array" ref="F28">_xll.xlquoteCOT(I28,"Noncommercial-CommercialChange")</f>
+        <v>7427</v>
+      </c>
+      <c r="G28" s="1" cm="1">
+        <f t="array" ref="G28">_xll.xlquoteCOT(I28,"NonreportableNet")</f>
         <v>3851</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1643,8 +1645,8 @@
         <f>_xll.xlquoteCOT(I29,"OpenInterest")</f>
         <v>443703</v>
       </c>
-      <c r="C29" s="1">
-        <f>_xll.xlquoteCOT(I29,"NoncommercialLong")-_xll.xlquoteCOT(I29,"NoncommercialShort")</f>
+      <c r="C29" s="1" cm="1">
+        <f t="array" ref="C29">_xll.xlquoteCOT(I29,"NoncommercialNet")</f>
         <v>-22055</v>
       </c>
       <c r="D29" s="6">
@@ -1652,22 +1654,22 @@
         <v>-4.9706673157494989E-2</v>
       </c>
       <c r="E29" s="1" cm="1">
-        <f t="array" ref="E29">_xll.xlquoteCOT(I29,"noncommercial_commercial")</f>
-        <v>-37720</v>
+        <f t="array" ref="E29">_xll.xlquoteCOT(I29,"Noncommercial-Commercial")</f>
+        <v>-49558</v>
       </c>
       <c r="F29" s="1" cm="1">
-        <f t="array" ref="F29">_xll.xlquoteCOT(I29,"change_noncommercial_commercial")</f>
-        <v>-6276</v>
-      </c>
-      <c r="G29" s="1">
-        <f>_xll.xlquoteCOT(I29,"NonreportableLong")-_xll.xlquoteCOT(I29,"NonreportableShort")</f>
+        <f t="array" ref="F29">_xll.xlquoteCOT(I29,"Noncommercial-CommercialChange")</f>
+        <v>-5009</v>
+      </c>
+      <c r="G29" s="1" cm="1">
+        <f t="array" ref="G29">_xll.xlquoteCOT(I29,"NonreportableNet")</f>
         <v>-5448</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -1675,8 +1677,8 @@
         <f>_xll.xlquoteCOT(I30,"OpenInterest")</f>
         <v>1920077</v>
       </c>
-      <c r="C30" s="1">
-        <f>_xll.xlquoteCOT(I30,"NoncommercialLong")-_xll.xlquoteCOT(I30,"NoncommercialShort")</f>
+      <c r="C30" s="1" cm="1">
+        <f t="array" ref="C30">_xll.xlquoteCOT(I30,"NoncommercialNet")</f>
         <v>276059</v>
       </c>
       <c r="D30" s="6">
@@ -1684,22 +1686,22 @@
         <v>0.14377496319158034</v>
       </c>
       <c r="E30" s="1" cm="1">
-        <f t="array" ref="E30">_xll.xlquoteCOT(I30,"noncommercial_commercial")</f>
-        <v>438480</v>
+        <f t="array" ref="E30">_xll.xlquoteCOT(I30,"Noncommercial-Commercial")</f>
+        <v>503330</v>
       </c>
       <c r="F30" s="1" cm="1">
-        <f t="array" ref="F30">_xll.xlquoteCOT(I30,"change_noncommercial_commercial")</f>
-        <v>98964</v>
-      </c>
-      <c r="G30" s="1">
-        <f>_xll.xlquoteCOT(I30,"NonreportableLong")-_xll.xlquoteCOT(I30,"NonreportableShort")</f>
+        <f t="array" ref="F30">_xll.xlquoteCOT(I30,"Noncommercial-CommercialChange")</f>
+        <v>-86746</v>
+      </c>
+      <c r="G30" s="1" cm="1">
+        <f t="array" ref="G30">_xll.xlquoteCOT(I30,"NonreportableNet")</f>
         <v>-48788</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -1707,8 +1709,8 @@
         <f>_xll.xlquoteCOT(I31,"OpenInterest")</f>
         <v>703484</v>
       </c>
-      <c r="C31" s="1">
-        <f>_xll.xlquoteCOT(I31,"NoncommercialLong")-_xll.xlquoteCOT(I31,"NoncommercialShort")</f>
+      <c r="C31" s="1" cm="1">
+        <f t="array" ref="C31">_xll.xlquoteCOT(I31,"NoncommercialNet")</f>
         <v>93671</v>
       </c>
       <c r="D31" s="6">
@@ -1716,22 +1718,22 @@
         <v>0.13315299281859999</v>
       </c>
       <c r="E31" s="1" cm="1">
-        <f t="array" ref="E31">_xll.xlquoteCOT(I31,"noncommercial_commercial")</f>
-        <v>157763</v>
+        <f t="array" ref="E31">_xll.xlquoteCOT(I31,"Noncommercial-Commercial")</f>
+        <v>159337</v>
       </c>
       <c r="F31" s="1" cm="1">
-        <f t="array" ref="F31">_xll.xlquoteCOT(I31,"change_noncommercial_commercial")</f>
-        <v>20308</v>
-      </c>
-      <c r="G31" s="1">
-        <f>_xll.xlquoteCOT(I31,"NonreportableLong")-_xll.xlquoteCOT(I31,"NonreportableShort")</f>
+        <f t="array" ref="F31">_xll.xlquoteCOT(I31,"Noncommercial-CommercialChange")</f>
+        <v>365</v>
+      </c>
+      <c r="G31" s="1" cm="1">
+        <f t="array" ref="G31">_xll.xlquoteCOT(I31,"NonreportableNet")</f>
         <v>-28004</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -1739,8 +1741,8 @@
         <f>_xll.xlquoteCOT(I32,"OpenInterest")</f>
         <v>518361</v>
       </c>
-      <c r="C32" s="1">
-        <f>_xll.xlquoteCOT(I32,"NoncommercialLong")-_xll.xlquoteCOT(I32,"NoncommercialShort")</f>
+      <c r="C32" s="1" cm="1">
+        <f t="array" ref="C32">_xll.xlquoteCOT(I32,"NoncommercialNet")</f>
         <v>103481</v>
       </c>
       <c r="D32" s="6">
@@ -1748,22 +1750,22 @@
         <v>0.19963114509000485</v>
       </c>
       <c r="E32" s="1" cm="1">
-        <f t="array" ref="E32">_xll.xlquoteCOT(I32,"noncommercial_commercial")</f>
-        <v>97314</v>
+        <f t="array" ref="E32">_xll.xlquoteCOT(I32,"Noncommercial-Commercial")</f>
+        <v>219274</v>
       </c>
       <c r="F32" s="1" cm="1">
-        <f t="array" ref="F32">_xll.xlquoteCOT(I32,"change_noncommercial_commercial")</f>
-        <v>15761</v>
-      </c>
-      <c r="G32" s="1">
-        <f>_xll.xlquoteCOT(I32,"NonreportableLong")-_xll.xlquoteCOT(I32,"NonreportableShort")</f>
+        <f t="array" ref="F32">_xll.xlquoteCOT(I32,"Noncommercial-CommercialChange")</f>
+        <v>8734</v>
+      </c>
+      <c r="G32" s="1" cm="1">
+        <f t="array" ref="G32">_xll.xlquoteCOT(I32,"NonreportableNet")</f>
         <v>12312</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -1771,8 +1773,8 @@
         <f>_xll.xlquoteCOT(I33,"OpenInterest")</f>
         <v>453467</v>
       </c>
-      <c r="C33" s="1">
-        <f>_xll.xlquoteCOT(I33,"NoncommercialLong")-_xll.xlquoteCOT(I33,"NoncommercialShort")</f>
+      <c r="C33" s="1" cm="1">
+        <f t="array" ref="C33">_xll.xlquoteCOT(I33,"NoncommercialNet")</f>
         <v>114623</v>
       </c>
       <c r="D33" s="6">
@@ -1780,22 +1782,22 @@
         <v>0.25277032286803669</v>
       </c>
       <c r="E33" s="1" cm="1">
-        <f t="array" ref="E33">_xll.xlquoteCOT(I33,"noncommercial_commercial")</f>
-        <v>253019</v>
+        <f t="array" ref="E33">_xll.xlquoteCOT(I33,"Noncommercial-Commercial")</f>
+        <v>257920</v>
       </c>
       <c r="F33" s="1" cm="1">
-        <f t="array" ref="F33">_xll.xlquoteCOT(I33,"change_noncommercial_commercial")</f>
-        <v>22508</v>
-      </c>
-      <c r="G33" s="1">
-        <f>_xll.xlquoteCOT(I33,"NonreportableLong")-_xll.xlquoteCOT(I33,"NonreportableShort")</f>
+        <f t="array" ref="F33">_xll.xlquoteCOT(I33,"Noncommercial-CommercialChange")</f>
+        <v>2798</v>
+      </c>
+      <c r="G33" s="1" cm="1">
+        <f t="array" ref="G33">_xll.xlquoteCOT(I33,"NonreportableNet")</f>
         <v>28673</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -1803,8 +1805,8 @@
         <f>_xll.xlquoteCOT(I34,"OpenInterest")</f>
         <v>346839</v>
       </c>
-      <c r="C34" s="1">
-        <f>_xll.xlquoteCOT(I34,"NoncommercialLong")-_xll.xlquoteCOT(I34,"NoncommercialShort")</f>
+      <c r="C34" s="1" cm="1">
+        <f t="array" ref="C34">_xll.xlquoteCOT(I34,"NoncommercialNet")</f>
         <v>13712</v>
       </c>
       <c r="D34" s="6">
@@ -1812,22 +1814,22 @@
         <v>3.9534193098238662E-2</v>
       </c>
       <c r="E34" s="1" cm="1">
-        <f t="array" ref="E34">_xll.xlquoteCOT(I34,"noncommercial_commercial")</f>
-        <v>109416</v>
+        <f t="array" ref="E34">_xll.xlquoteCOT(I34,"Noncommercial-Commercial")</f>
+        <v>29341</v>
       </c>
       <c r="F34" s="1" cm="1">
-        <f t="array" ref="F34">_xll.xlquoteCOT(I34,"change_noncommercial_commercial")</f>
-        <v>9406</v>
-      </c>
-      <c r="G34" s="1">
-        <f>_xll.xlquoteCOT(I34,"NonreportableLong")-_xll.xlquoteCOT(I34,"NonreportableShort")</f>
+        <f t="array" ref="F34">_xll.xlquoteCOT(I34,"Noncommercial-CommercialChange")</f>
+        <v>13824</v>
+      </c>
+      <c r="G34" s="1" cm="1">
+        <f t="array" ref="G34">_xll.xlquoteCOT(I34,"NonreportableNet")</f>
         <v>1917</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -1835,8 +1837,8 @@
         <f>_xll.xlquoteCOT(I35,"OpenInterest")</f>
         <v>7947</v>
       </c>
-      <c r="C35" s="1">
-        <f>_xll.xlquoteCOT(I35,"NoncommercialLong")-_xll.xlquoteCOT(I35,"NoncommercialShort")</f>
+      <c r="C35" s="1" cm="1">
+        <f t="array" ref="C35">_xll.xlquoteCOT(I35,"NoncommercialNet")</f>
         <v>-743</v>
       </c>
       <c r="D35" s="6">
@@ -1844,22 +1846,22 @@
         <v>-9.3494400402667668E-2</v>
       </c>
       <c r="E35" s="1" cm="1">
-        <f t="array" ref="E35">_xll.xlquoteCOT(I35,"noncommercial_commercial")</f>
-        <v>3980</v>
+        <f t="array" ref="E35">_xll.xlquoteCOT(I35,"Noncommercial-Commercial")</f>
+        <v>-715</v>
       </c>
       <c r="F35" s="1" cm="1">
-        <f t="array" ref="F35">_xll.xlquoteCOT(I35,"change_noncommercial_commercial")</f>
-        <v>445</v>
-      </c>
-      <c r="G35" s="1">
-        <f>_xll.xlquoteCOT(I35,"NonreportableLong")-_xll.xlquoteCOT(I35,"NonreportableShort")</f>
+        <f t="array" ref="F35">_xll.xlquoteCOT(I35,"Noncommercial-CommercialChange")</f>
+        <v>2616</v>
+      </c>
+      <c r="G35" s="1" cm="1">
+        <f t="array" ref="G35">_xll.xlquoteCOT(I35,"NonreportableNet")</f>
         <v>771</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -1867,8 +1869,8 @@
         <f>_xll.xlquoteCOT(I36,"OpenInterest")</f>
         <v>345141</v>
       </c>
-      <c r="C36" s="1">
-        <f>_xll.xlquoteCOT(I36,"NoncommercialLong")-_xll.xlquoteCOT(I36,"NoncommercialShort")</f>
+      <c r="C36" s="1" cm="1">
+        <f t="array" ref="C36">_xll.xlquoteCOT(I36,"NoncommercialNet")</f>
         <v>-1606</v>
       </c>
       <c r="D36" s="6">
@@ -1876,22 +1878,22 @@
         <v>-4.6531707331206665E-3</v>
       </c>
       <c r="E36" s="1" cm="1">
-        <f t="array" ref="E36">_xll.xlquoteCOT(I36,"noncommercial_commercial")</f>
-        <v>-34178</v>
+        <f t="array" ref="E36">_xll.xlquoteCOT(I36,"Noncommercial-Commercial")</f>
+        <v>237</v>
       </c>
       <c r="F36" s="1" cm="1">
-        <f t="array" ref="F36">_xll.xlquoteCOT(I36,"change_noncommercial_commercial")</f>
-        <v>-2724</v>
-      </c>
-      <c r="G36" s="1">
-        <f>_xll.xlquoteCOT(I36,"NonreportableLong")-_xll.xlquoteCOT(I36,"NonreportableShort")</f>
+        <f t="array" ref="F36">_xll.xlquoteCOT(I36,"Noncommercial-CommercialChange")</f>
+        <v>54246</v>
+      </c>
+      <c r="G36" s="1" cm="1">
+        <f t="array" ref="G36">_xll.xlquoteCOT(I36,"NonreportableNet")</f>
         <v>3449</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -1899,8 +1901,8 @@
         <f>_xll.xlquoteCOT(I37,"OpenInterest")</f>
         <v>920099</v>
       </c>
-      <c r="C37" s="1">
-        <f>_xll.xlquoteCOT(I37,"NoncommercialLong")-_xll.xlquoteCOT(I37,"NoncommercialShort")</f>
+      <c r="C37" s="1" cm="1">
+        <f t="array" ref="C37">_xll.xlquoteCOT(I37,"NoncommercialNet")</f>
         <v>81979</v>
       </c>
       <c r="D37" s="6">
@@ -1908,22 +1910,22 @@
         <v>8.9098020973829989E-2</v>
       </c>
       <c r="E37" s="1" cm="1">
-        <f t="array" ref="E37">_xll.xlquoteCOT(I37,"noncommercial_commercial")</f>
-        <v>66690</v>
+        <f t="array" ref="E37">_xll.xlquoteCOT(I37,"Noncommercial-Commercial")</f>
+        <v>195620</v>
       </c>
       <c r="F37" s="1" cm="1">
-        <f t="array" ref="F37">_xll.xlquoteCOT(I37,"change_noncommercial_commercial")</f>
-        <v>2328</v>
-      </c>
-      <c r="G37" s="1">
-        <f>_xll.xlquoteCOT(I37,"NonreportableLong")-_xll.xlquoteCOT(I37,"NonreportableShort")</f>
+        <f t="array" ref="F37">_xll.xlquoteCOT(I37,"Noncommercial-CommercialChange")</f>
+        <v>65135</v>
+      </c>
+      <c r="G37" s="1" cm="1">
+        <f t="array" ref="G37">_xll.xlquoteCOT(I37,"NonreportableNet")</f>
         <v>31661</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -1931,8 +1933,8 @@
         <f>_xll.xlquoteCOT(I38,"OpenInterest")</f>
         <v>298438</v>
       </c>
-      <c r="C38" s="1">
-        <f>_xll.xlquoteCOT(I38,"NoncommercialLong")-_xll.xlquoteCOT(I38,"NoncommercialShort")</f>
+      <c r="C38" s="1" cm="1">
+        <f t="array" ref="C38">_xll.xlquoteCOT(I38,"NoncommercialNet")</f>
         <v>-12064</v>
       </c>
       <c r="D38" s="6">
@@ -1940,22 +1942,22 @@
         <v>-4.0423806619800426E-2</v>
       </c>
       <c r="E38" s="1" cm="1">
-        <f t="array" ref="E38">_xll.xlquoteCOT(I38,"noncommercial_commercial")</f>
-        <v>76092</v>
+        <f t="array" ref="E38">_xll.xlquoteCOT(I38,"Noncommercial-Commercial")</f>
+        <v>-20704</v>
       </c>
       <c r="F38" s="1" cm="1">
-        <f t="array" ref="F38">_xll.xlquoteCOT(I38,"change_noncommercial_commercial")</f>
-        <v>9784</v>
-      </c>
-      <c r="G38" s="1">
-        <f>_xll.xlquoteCOT(I38,"NonreportableLong")-_xll.xlquoteCOT(I38,"NonreportableShort")</f>
+        <f t="array" ref="F38">_xll.xlquoteCOT(I38,"Noncommercial-CommercialChange")</f>
+        <v>-10115</v>
+      </c>
+      <c r="G38" s="1" cm="1">
+        <f t="array" ref="G38">_xll.xlquoteCOT(I38,"NonreportableNet")</f>
         <v>3424</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -1963,8 +1965,8 @@
         <f>_xll.xlquoteCOT(I39,"OpenInterest")</f>
         <v>24098</v>
       </c>
-      <c r="C39" s="1">
-        <f>_xll.xlquoteCOT(I39,"NoncommercialLong")-_xll.xlquoteCOT(I39,"NoncommercialShort")</f>
+      <c r="C39" s="1" cm="1">
+        <f t="array" ref="C39">_xll.xlquoteCOT(I39,"NoncommercialNet")</f>
         <v>2755</v>
       </c>
       <c r="D39" s="6">
@@ -1972,22 +1974,22 @@
         <v>0.1143248402357042</v>
       </c>
       <c r="E39" s="1" cm="1">
-        <f t="array" ref="E39">_xll.xlquoteCOT(I39,"noncommercial_commercial")</f>
-        <v>11404</v>
+        <f t="array" ref="E39">_xll.xlquoteCOT(I39,"Noncommercial-Commercial")</f>
+        <v>4534</v>
       </c>
       <c r="F39" s="1" cm="1">
-        <f t="array" ref="F39">_xll.xlquoteCOT(I39,"change_noncommercial_commercial")</f>
-        <v>1559</v>
-      </c>
-      <c r="G39" s="1">
-        <f>_xll.xlquoteCOT(I39,"NonreportableLong")-_xll.xlquoteCOT(I39,"NonreportableShort")</f>
+        <f t="array" ref="F39">_xll.xlquoteCOT(I39,"Noncommercial-CommercialChange")</f>
+        <v>-1486</v>
+      </c>
+      <c r="G39" s="1" cm="1">
+        <f t="array" ref="G39">_xll.xlquoteCOT(I39,"NonreportableNet")</f>
         <v>-976</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -1995,8 +1997,8 @@
         <f>_xll.xlquoteCOT(I40,"OpenInterest")</f>
         <v>252403</v>
       </c>
-      <c r="C40" s="1">
-        <f>_xll.xlquoteCOT(I40,"NoncommercialLong")-_xll.xlquoteCOT(I40,"NoncommercialShort")</f>
+      <c r="C40" s="1" cm="1">
+        <f t="array" ref="C40">_xll.xlquoteCOT(I40,"NoncommercialNet")</f>
         <v>48476</v>
       </c>
       <c r="D40" s="6">
@@ -2004,22 +2006,22 @@
         <v>0.192057939089472</v>
       </c>
       <c r="E40" s="1" cm="1">
-        <f t="array" ref="E40">_xll.xlquoteCOT(I40,"noncommercial_commercial")</f>
-        <v>112448</v>
+        <f t="array" ref="E40">_xll.xlquoteCOT(I40,"Noncommercial-Commercial")</f>
+        <v>85510</v>
       </c>
       <c r="F40" s="1" cm="1">
-        <f t="array" ref="F40">_xll.xlquoteCOT(I40,"change_noncommercial_commercial")</f>
-        <v>-23590</v>
-      </c>
-      <c r="G40" s="1">
-        <f>_xll.xlquoteCOT(I40,"NonreportableLong")-_xll.xlquoteCOT(I40,"NonreportableShort")</f>
+        <f t="array" ref="F40">_xll.xlquoteCOT(I40,"Noncommercial-CommercialChange")</f>
+        <v>-7094</v>
+      </c>
+      <c r="G40" s="1" cm="1">
+        <f t="array" ref="G40">_xll.xlquoteCOT(I40,"NonreportableNet")</f>
         <v>-11442</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2027,8 +2029,8 @@
         <f>_xll.xlquoteCOT(I41,"OpenInterest")</f>
         <v>351835</v>
       </c>
-      <c r="C41" s="1">
-        <f>_xll.xlquoteCOT(I41,"NoncommercialLong")-_xll.xlquoteCOT(I41,"NoncommercialShort")</f>
+      <c r="C41" s="1" cm="1">
+        <f t="array" ref="C41">_xll.xlquoteCOT(I41,"NoncommercialNet")</f>
         <v>78709</v>
       </c>
       <c r="D41" s="6">
@@ -2036,22 +2038,22 @@
         <v>0.22370997768840509</v>
       </c>
       <c r="E41" s="1" cm="1">
-        <f t="array" ref="E41">_xll.xlquoteCOT(I41,"noncommercial_commercial")</f>
-        <v>162769</v>
+        <f t="array" ref="E41">_xll.xlquoteCOT(I41,"Noncommercial-Commercial")</f>
+        <v>152761</v>
       </c>
       <c r="F41" s="1" cm="1">
-        <f t="array" ref="F41">_xll.xlquoteCOT(I41,"change_noncommercial_commercial")</f>
-        <v>3730</v>
-      </c>
-      <c r="G41" s="1">
-        <f>_xll.xlquoteCOT(I41,"NonreportableLong")-_xll.xlquoteCOT(I41,"NonreportableShort")</f>
+        <f t="array" ref="F41">_xll.xlquoteCOT(I41,"Noncommercial-CommercialChange")</f>
+        <v>-9153</v>
+      </c>
+      <c r="G41" s="1" cm="1">
+        <f t="array" ref="G41">_xll.xlquoteCOT(I41,"NonreportableNet")</f>
         <v>-4658</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2059,8 +2061,8 @@
         <f>_xll.xlquoteCOT(I42,"OpenInterest")</f>
         <v>2067</v>
       </c>
-      <c r="C42" s="1">
-        <f>_xll.xlquoteCOT(I42,"NoncommercialLong")-_xll.xlquoteCOT(I42,"NoncommercialShort")</f>
+      <c r="C42" s="1" cm="1">
+        <f t="array" ref="C42">_xll.xlquoteCOT(I42,"NoncommercialNet")</f>
         <v>-1056</v>
       </c>
       <c r="D42" s="6">
@@ -2068,22 +2070,22 @@
         <v>-0.51088534107402028</v>
       </c>
       <c r="E42" s="1" cm="1">
-        <f t="array" ref="E42">_xll.xlquoteCOT(I42,"noncommercial_commercial")</f>
-        <v>-2009</v>
+        <f t="array" ref="E42">_xll.xlquoteCOT(I42,"Noncommercial-Commercial")</f>
+        <v>-1865</v>
       </c>
       <c r="F42" s="1" cm="1">
-        <f t="array" ref="F42">_xll.xlquoteCOT(I42,"change_noncommercial_commercial")</f>
-        <v>-348</v>
-      </c>
-      <c r="G42" s="1">
-        <f>_xll.xlquoteCOT(I42,"NonreportableLong")-_xll.xlquoteCOT(I42,"NonreportableShort")</f>
+        <f t="array" ref="F42">_xll.xlquoteCOT(I42,"Noncommercial-CommercialChange")</f>
+        <v>-934</v>
+      </c>
+      <c r="G42" s="1" cm="1">
+        <f t="array" ref="G42">_xll.xlquoteCOT(I42,"NonreportableNet")</f>
         <v>247</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -2091,8 +2093,8 @@
         <f>_xll.xlquoteCOT(I43,"OpenInterest")</f>
         <v>58681</v>
       </c>
-      <c r="C43" s="1">
-        <f>_xll.xlquoteCOT(I43,"NoncommercialLong")-_xll.xlquoteCOT(I43,"NoncommercialShort")</f>
+      <c r="C43" s="1" cm="1">
+        <f t="array" ref="C43">_xll.xlquoteCOT(I43,"NoncommercialNet")</f>
         <v>-7233</v>
       </c>
       <c r="D43" s="6">
@@ -2100,22 +2102,22 @@
         <v>-0.12325965815170158</v>
       </c>
       <c r="E43" s="1" cm="1">
-        <f t="array" ref="E43">_xll.xlquoteCOT(I43,"noncommercial_commercial")</f>
-        <v>-5239</v>
+        <f t="array" ref="E43">_xll.xlquoteCOT(I43,"Noncommercial-Commercial")</f>
+        <v>-15276</v>
       </c>
       <c r="F43" s="1" cm="1">
-        <f t="array" ref="F43">_xll.xlquoteCOT(I43,"change_noncommercial_commercial")</f>
-        <v>-3451</v>
-      </c>
-      <c r="G43" s="1">
-        <f>_xll.xlquoteCOT(I43,"NonreportableLong")-_xll.xlquoteCOT(I43,"NonreportableShort")</f>
+        <f t="array" ref="F43">_xll.xlquoteCOT(I43,"Noncommercial-CommercialChange")</f>
+        <v>395</v>
+      </c>
+      <c r="G43" s="1" cm="1">
+        <f t="array" ref="G43">_xll.xlquoteCOT(I43,"NonreportableNet")</f>
         <v>-810</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -2123,8 +2125,8 @@
         <f>_xll.xlquoteCOT(I44,"OpenInterest")</f>
         <v>25852</v>
       </c>
-      <c r="C44" s="1">
-        <f>_xll.xlquoteCOT(I44,"NoncommercialLong")-_xll.xlquoteCOT(I44,"NoncommercialShort")</f>
+      <c r="C44" s="1" cm="1">
+        <f t="array" ref="C44">_xll.xlquoteCOT(I44,"NoncommercialNet")</f>
         <v>-4812</v>
       </c>
       <c r="D44" s="6">
@@ -2132,22 +2134,22 @@
         <v>-0.18613646913198206</v>
       </c>
       <c r="E44" s="1" cm="1">
-        <f t="array" ref="E44">_xll.xlquoteCOT(I44,"noncommercial_commercial")</f>
-        <v>-13216</v>
+        <f t="array" ref="E44">_xll.xlquoteCOT(I44,"Noncommercial-Commercial")</f>
+        <v>-9495</v>
       </c>
       <c r="F44" s="1" cm="1">
-        <f t="array" ref="F44">_xll.xlquoteCOT(I44,"change_noncommercial_commercial")</f>
-        <v>57</v>
-      </c>
-      <c r="G44" s="1">
-        <f>_xll.xlquoteCOT(I44,"NonreportableLong")-_xll.xlquoteCOT(I44,"NonreportableShort")</f>
+        <f t="array" ref="F44">_xll.xlquoteCOT(I44,"Noncommercial-CommercialChange")</f>
+        <v>4786</v>
+      </c>
+      <c r="G44" s="1" cm="1">
+        <f t="array" ref="G44">_xll.xlquoteCOT(I44,"NonreportableNet")</f>
         <v>130</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -2155,8 +2157,8 @@
         <f>_xll.xlquoteCOT(I45,"OpenInterest")</f>
         <v>56428</v>
       </c>
-      <c r="C45" s="1">
-        <f>_xll.xlquoteCOT(I45,"NoncommercialLong")-_xll.xlquoteCOT(I45,"NoncommercialShort")</f>
+      <c r="C45" s="1" cm="1">
+        <f t="array" ref="C45">_xll.xlquoteCOT(I45,"NoncommercialNet")</f>
         <v>30151</v>
       </c>
       <c r="D45" s="6">
@@ -2164,22 +2166,22 @@
         <v>0.53432692989296093</v>
       </c>
       <c r="E45" s="1" cm="1">
-        <f t="array" ref="E45">_xll.xlquoteCOT(I45,"noncommercial_commercial")</f>
-        <v>72740</v>
+        <f t="array" ref="E45">_xll.xlquoteCOT(I45,"Noncommercial-Commercial")</f>
+        <v>63973</v>
       </c>
       <c r="F45" s="1" cm="1">
-        <f t="array" ref="F45">_xll.xlquoteCOT(I45,"change_noncommercial_commercial")</f>
-        <v>-5905</v>
-      </c>
-      <c r="G45" s="1">
-        <f>_xll.xlquoteCOT(I45,"NonreportableLong")-_xll.xlquoteCOT(I45,"NonreportableShort")</f>
+        <f t="array" ref="F45">_xll.xlquoteCOT(I45,"Noncommercial-CommercialChange")</f>
+        <v>820</v>
+      </c>
+      <c r="G45" s="1" cm="1">
+        <f t="array" ref="G45">_xll.xlquoteCOT(I45,"NonreportableNet")</f>
         <v>3671</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -2187,8 +2189,8 @@
         <f>_xll.xlquoteCOT(I46,"OpenInterest")</f>
         <v>770108</v>
       </c>
-      <c r="C46" s="1">
-        <f>_xll.xlquoteCOT(I46,"NoncommercialLong")-_xll.xlquoteCOT(I46,"NoncommercialShort")</f>
+      <c r="C46" s="1" cm="1">
+        <f t="array" ref="C46">_xll.xlquoteCOT(I46,"NoncommercialNet")</f>
         <v>119853</v>
       </c>
       <c r="D46" s="6">
@@ -2196,22 +2198,22 @@
         <v>0.1556314179309915</v>
       </c>
       <c r="E46" s="1" cm="1">
-        <f t="array" ref="E46">_xll.xlquoteCOT(I46,"noncommercial_commercial")</f>
-        <v>-72089</v>
+        <f t="array" ref="E46">_xll.xlquoteCOT(I46,"Noncommercial-Commercial")</f>
+        <v>263734</v>
       </c>
       <c r="F46" s="1" cm="1">
-        <f t="array" ref="F46">_xll.xlquoteCOT(I46,"change_noncommercial_commercial")</f>
-        <v>-8047</v>
-      </c>
-      <c r="G46" s="1">
-        <f>_xll.xlquoteCOT(I46,"NonreportableLong")-_xll.xlquoteCOT(I46,"NonreportableShort")</f>
+        <f t="array" ref="F46">_xll.xlquoteCOT(I46,"Noncommercial-CommercialChange")</f>
+        <v>13874</v>
+      </c>
+      <c r="G46" s="1" cm="1">
+        <f t="array" ref="G46">_xll.xlquoteCOT(I46,"NonreportableNet")</f>
         <v>24028</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -2219,8 +2221,8 @@
         <f>_xll.xlquoteCOT(I47,"OpenInterest")</f>
         <v>269886</v>
       </c>
-      <c r="C47" s="1">
-        <f>_xll.xlquoteCOT(I47,"NoncommercialLong")-_xll.xlquoteCOT(I47,"NoncommercialShort")</f>
+      <c r="C47" s="1" cm="1">
+        <f t="array" ref="C47">_xll.xlquoteCOT(I47,"NoncommercialNet")</f>
         <v>-39361</v>
       </c>
       <c r="D47" s="6">
@@ -2228,22 +2230,22 @@
         <v>-0.14584305966222774</v>
       </c>
       <c r="E47" s="1" cm="1">
-        <f t="array" ref="E47">_xll.xlquoteCOT(I47,"noncommercial_commercial")</f>
-        <v>-76619</v>
+        <f t="array" ref="E47">_xll.xlquoteCOT(I47,"Noncommercial-Commercial")</f>
+        <v>-95850</v>
       </c>
       <c r="F47" s="1" cm="1">
-        <f t="array" ref="F47">_xll.xlquoteCOT(I47,"change_noncommercial_commercial")</f>
-        <v>1229</v>
-      </c>
-      <c r="G47" s="1">
-        <f>_xll.xlquoteCOT(I47,"NonreportableLong")-_xll.xlquoteCOT(I47,"NonreportableShort")</f>
+        <f t="array" ref="F47">_xll.xlquoteCOT(I47,"Noncommercial-CommercialChange")</f>
+        <v>14773</v>
+      </c>
+      <c r="G47" s="1" cm="1">
+        <f t="array" ref="G47">_xll.xlquoteCOT(I47,"NonreportableNet")</f>
         <v>-17129</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -2251,8 +2253,8 @@
         <f>_xll.xlquoteCOT(I48,"OpenInterest")</f>
         <v>273288</v>
       </c>
-      <c r="C48" s="1">
-        <f>_xll.xlquoteCOT(I48,"NoncommercialLong")-_xll.xlquoteCOT(I48,"NoncommercialShort")</f>
+      <c r="C48" s="1" cm="1">
+        <f t="array" ref="C48">_xll.xlquoteCOT(I48,"NoncommercialNet")</f>
         <v>-73501</v>
       </c>
       <c r="D48" s="6">
@@ -2260,22 +2262,22 @@
         <v>-0.26895070401920318</v>
       </c>
       <c r="E48" s="1" cm="1">
-        <f t="array" ref="E48">_xll.xlquoteCOT(I48,"noncommercial_commercial")</f>
-        <v>-90643</v>
+        <f t="array" ref="E48">_xll.xlquoteCOT(I48,"Noncommercial-Commercial")</f>
+        <v>-160175</v>
       </c>
       <c r="F48" s="1" cm="1">
-        <f t="array" ref="F48">_xll.xlquoteCOT(I48,"change_noncommercial_commercial")</f>
-        <v>-19737</v>
-      </c>
-      <c r="G48" s="1">
-        <f>_xll.xlquoteCOT(I48,"NonreportableLong")-_xll.xlquoteCOT(I48,"NonreportableShort")</f>
+        <f t="array" ref="F48">_xll.xlquoteCOT(I48,"Noncommercial-CommercialChange")</f>
+        <v>18141</v>
+      </c>
+      <c r="G48" s="1" cm="1">
+        <f t="array" ref="G48">_xll.xlquoteCOT(I48,"NonreportableNet")</f>
         <v>-13173</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -2283,8 +2285,8 @@
         <f>_xll.xlquoteCOT(I49,"OpenInterest")</f>
         <v>15889</v>
       </c>
-      <c r="C49" s="1">
-        <f>_xll.xlquoteCOT(I49,"NoncommercialLong")-_xll.xlquoteCOT(I49,"NoncommercialShort")</f>
+      <c r="C49" s="1" cm="1">
+        <f t="array" ref="C49">_xll.xlquoteCOT(I49,"NoncommercialNet")</f>
         <v>-303</v>
       </c>
       <c r="D49" s="6">
@@ -2292,22 +2294,22 @@
         <v>-1.9069796714708289E-2</v>
       </c>
       <c r="E49" s="1" cm="1">
-        <f t="array" ref="E49">_xll.xlquoteCOT(I49,"noncommercial_commercial")</f>
-        <v>1695</v>
+        <f t="array" ref="E49">_xll.xlquoteCOT(I49,"Noncommercial-Commercial")</f>
+        <v>-183</v>
       </c>
       <c r="F49" s="1" cm="1">
-        <f t="array" ref="F49">_xll.xlquoteCOT(I49,"change_noncommercial_commercial")</f>
-        <v>1795</v>
-      </c>
-      <c r="G49" s="1">
-        <f>_xll.xlquoteCOT(I49,"NonreportableLong")-_xll.xlquoteCOT(I49,"NonreportableShort")</f>
+        <f t="array" ref="F49">_xll.xlquoteCOT(I49,"Noncommercial-CommercialChange")</f>
+        <v>579</v>
+      </c>
+      <c r="G49" s="1" cm="1">
+        <f t="array" ref="G49">_xll.xlquoteCOT(I49,"NonreportableNet")</f>
         <v>423</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -2315,8 +2317,8 @@
         <f>_xll.xlquoteCOT(I50,"OpenInterest")</f>
         <v>3397</v>
       </c>
-      <c r="C50" s="1">
-        <f>_xll.xlquoteCOT(I50,"NoncommercialLong")-_xll.xlquoteCOT(I50,"NoncommercialShort")</f>
+      <c r="C50" s="1" cm="1">
+        <f t="array" ref="C50">_xll.xlquoteCOT(I50,"NoncommercialNet")</f>
         <v>-404</v>
       </c>
       <c r="D50" s="6">
@@ -2324,27 +2326,27 @@
         <v>-0.11892846629378864</v>
       </c>
       <c r="E50" s="1" cm="1">
-        <f t="array" ref="E50">_xll.xlquoteCOT(I50,"noncommercial_commercial")</f>
-        <v>-40</v>
+        <f t="array" ref="E50">_xll.xlquoteCOT(I50,"Noncommercial-Commercial")</f>
+        <v>-325</v>
       </c>
       <c r="F50" s="1" cm="1">
-        <f t="array" ref="F50">_xll.xlquoteCOT(I50,"change_noncommercial_commercial")</f>
-        <v>422</v>
-      </c>
-      <c r="G50" s="1">
-        <f>_xll.xlquoteCOT(I50,"NonreportableLong")-_xll.xlquoteCOT(I50,"NonreportableShort")</f>
+        <f t="array" ref="F50">_xll.xlquoteCOT(I50,"Noncommercial-CommercialChange")</f>
+        <v>616</v>
+      </c>
+      <c r="G50" s="1" cm="1">
+        <f t="array" ref="G50">_xll.xlquoteCOT(I50,"NonreportableNet")</f>
         <v>482</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I52" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
